--- a/data/hotels_by_city/Denver/Denver_shard_198.xlsx
+++ b/data/hotels_by_city/Denver/Denver_shard_198.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="410">
   <si>
     <t>STR#</t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g33388-d119938-Reviews-Motel_6_Denver_Airport-Denver_Colorado.html</t>
   </si>
   <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>133</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Denver-Hotels-Motel-6-Denver-Airport.h50559.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,1108 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/04/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119938-r574219582-Motel_6_Denver_Airport-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>33388</t>
+  </si>
+  <si>
+    <t>119938</t>
+  </si>
+  <si>
+    <t>574219582</t>
+  </si>
+  <si>
+    <t>04/18/2018</t>
+  </si>
+  <si>
+    <t>Left this area</t>
+  </si>
+  <si>
+    <t>The place is located in an industrial area with a sweet industrial smell. The area is noisy and not relaxing. You have to pay for wifi and there are only 5 rooms with tubs.  If you want cheap but don't want to relax, come here. If you want to feel at ease while traveling pay an extra few $$ and go somewhere else.  The egress and ingress to the motel is confusing and awkward with one way directions. Don't waste your $$.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>6Team, Guest Relations Manager at Motel 6 Denver - Airport, responded to this reviewResponded April 19, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 19, 2018</t>
+  </si>
+  <si>
+    <t>The place is located in an industrial area with a sweet industrial smell. The area is noisy and not relaxing. You have to pay for wifi and there are only 5 rooms with tubs.  If you want cheap but don't want to relax, come here. If you want to feel at ease while traveling pay an extra few $$ and go somewhere else.  The egress and ingress to the motel is confusing and awkward with one way directions. Don't waste your $$.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119938-r567492463-Motel_6_Denver_Airport-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>567492463</t>
+  </si>
+  <si>
+    <t>03/19/2018</t>
+  </si>
+  <si>
+    <t>Your standard Motel 6.</t>
+  </si>
+  <si>
+    <t>It's your standard Motel 6. Nothing fancy, but there's plenty of parking and the rooms are spacious. The rooms have seen some minor wear and tear over the years, though thankfully my room had only small bits of that noticeable. It was largely unobtrusive. As with the other Motel 6 locations I've stayed at, the bed is very large and comfortable, and there are convenient outlets nearby so you can charge your phone or plug in your laptop. Only annoyance is that this location charges for wi-fi. Some do, some don't. The clerk who checked me in gave me a free day (24 hours) of wi-fi though once I realized it wasn't included - I'd already paid for the nights. I wound up using that the first night, then the final night I bought another day's worth.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>It's your standard Motel 6. Nothing fancy, but there's plenty of parking and the rooms are spacious. The rooms have seen some minor wear and tear over the years, though thankfully my room had only small bits of that noticeable. It was largely unobtrusive. As with the other Motel 6 locations I've stayed at, the bed is very large and comfortable, and there are convenient outlets nearby so you can charge your phone or plug in your laptop. Only annoyance is that this location charges for wi-fi. Some do, some don't. The clerk who checked me in gave me a free day (24 hours) of wi-fi though once I realized it wasn't included - I'd already paid for the nights. I wound up using that the first night, then the final night I bought another day's worth.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119938-r550274355-Motel_6_Denver_Airport-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>550274355</t>
+  </si>
+  <si>
+    <t>12/30/2017</t>
+  </si>
+  <si>
+    <t>It sufficed.</t>
+  </si>
+  <si>
+    <t>Didn’t have a whole lot of choice when I had to spend a week in Denver area due to medical needs. This hotel is not fancy- no fridge, no coffee, no microwave in room but it did have a bed, shower and hot water. Can’t say as I was looking for much more out of a $60 room. I’d stay again. Clean, pretty quiet. Slept well.</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119938-r511014081-Motel_6_Denver_Airport-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>511014081</t>
+  </si>
+  <si>
+    <t>08/10/2017</t>
+  </si>
+  <si>
+    <t>Worst dump anywhere</t>
+  </si>
+  <si>
+    <t>My flight was late, but had to sleep 4 to 5 hours before continuing family trip. Arrived around 2 am, receptionis was rude,treated us as thugs and demanded pictures of the IDs even from my kids. Room was horrible, smell of urine, pot and discusting, air conditioning could not be turn off. My option was to go back to rude receptionist, demand room change or, by that time it was 3 am. Decided just to lay on that smelly room. We left early with a head ache and sour throat, what a mistake. Shame on motel6 for keeping that dump open.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team Member at Motel 6 Denver - Airport, responded to this reviewResponded August 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 11, 2017</t>
+  </si>
+  <si>
+    <t>My flight was late, but had to sleep 4 to 5 hours before continuing family trip. Arrived around 2 am, receptionis was rude,treated us as thugs and demanded pictures of the IDs even from my kids. Room was horrible, smell of urine, pot and discusting, air conditioning could not be turn off. My option was to go back to rude receptionist, demand room change or, by that time it was 3 am. Decided just to lay on that smelly room. We left early with a head ache and sour throat, what a mistake. Shame on motel6 for keeping that dump open.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119938-r504003530-Motel_6_Denver_Airport-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>504003530</t>
+  </si>
+  <si>
+    <t>07/20/2017</t>
+  </si>
+  <si>
+    <t>Overnight Stay for a Medical Appointment at the VA</t>
+  </si>
+  <si>
+    <t>The motel is in a run down part of town, The building is old and needs to be replaced. Even though they say it has been remodeled it has not, the room that I had ( since I wasn't able to get a room some place else) was not remodeled at all, there was dust all over there " hardwood floors" Which were not hardwood at all, just some cheap wood tile that was coming up, the AC wasn't working, someone had put god knows what over the peep hole on the door, the shower curtine was nearly tore in two, and in the day and age of WiFi, this chain still charges persons for access, It took nearly forever to get to just to log in. Overall this is not a place that you want to stay out, if you have the chance make sure that you plan ahead and find a place somewhere else to stay at. I am sure that your wallet and piece of mind will thank you for it.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>The motel is in a run down part of town, The building is old and needs to be replaced. Even though they say it has been remodeled it has not, the room that I had ( since I wasn't able to get a room some place else) was not remodeled at all, there was dust all over there " hardwood floors" Which were not hardwood at all, just some cheap wood tile that was coming up, the AC wasn't working, someone had put god knows what over the peep hole on the door, the shower curtine was nearly tore in two, and in the day and age of WiFi, this chain still charges persons for access, It took nearly forever to get to just to log in. Overall this is not a place that you want to stay out, if you have the chance make sure that you plan ahead and find a place somewhere else to stay at. I am sure that your wallet and piece of mind will thank you for it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119938-r499118642-Motel_6_Denver_Airport-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>499118642</t>
+  </si>
+  <si>
+    <t>07/06/2017</t>
+  </si>
+  <si>
+    <t>Average.</t>
+  </si>
+  <si>
+    <t>Needed a place to crash after a late night flight in...The check in was quick even at 1 am...The rooms were clean...Basic requirements available....The worst part was there were cockroaches on the floor which was disgusting....MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Needed a place to crash after a late night flight in...The check in was quick even at 1 am...The rooms were clean...Basic requirements available....The worst part was there were cockroaches on the floor which was disgusting....More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119938-r477712202-Motel_6_Denver_Airport-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>477712202</t>
+  </si>
+  <si>
+    <t>04/21/2017</t>
+  </si>
+  <si>
+    <t>Pass this one by!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sorry, but this place was terrible! Soft beds, dirty sheets, smoky smell in nonsmoking room. We were beat after late night flight, otherwise would have cancelled. We slept, got up early and left it in our rear view mirror. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119938-r467546865-Motel_6_Denver_Airport-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>467546865</t>
+  </si>
+  <si>
+    <t>03/15/2017</t>
+  </si>
+  <si>
+    <t>Your basic Motel 6</t>
+  </si>
+  <si>
+    <t>The primary issue I have with this location is that you can't control whether you get heating or cooling in your room, the front office does.So, if it's 70° outside and all you get is heat, even with the in-room unit off the room gets toasty.</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119938-r467030772-Motel_6_Denver_Airport-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>467030772</t>
+  </si>
+  <si>
+    <t>03/13/2017</t>
+  </si>
+  <si>
+    <t>A NIGHTMARE. STAFF IS DISGUSTING AND SO IS THEIR SERVICE AND ROOMS. METHHEADS EVERYWHERE</t>
+  </si>
+  <si>
+    <t>FIRST of all there is a prison right behind it. Then there are meth heads everywhere waiting to sabotage rooms. It is not a safe place and they do not accommodate. This place would be nice if the owners just payed attention to it instead of letting it run down. Do not get a room here where the walls are paper thin and the bathrooms clog up if they aren't already clogged when you get there. Bad place</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119938-r452459599-Motel_6_Denver_Airport-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>452459599</t>
+  </si>
+  <si>
+    <t>01/16/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great for what it is. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cheap for Denver. Clean room, nice staff. No breakfast and charge for wifi, but you get what you pay for I guess. Worst thing would be only showers no bathtub but most could probably live with it. All in all not bad at all. Yolanda and Angela were most pleasant. </t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119938-r449232844-Motel_6_Denver_Airport-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>449232844</t>
+  </si>
+  <si>
+    <t>01/04/2017</t>
+  </si>
+  <si>
+    <t>No internet.. U have to buy it..</t>
+  </si>
+  <si>
+    <t>Its a 15-20 mins drive from the airport. Not worth staying for what they charge.No fridge or microwave not even internet. You have to pay the price if u want to use there internet.. Its a no no to any of the Motel6 hotels..</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119938-r445944050-Motel_6_Denver_Airport-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>445944050</t>
+  </si>
+  <si>
+    <t>12/21/2016</t>
+  </si>
+  <si>
+    <t>clean Friendly great rate</t>
+  </si>
+  <si>
+    <t>Overall great service with a large room at a rate $20 less than next door.  I would stay again. Quiet room and neighborhood.  Near Denver airport and close enough to downtown  for convenience. Updated Motel 6 style.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119938-r419216297-Motel_6_Denver_Airport-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>419216297</t>
+  </si>
+  <si>
+    <t>09/16/2016</t>
+  </si>
+  <si>
+    <t>Extremely overpriced dump</t>
+  </si>
+  <si>
+    <t>The linens all had hair from previous guests and the Wi-Fi that I paid an extra fee for was a total fiasco. The extra Wi-Fi fee is for each device so if you want to run more than one device you have to pay multiple fees. They won't tell you that at the front desk check-in. The Wi-Fi also really didn't work very well at all. I actually had to leave the room and walk around outside to get signal a few times.Our door also did not close all the way. The door looked like it had been kicked in before and never fixed. I reserved reserved our room ahead of time with a simple request for safety and sleep for a mere few hours before checking out early. You would think we would have a better room waiting for us but when we asked to switch rooms they said we got the last one. I find this hard to believe because the room next to us was empty.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>The linens all had hair from previous guests and the Wi-Fi that I paid an extra fee for was a total fiasco. The extra Wi-Fi fee is for each device so if you want to run more than one device you have to pay multiple fees. They won't tell you that at the front desk check-in. The Wi-Fi also really didn't work very well at all. I actually had to leave the room and walk around outside to get signal a few times.Our door also did not close all the way. The door looked like it had been kicked in before and never fixed. I reserved reserved our room ahead of time with a simple request for safety and sleep for a mere few hours before checking out early. You would think we would have a better room waiting for us but when we asked to switch rooms they said we got the last one. I find this hard to believe because the room next to us was empty.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119938-r406850470-Motel_6_Denver_Airport-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>406850470</t>
+  </si>
+  <si>
+    <t>08/17/2016</t>
+  </si>
+  <si>
+    <t>Consider other options</t>
+  </si>
+  <si>
+    <t>The only highlight of our one night stay was the friendly and positive attitude of the desk attendant.  Everything else went downhill from that point.  Our room was small, obnoxiously orange, cramped and a good way to describe it would be "bare bones".  There was one bar of soap, thin towels, threadbare bedding, one pillow per person, no iron and a very outdated table with one not very sturdy looking chair.  It looked like a setting for a movie with a plot line related to drug trafficking.  Cleanliness was a concern and there were some questionable substances on the wall next to the bed. After arriving on our late night flight, we were hoping to sleep in but were woken by the sound of screaming children.  The disturbance went on for an excessive amount of time and the parents of the children and staff of the hotel did not make much of an effort to correct the problem.  We were not impressed, regretted selecting this motel and would not recommend this lodging to people who have standards to be met.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>The only highlight of our one night stay was the friendly and positive attitude of the desk attendant.  Everything else went downhill from that point.  Our room was small, obnoxiously orange, cramped and a good way to describe it would be "bare bones".  There was one bar of soap, thin towels, threadbare bedding, one pillow per person, no iron and a very outdated table with one not very sturdy looking chair.  It looked like a setting for a movie with a plot line related to drug trafficking.  Cleanliness was a concern and there were some questionable substances on the wall next to the bed. After arriving on our late night flight, we were hoping to sleep in but were woken by the sound of screaming children.  The disturbance went on for an excessive amount of time and the parents of the children and staff of the hotel did not make much of an effort to correct the problem.  We were not impressed, regretted selecting this motel and would not recommend this lodging to people who have standards to be met.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119938-r403056571-Motel_6_Denver_Airport-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>403056571</t>
+  </si>
+  <si>
+    <t>08/08/2016</t>
+  </si>
+  <si>
+    <t>Crapppy hotel!!!!!!</t>
+  </si>
+  <si>
+    <t>This place is horrible I'm staying here and the hinges are coming off the door you can't even lock it and this place is ghetto so locking the door is kinda a big thing! The lady at the front desk is a total sweet heart I really hated having to call and complain about my room and thankfully she got it switched! This place has no microwaves. The beds look like something they picked up from a dumpster in the alley</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119938-r392747307-Motel_6_Denver_Airport-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>392747307</t>
+  </si>
+  <si>
+    <t>07/14/2016</t>
+  </si>
+  <si>
+    <t>Poor</t>
+  </si>
+  <si>
+    <t>Cold water. They turn their heat off early early in the "season" May... it still gets about 35° at night in colorado during that month. Needless to say it wasn't pleasant. To expensive for the room as well.</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119938-r391919774-Motel_6_Denver_Airport-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>391919774</t>
+  </si>
+  <si>
+    <t>07/12/2016</t>
+  </si>
+  <si>
+    <t>Maybe another hotel in the future</t>
+  </si>
+  <si>
+    <t>Well after not being able to find a hotel close to the airport, we settled on this one. Cheap rates but low stars from previous reviews. Maybe we should have looked further.Hotel has easy access to the interstate with low prices, but thats about it. No refrigerator, microwave or coffee pot.Rooms are non-smoking, but several cigarette burns on the furniture and bedding. Floors are dirty, so wearing flip-flops is a must.While using their outside pool, some tenants must be staying long term as they have their own grills for cooking. Varios cars do slow drive throughs while tenents run out to the occupants. Unsure of the business at hand, but at least there is a security guard at night.Your mileage may very with your own experiences. MoreShow less</t>
+  </si>
+  <si>
+    <t>Well after not being able to find a hotel close to the airport, we settled on this one. Cheap rates but low stars from previous reviews. Maybe we should have looked further.Hotel has easy access to the interstate with low prices, but thats about it. No refrigerator, microwave or coffee pot.Rooms are non-smoking, but several cigarette burns on the furniture and bedding. Floors are dirty, so wearing flip-flops is a must.While using their outside pool, some tenants must be staying long term as they have their own grills for cooking. Varios cars do slow drive throughs while tenents run out to the occupants. Unsure of the business at hand, but at least there is a security guard at night.Your mileage may very with your own experiences. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119938-r388160480-Motel_6_Denver_Airport-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>388160480</t>
+  </si>
+  <si>
+    <t>07/01/2016</t>
+  </si>
+  <si>
+    <t>Sketchy</t>
+  </si>
+  <si>
+    <t>The area where is located this motel 6 is super sketchy. Tons of shady people in the streets. I stood there to be near the airport, I had a very early morning flight, so I could take the light rail. The area was so sketchy, that everybody recommended to take the bus to the station than to take the 5 minute walk.Even though the lady at the front desk was really nice. The room that I got smelled a lot of cigarettes,  a lot. At the beginning was a bit unbearable. If you're not up to a bit scary adventures, I wouldn't recommend this spot.</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119938-r360495533-Motel_6_Denver_Airport-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>360495533</t>
+  </si>
+  <si>
+    <t>03/31/2016</t>
+  </si>
+  <si>
+    <t>Denver March Powwow</t>
+  </si>
+  <si>
+    <t>..outside property area untidy &amp; un-inviting. Bathroom not as clean as expected. Only 3 thin towls provided. Got a fair deal for no t.v. in the room. Star Motel across the street is comparable. The Denny's next door is a nice place to mow down.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team Member at Motel 6 Denver - Airport, responded to this reviewResponded April 7, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 7, 2016</t>
+  </si>
+  <si>
+    <t>..outside property area untidy &amp; un-inviting. Bathroom not as clean as expected. Only 3 thin towls provided. Got a fair deal for no t.v. in the room. Star Motel across the street is comparable. The Denny's next door is a nice place to mow down.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119938-r356978346-Motel_6_Denver_Airport-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>356978346</t>
+  </si>
+  <si>
+    <t>03/20/2016</t>
+  </si>
+  <si>
+    <t>WORST HOTEL IVE EVER STAYED AT</t>
+  </si>
+  <si>
+    <t>I've worked in the hotel industry for 2 consecutive years and let me tell you I've never stayed at a more horrendous hotel... The non-smoking REEKS of cigarette smoke, and for a non-smoker myself and the rest of my family three more people whom do not smoke have to endure the TERRIBLE stench of smoke it is so bad we have to open our window which does not even have a screen on window (safety hazard) front desk are not accommodating what so ever nor do they even answer their front desk phone. Also, the beds have several cigarette bud holes in the bed. We asked front desk about smell, and she proceeded to tell us that every room smells like this; so you mean to tell me all your "non-smoking" rooms smell like cigarettes!? I cannot fathom how utterly terrible the customer service is! This hotel needs to be SHUT DOWN for its poor quality period! I have never been so upset with a hotel in my entire life! Anyone who is reading this take my advice before you get the same treatment!MoreShow less</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team Member at Motel 6 Denver - Airport, responded to this reviewResponded March 29, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 29, 2016</t>
+  </si>
+  <si>
+    <t>I've worked in the hotel industry for 2 consecutive years and let me tell you I've never stayed at a more horrendous hotel... The non-smoking REEKS of cigarette smoke, and for a non-smoker myself and the rest of my family three more people whom do not smoke have to endure the TERRIBLE stench of smoke it is so bad we have to open our window which does not even have a screen on window (safety hazard) front desk are not accommodating what so ever nor do they even answer their front desk phone. Also, the beds have several cigarette bud holes in the bed. We asked front desk about smell, and she proceeded to tell us that every room smells like this; so you mean to tell me all your "non-smoking" rooms smell like cigarettes!? I cannot fathom how utterly terrible the customer service is! This hotel needs to be SHUT DOWN for its poor quality period! I have never been so upset with a hotel in my entire life! Anyone who is reading this take my advice before you get the same treatment!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119938-r349819998-Motel_6_Denver_Airport-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>349819998</t>
+  </si>
+  <si>
+    <t>02/21/2016</t>
+  </si>
+  <si>
+    <t>Airport stay</t>
+  </si>
+  <si>
+    <t>I'm in our room right now, room 122. The bedspread has two big cigarette burn holes in it, the pillow is ripped up, the wake up call # is not working. We have stayed at Motel 6 a number of times, but this is the worst.</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119938-r320199772-Motel_6_Denver_Airport-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>320199772</t>
+  </si>
+  <si>
+    <t>10/19/2015</t>
+  </si>
+  <si>
+    <t>No extras but convenient.....</t>
+  </si>
+  <si>
+    <t>We stayed here because of the price and closeness to Denver Airport. No shampoo, I had to ask for towels but clean. The woman who checked us in was pleasant and helpful. Not in a good area but to sleep only was fine.</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119938-r318441623-Motel_6_Denver_Airport-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>318441623</t>
+  </si>
+  <si>
+    <t>10/13/2015</t>
+  </si>
+  <si>
+    <t>Please Do Not Stay here , pay $20-30 and have a good night sleep</t>
+  </si>
+  <si>
+    <t>Horrible experience!Only Good point is near to DENVER airport.Rooms have weird smells... I guess it was smoking room even though written as non smoking room.Unfriendly staffs...  Please avoid this hotel. If possible pay 20$ more and have a good night sleep,We were there for 6 hours just for a next day flight while returning from Rocky. It was very bad experience.MoreShow less</t>
+  </si>
+  <si>
+    <t>6Team, brand expericened team member at Motel 6 Denver - Airport, responded to this reviewResponded October 16, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 16, 2015</t>
+  </si>
+  <si>
+    <t>Horrible experience!Only Good point is near to DENVER airport.Rooms have weird smells... I guess it was smoking room even though written as non smoking room.Unfriendly staffs...  Please avoid this hotel. If possible pay 20$ more and have a good night sleep,We were there for 6 hours just for a next day flight while returning from Rocky. It was very bad experience.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119938-r302960929-Motel_6_Denver_Airport-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>302960929</t>
+  </si>
+  <si>
+    <t>08/24/2015</t>
+  </si>
+  <si>
+    <t>GReat</t>
+  </si>
+  <si>
+    <t>It was clean no weird smells...beds were comfortable. Staff was friendly. Good price ...Dennys right next to  it. It was awesome. I had fun..nothing  on tv lol but who goes out  to travel and stays to watch  tv  anyway  ..swimming pool was clean .</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119938-r291315524-Motel_6_Denver_Airport-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>291315524</t>
+  </si>
+  <si>
+    <t>07/21/2015</t>
+  </si>
+  <si>
+    <t>Sketchy Motel</t>
+  </si>
+  <si>
+    <t>Moved my daughter and grandson cross country and needed a place in Denver that would take pets and was close to I-70. When we called the motel they assured us it was newly renovated, family friendly and had great security. The last one should have given us a clue because they needed it! This is probably the scariest motel I have ever stayed in. Do not take your kids here. I imagine all kinds of questionable things go down here from what I observed. Our AC wasn't working and it was 100*. When security brought us a fan they were shocked we had a baby in the room. We were gone at daybreak.....MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 Denver - Airport, responded to this reviewResponded July 27, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 27, 2015</t>
+  </si>
+  <si>
+    <t>Moved my daughter and grandson cross country and needed a place in Denver that would take pets and was close to I-70. When we called the motel they assured us it was newly renovated, family friendly and had great security. The last one should have given us a clue because they needed it! This is probably the scariest motel I have ever stayed in. Do not take your kids here. I imagine all kinds of questionable things go down here from what I observed. Our AC wasn't working and it was 100*. When security brought us a fan they were shocked we had a baby in the room. We were gone at daybreak.....More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119938-r290250389-Motel_6_Denver_Airport-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>290250389</t>
+  </si>
+  <si>
+    <t>07/18/2015</t>
+  </si>
+  <si>
+    <t>Good budget Motel</t>
+  </si>
+  <si>
+    <t>We stay in Motel 6 usually. This motel is very clean, the room is nice but not much of a view.  It was very easy to get to the interstate. It is very convenient to the airport.  The staff was very friendly and I like that they have karaoke at 6 AM</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119938-r285091884-Motel_6_Denver_Airport-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>285091884</t>
+  </si>
+  <si>
+    <t>07/02/2015</t>
+  </si>
+  <si>
+    <t>Wil never stay here again!</t>
+  </si>
+  <si>
+    <t>This was the worst hotel I have ever been to!!!  It was scary lots of traffic someone tried to get in our room in the middle of the night there where cars lined up along the hotel with a person walking back and forth assuming drug deals..  Very loud people coming up to us to borrow things we had no hand towels no frig no hair dryer the shower leaked and the smoke alarm beeped only at night..  I would never stay here again would not recommend anyone staying here..MoreShow less</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 Denver - Airport, responded to this reviewResponded July 6, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 6, 2015</t>
+  </si>
+  <si>
+    <t>This was the worst hotel I have ever been to!!!  It was scary lots of traffic someone tried to get in our room in the middle of the night there where cars lined up along the hotel with a person walking back and forth assuming drug deals..  Very loud people coming up to us to borrow things we had no hand towels no frig no hair dryer the shower leaked and the smoke alarm beeped only at night..  I would never stay here again would not recommend anyone staying here..More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119938-r278171604-Motel_6_Denver_Airport-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>278171604</t>
+  </si>
+  <si>
+    <t>06/05/2015</t>
+  </si>
+  <si>
+    <t>Good for an overnight stay</t>
+  </si>
+  <si>
+    <t>My wife and I have stayed at this motel a few times before early morning flights at Denver Airport. I wouldn't want to live there but it's fine for a single night. It's clean and quiet if you get a room away from I70. But don't depend on a wake up call to make a flight. We have asked for one a few times and they never deliver.</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119938-r277690395-Motel_6_Denver_Airport-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>277690395</t>
+  </si>
+  <si>
+    <t>06/03/2015</t>
+  </si>
+  <si>
+    <t>Inexpensive hotel with great customer service</t>
+  </si>
+  <si>
+    <t>Lori, the wonderful lady who checked us in, was so helpful and friendly and went out of her way to provide excellent customer service! She made us feel welcome and safe. There have been many reviews of it being in a bad area, it's quite safe and nothing to worry about, we are 2 young girls and didn't feel threatened in any way. The non-smoking room did smell as if someone had just put out a cigarette and did have that old musty cigarette smell to it but it was clean. The hotel is definitely a little older but for the price you 're paying, you can't expect The Four Seasons, so if that's what you're looking for .. book The Four Seasons! I will definitely stay here again. Thanks Lori!MoreShow less</t>
+  </si>
+  <si>
+    <t>Lori, the wonderful lady who checked us in, was so helpful and friendly and went out of her way to provide excellent customer service! She made us feel welcome and safe. There have been many reviews of it being in a bad area, it's quite safe and nothing to worry about, we are 2 young girls and didn't feel threatened in any way. The non-smoking room did smell as if someone had just put out a cigarette and did have that old musty cigarette smell to it but it was clean. The hotel is definitely a little older but for the price you 're paying, you can't expect The Four Seasons, so if that's what you're looking for .. book The Four Seasons! I will definitely stay here again. Thanks Lori!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119938-r275550893-Motel_6_Denver_Airport-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>275550893</t>
+  </si>
+  <si>
+    <t>05/29/2015</t>
+  </si>
+  <si>
+    <t>Motel 6 are usually good.... not this one</t>
+  </si>
+  <si>
+    <t>I've stayed in a couple of motel 6 when ive  got into town late and they have been very good... unfortunately this one was the poorest one i havd stayed in so far. The air con did not work, the floor had this awful oil film on it which made it horrible to walk on and the was the brightest light outside our room which made it difficult to sleep. The best thing about this particular motel 6 was the shower. MoreShow less</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 Denver - Airport, responded to this reviewResponded June 1, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 1, 2015</t>
+  </si>
+  <si>
+    <t>I've stayed in a couple of motel 6 when ive  got into town late and they have been very good... unfortunately this one was the poorest one i havd stayed in so far. The air con did not work, the floor had this awful oil film on it which made it horrible to walk on and the was the brightest light outside our room which made it difficult to sleep. The best thing about this particular motel 6 was the shower. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119938-r269127723-Motel_6_Denver_Airport-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>269127723</t>
+  </si>
+  <si>
+    <t>04/30/2015</t>
+  </si>
+  <si>
+    <t>Good for cheap price</t>
+  </si>
+  <si>
+    <t>This is exactly what you would expect for the cheaper as dirt price. The area is a little confusing to get in and out of but has a gas station across the street which is convenient. Some sketchy people outside when we arrived at 2:30 a.m. but there was no noise or other problems. Clean room and bathroom always a plus !!</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119938-r265111661-Motel_6_Denver_Airport-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>265111661</t>
+  </si>
+  <si>
+    <t>04/11/2015</t>
+  </si>
+  <si>
+    <t>Tom Bodett would be afraid to turn the lights off here</t>
+  </si>
+  <si>
+    <t>I have stayed at many a Motel 6 and had nary a complaint, this one however...I arrived late expecting a quick and painless check-in, however it must have been free gin and cheap soiled dove night (or perhaps it was the other way around?) As the lobby was filled with sordid characters all desperately seeking a bed that Friday evening. The overwhelmed desk clerk was doing her best to remain level-headed but was hard pressed to do so as nearly every one she turned away invariably offered extra cash to be accommodated, it was fruitless desperation on their part as no rooms were left. Besides the smoke-free room smelled of smoke, no shampoo and looking as if it was used for a pan-handlers roost, there was a a lovely parting gift as we left in the morning, someone had left a puddle of urine at the top of the steps and had tried their best to simulate a yellow waterfall...stay somewhere else and leave this Motel to the unsavory individuals that frequent this den of iniquity.MoreShow less</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 Denver - Airport, responded to this reviewResponded April 15, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 15, 2015</t>
+  </si>
+  <si>
+    <t>I have stayed at many a Motel 6 and had nary a complaint, this one however...I arrived late expecting a quick and painless check-in, however it must have been free gin and cheap soiled dove night (or perhaps it was the other way around?) As the lobby was filled with sordid characters all desperately seeking a bed that Friday evening. The overwhelmed desk clerk was doing her best to remain level-headed but was hard pressed to do so as nearly every one she turned away invariably offered extra cash to be accommodated, it was fruitless desperation on their part as no rooms were left. Besides the smoke-free room smelled of smoke, no shampoo and looking as if it was used for a pan-handlers roost, there was a a lovely parting gift as we left in the morning, someone had left a puddle of urine at the top of the steps and had tried their best to simulate a yellow waterfall...stay somewhere else and leave this Motel to the unsavory individuals that frequent this den of iniquity.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119938-r235262157-Motel_6_Denver_Airport-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>235262157</t>
+  </si>
+  <si>
+    <t>10/19/2014</t>
+  </si>
+  <si>
+    <t>Don't be fooled by exterior</t>
+  </si>
+  <si>
+    <t>As rehabs go, this one looks extensive.  I was beginning to wonder if I made a bad choice, but when I got tomy room I was pleasantly surprised.  It was clean, comfy, and looked new.  It appears they haven't made it to the exterior yet.  Easy and short drive to airport and food.  Worth a shot.</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119938-r223066633-Motel_6_Denver_Airport-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>223066633</t>
+  </si>
+  <si>
+    <t>08/19/2014</t>
+  </si>
+  <si>
+    <t>Choose another airport option in Denver</t>
+  </si>
+  <si>
+    <t>Motel 6 is usually a reliable choice, especially in an area you don't know well or if you just need somewhere to sleep before an early flight. As a budget traveler, I often look where Tom Bodett "leaves the light on" for me. But if Tom stayed here, he'd be locked in his room with the blinds drawn. This particular Motel 6 is in a not-so-nice area of Denver and clearly attracts a rough crowd. Since it bills itself as an "airport" motel, it attracts travelers on their way to Denver International, but they find themselves in uneasy coexistence with a distinctly unsavory element. I rarely double-lock motel doors and frequently open windows at night, but when I stayed here with my 14-year-old daughter, I wouldn't let her stay in the car while I went to check in and I made sure our curtains were pulled and our windows and doors locked.
+Despite this, the staff was friendly and helpful. We were checked in by a very pleasant woman, though she appeared to be training a young man who might have been hired for his ability to deal with the tougher clientele. The room itself was clean enough and comfortable enough, and the walls were thick enough to keep us from hearing our neighbors. So, our one-night stay was OK.
+However, besides the atmosphere, there were many things that were not up to Motel 6 standards. Our room (with two...Motel 6 is usually a reliable choice, especially in an area you don't know well or if you just need somewhere to sleep before an early flight. As a budget traveler, I often look where Tom Bodett "leaves the light on" for me. But if Tom stayed here, he'd be locked in his room with the blinds drawn. This particular Motel 6 is in a not-so-nice area of Denver and clearly attracts a rough crowd. Since it bills itself as an "airport" motel, it attracts travelers on their way to Denver International, but they find themselves in uneasy coexistence with a distinctly unsavory element. I rarely double-lock motel doors and frequently open windows at night, but when I stayed here with my 14-year-old daughter, I wouldn't let her stay in the car while I went to check in and I made sure our curtains were pulled and our windows and doors locked.Despite this, the staff was friendly and helpful. We were checked in by a very pleasant woman, though she appeared to be training a young man who might have been hired for his ability to deal with the tougher clientele. The room itself was clean enough and comfortable enough, and the walls were thick enough to keep us from hearing our neighbors. So, our one-night stay was OK.However, besides the atmosphere, there were many things that were not up to Motel 6 standards. Our room (with two double beds) had two bath mats, three bath towels and no hand towels. There was no shampoo. There was no alarm clock and no wake-up call service. The room was non-smoking and didn't smell, but there were smokers outside all over the property, so the whole place had a smoky feel. We had to pay $3 extra for wireless (within the bounds of Motel 6 policy, but most actually offer free wireless).I expect to be able to book a Motel 6 anywhere and get a safe, comfortable, family friendly place to stay. This is the most notable exception I've yet seen. And, it's not even all that close to the airport - about 12 miles, no shuttle service. There are several other chain hotels that are closer, and while this might be the cheapest, this is one case where Motel 6 was a mistake.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 Denver - Airport, responded to this reviewResponded August 21, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 21, 2014</t>
+  </si>
+  <si>
+    <t>Motel 6 is usually a reliable choice, especially in an area you don't know well or if you just need somewhere to sleep before an early flight. As a budget traveler, I often look where Tom Bodett "leaves the light on" for me. But if Tom stayed here, he'd be locked in his room with the blinds drawn. This particular Motel 6 is in a not-so-nice area of Denver and clearly attracts a rough crowd. Since it bills itself as an "airport" motel, it attracts travelers on their way to Denver International, but they find themselves in uneasy coexistence with a distinctly unsavory element. I rarely double-lock motel doors and frequently open windows at night, but when I stayed here with my 14-year-old daughter, I wouldn't let her stay in the car while I went to check in and I made sure our curtains were pulled and our windows and doors locked.
+Despite this, the staff was friendly and helpful. We were checked in by a very pleasant woman, though she appeared to be training a young man who might have been hired for his ability to deal with the tougher clientele. The room itself was clean enough and comfortable enough, and the walls were thick enough to keep us from hearing our neighbors. So, our one-night stay was OK.
+However, besides the atmosphere, there were many things that were not up to Motel 6 standards. Our room (with two...Motel 6 is usually a reliable choice, especially in an area you don't know well or if you just need somewhere to sleep before an early flight. As a budget traveler, I often look where Tom Bodett "leaves the light on" for me. But if Tom stayed here, he'd be locked in his room with the blinds drawn. This particular Motel 6 is in a not-so-nice area of Denver and clearly attracts a rough crowd. Since it bills itself as an "airport" motel, it attracts travelers on their way to Denver International, but they find themselves in uneasy coexistence with a distinctly unsavory element. I rarely double-lock motel doors and frequently open windows at night, but when I stayed here with my 14-year-old daughter, I wouldn't let her stay in the car while I went to check in and I made sure our curtains were pulled and our windows and doors locked.Despite this, the staff was friendly and helpful. We were checked in by a very pleasant woman, though she appeared to be training a young man who might have been hired for his ability to deal with the tougher clientele. The room itself was clean enough and comfortable enough, and the walls were thick enough to keep us from hearing our neighbors. So, our one-night stay was OK.However, besides the atmosphere, there were many things that were not up to Motel 6 standards. Our room (with two double beds) had two bath mats, three bath towels and no hand towels. There was no shampoo. There was no alarm clock and no wake-up call service. The room was non-smoking and didn't smell, but there were smokers outside all over the property, so the whole place had a smoky feel. We had to pay $3 extra for wireless (within the bounds of Motel 6 policy, but most actually offer free wireless).I expect to be able to book a Motel 6 anywhere and get a safe, comfortable, family friendly place to stay. This is the most notable exception I've yet seen. And, it's not even all that close to the airport - about 12 miles, no shuttle service. There are several other chain hotels that are closer, and while this might be the cheapest, this is one case where Motel 6 was a mistake.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119938-r217350678-Motel_6_Denver_Airport-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>217350678</t>
+  </si>
+  <si>
+    <t>07/24/2014</t>
+  </si>
+  <si>
+    <t>Scary</t>
+  </si>
+  <si>
+    <t>We thought this would be a good motel because it was on the hospital's list for discounted rates.  We were soooo wrong. We saw drug deals happen in the daylight, the non-smoking rooms had ashtrays in them with a sticker on the bottom that said No Smoking...HA! The smoke alarm was even covered in a plastic bag so it wouldn't go off. There were stains on the bedding and we ended up spraying an entire bottle of Febreze just to cover up some of the smell! I wouldn't recommend this place to my worst enemy. We felt extremely unsafe.</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119938-r217244482-Motel_6_Denver_Airport-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>217244482</t>
+  </si>
+  <si>
+    <t>It's a Motel 6!</t>
+  </si>
+  <si>
+    <t>Keep in mind, I don't expect 5 star rooms from a Motel 6.  My biggest disappointment was that check in is supposed to be at 3, but due to staffing issues, did not get my room until 7:30.  We weren't the only ones waiting.Also, for a non-smoking room, it had an ashtray in it and it smelled like a smoking room.Otherwise, it worked for the overnight stay we did, and the kids enjoyed the pool.  It also had a refrigerator and microwave, but don't expect a tub, it was just a shower.Close enough to the airport and other restaurants, if you don't mind driving a few minutes to go get something to eat.MoreShow less</t>
+  </si>
+  <si>
+    <t>Keep in mind, I don't expect 5 star rooms from a Motel 6.  My biggest disappointment was that check in is supposed to be at 3, but due to staffing issues, did not get my room until 7:30.  We weren't the only ones waiting.Also, for a non-smoking room, it had an ashtray in it and it smelled like a smoking room.Otherwise, it worked for the overnight stay we did, and the kids enjoyed the pool.  It also had a refrigerator and microwave, but don't expect a tub, it was just a shower.Close enough to the airport and other restaurants, if you don't mind driving a few minutes to go get something to eat.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119938-r211009452-Motel_6_Denver_Airport-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>211009452</t>
+  </si>
+  <si>
+    <t>06/18/2014</t>
+  </si>
+  <si>
+    <t>Great Stay!</t>
+  </si>
+  <si>
+    <t>This motel is a great place to stay; good location, great rate, and great staff. Room was clean and included a fridge and microwave. On-site security cameras and a caring staff made me feel very secure even though I was staying there alone. Only downside was the AC was not working very well.</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119938-r206468159-Motel_6_Denver_Airport-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>206468159</t>
+  </si>
+  <si>
+    <t>05/21/2014</t>
+  </si>
+  <si>
+    <t>Run Down!</t>
+  </si>
+  <si>
+    <t>Made the mistake of booking in this motel 6, while the room was clean and staff very friendly the room was beyond needing new paint, the rooms need to be gutted and the area is sketchy at best! We moved to another hotel within hours of arriving, again the staff was friendly but i will never stay in this motel.</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119938-r199316135-Motel_6_Denver_Airport-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>199316135</t>
+  </si>
+  <si>
+    <t>03/30/2014</t>
+  </si>
+  <si>
+    <t>I was concerned about motels bit this one changed my mind.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very clean pulled up and security was there when you checked in. Fantastic for the price. Clean comfy room, car was able to be parked in full view of the balcony (walkway bit) outside the room. Reception was very friendly. Planning our next American adventure and we will defiantly be staying in motel 6's again! </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119938-r180079018-Motel_6_Denver_Airport-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>180079018</t>
+  </si>
+  <si>
+    <t>10/07/2013</t>
+  </si>
+  <si>
+    <t>ok motel</t>
+  </si>
+  <si>
+    <t>We came in late in the evening and the man at the entrence was very friendly, room was ok, all we needed was a bed..... No breakfast in the morning.We did not experience any trouble that night and no noise from the other rooms.</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119938-r176375273-Motel_6_Denver_Airport-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>176375273</t>
+  </si>
+  <si>
+    <t>09/08/2013</t>
+  </si>
+  <si>
+    <t>Beyond my expectations!</t>
+  </si>
+  <si>
+    <t>I've never been to American motels and weren't sure what I should wait for. Our Motel is really nice! Fast chech-in (we've made our booking via Booking.com), clean room, useful bathroom, helpful staff- me and my boyfriend are absolutely happy with all we got!   I'd like to say of two not good points: we stayed two nights, and when we came back after housekeeping service after the first night our kees were blocked. The trouble was solved at the reception but it was unexpected for us. what was the reason, I don't know. the second unpleasant thing was that the floor under the bed was't clean enough. Everything above that was ok. Eager to reach Motel 6 in Green River soon!)))MoreShow less</t>
+  </si>
+  <si>
+    <t>I've never been to American motels and weren't sure what I should wait for. Our Motel is really nice! Fast chech-in (we've made our booking via Booking.com), clean room, useful bathroom, helpful staff- me and my boyfriend are absolutely happy with all we got!   I'd like to say of two not good points: we stayed two nights, and when we came back after housekeeping service after the first night our kees were blocked. The trouble was solved at the reception but it was unexpected for us. what was the reason, I don't know. the second unpleasant thing was that the floor under the bed was't clean enough. Everything above that was ok. Eager to reach Motel 6 in Green River soon!)))More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119938-r171750023-Motel_6_Denver_Airport-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>171750023</t>
+  </si>
+  <si>
+    <t>08/11/2013</t>
+  </si>
+  <si>
+    <t>NOT Airport hotel- Avoid it!!!</t>
+  </si>
+  <si>
+    <t>This is not an Airport hotel. Certainly the worst M6 motel I stayed in. Especially at the weekends the are "thousands" of Afro-americans listening music, walking around, shouting at each other. You will barely sleep through the night. We arrived at 9 PM, friday and received room card quickly. Unfortunetaly our room was occupied by 4 people. When I entered the room I have woken them up and they were terribly screaming....Room was not clean properly- black hair in bed....Drug dealing activity and terible noise through whole night.In fact this is not an airport hotel, you want sleep at all....If you are looking for a decent airport hotel go for Sleep inn DIA.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>This is not an Airport hotel. Certainly the worst M6 motel I stayed in. Especially at the weekends the are "thousands" of Afro-americans listening music, walking around, shouting at each other. You will barely sleep through the night. We arrived at 9 PM, friday and received room card quickly. Unfortunetaly our room was occupied by 4 people. When I entered the room I have woken them up and they were terribly screaming....Room was not clean properly- black hair in bed....Drug dealing activity and terible noise through whole night.In fact this is not an airport hotel, you want sleep at all....If you are looking for a decent airport hotel go for Sleep inn DIA.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119938-r157818222-Motel_6_Denver_Airport-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>157818222</t>
+  </si>
+  <si>
+    <t>04/15/2013</t>
+  </si>
+  <si>
+    <t>Some upgrades from before, but mostly the same as it ever was</t>
+  </si>
+  <si>
+    <t>I had an overnight stay here after arriving in Denver. I have stayed at this property in the past so I knew what I was getting, and I was interested as it supposedly had been upgraded to the latest Motel 6 decor.I get there and while the carpeting has been replaced with the faux-hardwood flooring, and the bed now in an IKEA-style platform, it largely looked the same as my previous visit. It still had the old tube-type TV and most of the furniture from before. The bedding with its flat pillows and the thin, scratchy towels were mostly the same; the exception is that this property finally did away with bedspreads (YAY!). However the blanket did have a suspicious stain on it, making me wonder how diligent they were about cleaning them. Otherwise the room appeared to be clean.Being an original-style Motel 6 property with exterior corridors, my room was still quiet even though the motel is near the interstate and in an industrial neighborhood. MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>I had an overnight stay here after arriving in Denver. I have stayed at this property in the past so I knew what I was getting, and I was interested as it supposedly had been upgraded to the latest Motel 6 decor.I get there and while the carpeting has been replaced with the faux-hardwood flooring, and the bed now in an IKEA-style platform, it largely looked the same as my previous visit. It still had the old tube-type TV and most of the furniture from before. The bedding with its flat pillows and the thin, scratchy towels were mostly the same; the exception is that this property finally did away with bedspreads (YAY!). However the blanket did have a suspicious stain on it, making me wonder how diligent they were about cleaning them. Otherwise the room appeared to be clean.Being an original-style Motel 6 property with exterior corridors, my room was still quiet even though the motel is near the interstate and in an industrial neighborhood. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119938-r153527475-Motel_6_Denver_Airport-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>153527475</t>
+  </si>
+  <si>
+    <t>03/02/2013</t>
+  </si>
+  <si>
+    <t>overall satisfied</t>
+  </si>
+  <si>
+    <t>room price very low $52 for 2 people AC was not working properly but its the cheapest motel within a few blocks away. room was clean, restroom was clean, 29" tv. free wi fi. good place for the price otherwise I would go to a FIVE STAR HOTEL AND PAY MORE</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119938-r139220537-Motel_6_Denver_Airport-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>139220537</t>
+  </si>
+  <si>
+    <t>09/02/2012</t>
+  </si>
+  <si>
+    <t>Rabbits grazing outside :)</t>
+  </si>
+  <si>
+    <t>pluses: It is quite close to Denver airport and only about 15 minutes by car to downtown, has a swimming pool and ... rabbits grazing around the Motel :)minuses: Service at the reception was rather unfriendly and mechanical. You have to pay for wi-fi!No fridge, microwave or even a remote for tv.Very derelict  neighbourhood. If you have a flight very early it's a good option, otherwise look for other place.</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119938-r136103564-Motel_6_Denver_Airport-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>136103564</t>
+  </si>
+  <si>
+    <t>08/02/2012</t>
+  </si>
+  <si>
+    <t>A place to rest, nothing more.</t>
+  </si>
+  <si>
+    <t>If you're looking for a place to sleep and that's it, this place will do just fine. We just needed a cheap place to stay with our dog while resting from driving all day and start getting acclimated to higher altitudes before traveling into the mounains. It did the trick, but nothing else. We did have to ask for enough towels to accomadate 2 people. The floors are a cool idea, but I could not walk barefoot without my feet turning blackbottom within minutes (ew!). I have to say that we were excited about actually being able to have a smoking room...a rarity in these days of political correctness. We didn't have to pay extra for our pooch. The front desk staff was very friendly and quick to help with any request.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>If you're looking for a place to sleep and that's it, this place will do just fine. We just needed a cheap place to stay with our dog while resting from driving all day and start getting acclimated to higher altitudes before traveling into the mounains. It did the trick, but nothing else. We did have to ask for enough towels to accomadate 2 people. The floors are a cool idea, but I could not walk barefoot without my feet turning blackbottom within minutes (ew!). I have to say that we were excited about actually being able to have a smoking room...a rarity in these days of political correctness. We didn't have to pay extra for our pooch. The front desk staff was very friendly and quick to help with any request.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119938-r134990250-Motel_6_Denver_Airport-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>134990250</t>
+  </si>
+  <si>
+    <t>07/21/2012</t>
+  </si>
+  <si>
+    <t>Newly remodeled, smells and feels good -- cheap!</t>
+  </si>
+  <si>
+    <t>I mostly love Motel 6, especially when I get to stay in the newly remodeled ones.  Check out the Motel 6 in Jackson Hole, Wyoming, too. Cheap, cheap, and very comfortable and clean.This one is one of maybe 6 or 7 of them in the Denver area. It is close enough to the airport, and the highway to get me back up north to Wyoming.The new floor -- no stinky carpet, just nice fake bamboo flooring -- very nice. Clean bathroom with lots of hot water.Did you know Motels 6 take pets?? Yes.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119938-r121500816-Motel_6_Denver_Airport-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>121500816</t>
+  </si>
+  <si>
+    <t>12/07/2011</t>
+  </si>
+  <si>
+    <t>Surprised at the Room!</t>
+  </si>
+  <si>
+    <t>I was traveling with my Chihuahua and loved that they didn't have an additional pet fee or deposit.  The room was surprising nice.  I didn't like that they put me on the second floor with a dog because I felt unsafe have to take him and walking so far to get to grass.  There was also a light out on the corner of the second floor which meant I had to walk to my room in darkness.  The people next to me were super loud and obnoxious but that isn't really the motel's fault.</t>
+  </si>
+  <si>
+    <t>November 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119938-r114724819-Motel_6_Denver_Airport-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>114724819</t>
+  </si>
+  <si>
+    <t>06/24/2011</t>
+  </si>
+  <si>
+    <t>For just 59$ (+tax) during the weekend it is a true bargain.</t>
+  </si>
+  <si>
+    <t>This motel 6 was just renovated and looks great.PRO:very close to Denver airport (15min drive)very cheapCleanWi-Fi (cost additional 2.99$)small swimming poolCON:small TV, relatively basic cableWi-Fi cost additional feeHeadache to enter Denver during rush-hoursPeople (motel visitors) are smoking around the motel</t>
+  </si>
+  <si>
+    <t>June 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119938-r97717599-Motel_6_Denver_Airport-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>97717599</t>
+  </si>
+  <si>
+    <t>02/23/2011</t>
+  </si>
+  <si>
+    <t>Clean and newly remodeled</t>
+  </si>
+  <si>
+    <t>We stayed at this Motel 6 for a quick stop before a flight out the following morning.  It fit the bill for what a Motel 6 should be- basic, clean and near an airport or freeway.  The hotel is currently under renovation and the room was stayed in was already done.  It was really clean and the decore was basic and modern, the floors even appear to be a sustainable product and not carpet that gets gross over time.  Like many Motel 6 locations, it's not in the best location as far as attractions are concerned, but the area appeared safe and there are plenty of dining options.  The only drawbacks are typical- the walls were on the thin side and there was quite a bit of road noise.  Also, the water saving faucet on the sink is a bit annoying, but the shower water pressure was good.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2011</t>
+  </si>
+  <si>
+    <t>We stayed at this Motel 6 for a quick stop before a flight out the following morning.  It fit the bill for what a Motel 6 should be- basic, clean and near an airport or freeway.  The hotel is currently under renovation and the room was stayed in was already done.  It was really clean and the decore was basic and modern, the floors even appear to be a sustainable product and not carpet that gets gross over time.  Like many Motel 6 locations, it's not in the best location as far as attractions are concerned, but the area appeared safe and there are plenty of dining options.  The only drawbacks are typical- the walls were on the thin side and there was quite a bit of road noise.  Also, the water saving faucet on the sink is a bit annoying, but the shower water pressure was good.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119938-r83279798-Motel_6_Denver_Airport-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>83279798</t>
+  </si>
+  <si>
+    <t>10/12/2010</t>
+  </si>
+  <si>
+    <t>Wonderful overall experience for a low price.</t>
+  </si>
+  <si>
+    <t>This hotel was very convenient (close to the airport) and gave us an inexpensive place to stay after a long flight. Front desk people were not as friendly as I'd hoped, but other than that, everything else went well and I enjoyed my stay.</t>
+  </si>
+  <si>
+    <t>April 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119938-r80283080-Motel_6_Denver_Airport-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>80283080</t>
+  </si>
+  <si>
+    <t>09/20/2010</t>
+  </si>
+  <si>
+    <t>Clean, cheap and convinent!</t>
+  </si>
+  <si>
+    <t>We stay here because our plans changed last minute and everywhere else was over $150 a night! I booked the room online and we checked in a 1pm on a Sunday. We arrived around 11am and I went it to ask where there was a bar to watch the game and he pointed us to the bar across the street. $2 coors light pints and $6.99 breakfast buffet on Sundays 10am-1pm. Cleatz is a Great bar! Upon check in we saw a note that the a/c was broken but was being fixed Monday. While checking in the desk clerk told us that the a/c was going to be out for the night so we would receive 10% off our WHOLE stay! 10 minute drive will get you to pretty much anything great shopping, food, downtown and 20 minutes will get you to mountains, coors brewery factory. I would stay here again!MoreShow less</t>
+  </si>
+  <si>
+    <t>We stay here because our plans changed last minute and everywhere else was over $150 a night! I booked the room online and we checked in a 1pm on a Sunday. We arrived around 11am and I went it to ask where there was a bar to watch the game and he pointed us to the bar across the street. $2 coors light pints and $6.99 breakfast buffet on Sundays 10am-1pm. Cleatz is a Great bar! Upon check in we saw a note that the a/c was broken but was being fixed Monday. While checking in the desk clerk told us that the a/c was going to be out for the night so we would receive 10% off our WHOLE stay! 10 minute drive will get you to pretty much anything great shopping, food, downtown and 20 minutes will get you to mountains, coors brewery factory. I would stay here again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119938-r71012456-Motel_6_Denver_Airport-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>71012456</t>
+  </si>
+  <si>
+    <t>07/15/2010</t>
+  </si>
+  <si>
+    <t>Good economy motel</t>
+  </si>
+  <si>
+    <t>This is my idea of a good economy motel. Clean, simple facilities; very pleasant desk staff; okay working class area with a great neighborhood Waffle House next door. Outdoor pool for the kids. The staff could not have been more pleasant. Only downside is having to pay for wi-fi (about $3).Would definitely stay here again.</t>
+  </si>
+  <si>
+    <t>July 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119938-r49218129-Motel_6_Denver_Airport-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>49218129</t>
+  </si>
+  <si>
+    <t>11/14/2009</t>
+  </si>
+  <si>
+    <t>I think online description said free internet, they lied!</t>
+  </si>
+  <si>
+    <t>We were, of course, there because of good price and the fact it is in Motel 6 chain. Room was clean, but I have some complaints. First of all, I am pretty sure they are allowing 'free internet' to be one draw in internet description. However, when we checked in and tried to get online, could not, so went to office to get password, and they said they would let us have a card for $2.99 plus tax. I told them that it's advertised as free, but she gave me some 'song and dance' answer, and I told them to remove that lie from the internet. Doubt they will. They charge extra for small kitchen appliance, and they have no SHAMPOO, no radio, will give hair dryer from office upon request. But no shampoo? Also, window was sealed shut, and we sleep better with some outside air, but couldn't have that, either.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2009</t>
+  </si>
+  <si>
+    <t>We were, of course, there because of good price and the fact it is in Motel 6 chain. Room was clean, but I have some complaints. First of all, I am pretty sure they are allowing 'free internet' to be one draw in internet description. However, when we checked in and tried to get online, could not, so went to office to get password, and they said they would let us have a card for $2.99 plus tax. I told them that it's advertised as free, but she gave me some 'song and dance' answer, and I told them to remove that lie from the internet. Doubt they will. They charge extra for small kitchen appliance, and they have no SHAMPOO, no radio, will give hair dryer from office upon request. But no shampoo? Also, window was sealed shut, and we sleep better with some outside air, but couldn't have that, either.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119938-r7796606-Motel_6_Denver_Airport-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>7796606</t>
+  </si>
+  <si>
+    <t>06/05/2007</t>
+  </si>
+  <si>
+    <t>adequate</t>
+  </si>
+  <si>
+    <t>My husband and I stayed here while traveling cross-country.  We picked this Motel 6 because of the price.  The location was in an old part of town, not the nicest part of Denver.  The room had no alarm clock, iron, or hair blow dryer.  We're experienced Motel 6-ers, but this one was a bit subpar based on outside appearance.  Otherwise, it was adequate.</t>
+  </si>
+  <si>
+    <t>June 2007</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1643,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1675,3508 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>6366</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="n">
+        <v>3</v>
+      </c>
+      <c r="R2" t="s"/>
+      <c r="S2" t="n">
+        <v>3</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>4</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>6366</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>4</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>6366</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s">
+        <v>69</v>
+      </c>
+      <c r="O4" t="s">
+        <v>70</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>6366</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K5" t="s">
+        <v>74</v>
+      </c>
+      <c r="L5" t="s">
+        <v>75</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>76</v>
+      </c>
+      <c r="O5" t="s">
+        <v>70</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>77</v>
+      </c>
+      <c r="X5" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6366</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>81</v>
+      </c>
+      <c r="J6" t="s">
+        <v>82</v>
+      </c>
+      <c r="K6" t="s">
+        <v>83</v>
+      </c>
+      <c r="L6" t="s">
+        <v>84</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>85</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="n">
+        <v>1</v>
+      </c>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>1</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>77</v>
+      </c>
+      <c r="X6" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6366</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>88</v>
+      </c>
+      <c r="J7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L7" t="s">
+        <v>91</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="s">
+        <v>85</v>
+      </c>
+      <c r="O7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>77</v>
+      </c>
+      <c r="X7" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6366</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>94</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>95</v>
+      </c>
+      <c r="J8" t="s">
+        <v>96</v>
+      </c>
+      <c r="K8" t="s">
+        <v>97</v>
+      </c>
+      <c r="L8" t="s">
+        <v>98</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s"/>
+      <c r="O8" t="s"/>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>6366</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>100</v>
+      </c>
+      <c r="J9" t="s">
+        <v>101</v>
+      </c>
+      <c r="K9" t="s">
+        <v>102</v>
+      </c>
+      <c r="L9" t="s">
+        <v>103</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N9" t="s">
+        <v>104</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>6366</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>106</v>
+      </c>
+      <c r="J10" t="s">
+        <v>107</v>
+      </c>
+      <c r="K10" t="s">
+        <v>108</v>
+      </c>
+      <c r="L10" t="s">
+        <v>109</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>110</v>
+      </c>
+      <c r="O10" t="s">
+        <v>111</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" t="s"/>
+      <c r="S10" t="n">
+        <v>1</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>1</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>6366</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>112</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>113</v>
+      </c>
+      <c r="J11" t="s">
+        <v>114</v>
+      </c>
+      <c r="K11" t="s">
+        <v>115</v>
+      </c>
+      <c r="L11" t="s">
+        <v>116</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>117</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>6366</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>118</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>119</v>
+      </c>
+      <c r="J12" t="s">
+        <v>120</v>
+      </c>
+      <c r="K12" t="s">
+        <v>121</v>
+      </c>
+      <c r="L12" t="s">
+        <v>122</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>123</v>
+      </c>
+      <c r="O12" t="s">
+        <v>70</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>1</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>6366</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>124</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>125</v>
+      </c>
+      <c r="J13" t="s">
+        <v>126</v>
+      </c>
+      <c r="K13" t="s">
+        <v>127</v>
+      </c>
+      <c r="L13" t="s">
+        <v>128</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>123</v>
+      </c>
+      <c r="O13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>6366</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>129</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>130</v>
+      </c>
+      <c r="J14" t="s">
+        <v>131</v>
+      </c>
+      <c r="K14" t="s">
+        <v>132</v>
+      </c>
+      <c r="L14" t="s">
+        <v>133</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>134</v>
+      </c>
+      <c r="O14" t="s">
+        <v>92</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>6366</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>136</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>137</v>
+      </c>
+      <c r="J15" t="s">
+        <v>138</v>
+      </c>
+      <c r="K15" t="s">
+        <v>139</v>
+      </c>
+      <c r="L15" t="s">
+        <v>140</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" t="s">
+        <v>141</v>
+      </c>
+      <c r="O15" t="s">
+        <v>92</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>3</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>6366</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>143</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>144</v>
+      </c>
+      <c r="J16" t="s">
+        <v>145</v>
+      </c>
+      <c r="K16" t="s">
+        <v>146</v>
+      </c>
+      <c r="L16" t="s">
+        <v>147</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s">
+        <v>141</v>
+      </c>
+      <c r="O16" t="s">
+        <v>70</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>6366</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>148</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>149</v>
+      </c>
+      <c r="J17" t="s">
+        <v>150</v>
+      </c>
+      <c r="K17" t="s">
+        <v>151</v>
+      </c>
+      <c r="L17" t="s">
+        <v>152</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" t="s">
+        <v>153</v>
+      </c>
+      <c r="O17" t="s">
+        <v>92</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>6366</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>154</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>155</v>
+      </c>
+      <c r="J18" t="s">
+        <v>156</v>
+      </c>
+      <c r="K18" t="s">
+        <v>157</v>
+      </c>
+      <c r="L18" t="s">
+        <v>158</v>
+      </c>
+      <c r="M18" t="n">
+        <v>3</v>
+      </c>
+      <c r="N18" t="s">
+        <v>110</v>
+      </c>
+      <c r="O18" t="s">
+        <v>70</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>6366</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>160</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>161</v>
+      </c>
+      <c r="J19" t="s">
+        <v>162</v>
+      </c>
+      <c r="K19" t="s">
+        <v>163</v>
+      </c>
+      <c r="L19" t="s">
+        <v>164</v>
+      </c>
+      <c r="M19" t="n">
+        <v>2</v>
+      </c>
+      <c r="N19" t="s">
+        <v>165</v>
+      </c>
+      <c r="O19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>6366</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>166</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>167</v>
+      </c>
+      <c r="J20" t="s">
+        <v>168</v>
+      </c>
+      <c r="K20" t="s">
+        <v>169</v>
+      </c>
+      <c r="L20" t="s">
+        <v>170</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2</v>
+      </c>
+      <c r="N20" t="s">
+        <v>171</v>
+      </c>
+      <c r="O20" t="s">
+        <v>70</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>172</v>
+      </c>
+      <c r="X20" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>6366</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>175</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>176</v>
+      </c>
+      <c r="J21" t="s">
+        <v>177</v>
+      </c>
+      <c r="K21" t="s">
+        <v>178</v>
+      </c>
+      <c r="L21" t="s">
+        <v>179</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
+        <v>171</v>
+      </c>
+      <c r="O21" t="s">
+        <v>70</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>180</v>
+      </c>
+      <c r="X21" t="s">
+        <v>181</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>6366</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>183</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>184</v>
+      </c>
+      <c r="J22" t="s">
+        <v>185</v>
+      </c>
+      <c r="K22" t="s">
+        <v>186</v>
+      </c>
+      <c r="L22" t="s">
+        <v>187</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2</v>
+      </c>
+      <c r="N22" t="s">
+        <v>188</v>
+      </c>
+      <c r="O22" t="s">
+        <v>111</v>
+      </c>
+      <c r="P22" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>3</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>6366</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>189</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>190</v>
+      </c>
+      <c r="J23" t="s">
+        <v>191</v>
+      </c>
+      <c r="K23" t="s">
+        <v>192</v>
+      </c>
+      <c r="L23" t="s">
+        <v>193</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>194</v>
+      </c>
+      <c r="O23" t="s">
+        <v>92</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="n">
+        <v>3</v>
+      </c>
+      <c r="S23" t="n">
+        <v>3</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>3</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>6366</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>195</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>196</v>
+      </c>
+      <c r="J24" t="s">
+        <v>197</v>
+      </c>
+      <c r="K24" t="s">
+        <v>198</v>
+      </c>
+      <c r="L24" t="s">
+        <v>199</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" t="s">
+        <v>194</v>
+      </c>
+      <c r="O24" t="s">
+        <v>70</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="n">
+        <v>1</v>
+      </c>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>1</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>200</v>
+      </c>
+      <c r="X24" t="s">
+        <v>201</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>6366</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>203</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>204</v>
+      </c>
+      <c r="J25" t="s">
+        <v>205</v>
+      </c>
+      <c r="K25" t="s">
+        <v>206</v>
+      </c>
+      <c r="L25" t="s">
+        <v>207</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>208</v>
+      </c>
+      <c r="O25" t="s">
+        <v>209</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>6366</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>210</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>211</v>
+      </c>
+      <c r="J26" t="s">
+        <v>212</v>
+      </c>
+      <c r="K26" t="s">
+        <v>213</v>
+      </c>
+      <c r="L26" t="s">
+        <v>214</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+      <c r="N26" t="s">
+        <v>215</v>
+      </c>
+      <c r="O26" t="s">
+        <v>70</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="n">
+        <v>2</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>3</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>216</v>
+      </c>
+      <c r="X26" t="s">
+        <v>217</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>6366</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>219</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>220</v>
+      </c>
+      <c r="J27" t="s">
+        <v>221</v>
+      </c>
+      <c r="K27" t="s">
+        <v>222</v>
+      </c>
+      <c r="L27" t="s">
+        <v>223</v>
+      </c>
+      <c r="M27" t="n">
+        <v>3</v>
+      </c>
+      <c r="N27" t="s">
+        <v>224</v>
+      </c>
+      <c r="O27" t="s">
+        <v>92</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>6366</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>225</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>226</v>
+      </c>
+      <c r="J28" t="s">
+        <v>227</v>
+      </c>
+      <c r="K28" t="s">
+        <v>228</v>
+      </c>
+      <c r="L28" t="s">
+        <v>229</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+      <c r="N28" t="s">
+        <v>215</v>
+      </c>
+      <c r="O28" t="s">
+        <v>209</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>230</v>
+      </c>
+      <c r="X28" t="s">
+        <v>231</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>6366</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>233</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>234</v>
+      </c>
+      <c r="J29" t="s">
+        <v>235</v>
+      </c>
+      <c r="K29" t="s">
+        <v>236</v>
+      </c>
+      <c r="L29" t="s">
+        <v>237</v>
+      </c>
+      <c r="M29" t="n">
+        <v>3</v>
+      </c>
+      <c r="N29" t="s">
+        <v>238</v>
+      </c>
+      <c r="O29" t="s">
+        <v>92</v>
+      </c>
+      <c r="P29" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>3</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>6366</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>239</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>240</v>
+      </c>
+      <c r="J30" t="s">
+        <v>241</v>
+      </c>
+      <c r="K30" t="s">
+        <v>242</v>
+      </c>
+      <c r="L30" t="s">
+        <v>243</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>238</v>
+      </c>
+      <c r="O30" t="s">
+        <v>209</v>
+      </c>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>6366</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>245</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>246</v>
+      </c>
+      <c r="J31" t="s">
+        <v>247</v>
+      </c>
+      <c r="K31" t="s">
+        <v>248</v>
+      </c>
+      <c r="L31" t="s">
+        <v>249</v>
+      </c>
+      <c r="M31" t="n">
+        <v>2</v>
+      </c>
+      <c r="N31" t="s">
+        <v>238</v>
+      </c>
+      <c r="O31" t="s">
+        <v>92</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>250</v>
+      </c>
+      <c r="X31" t="s">
+        <v>251</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>6366</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>253</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>254</v>
+      </c>
+      <c r="J32" t="s">
+        <v>255</v>
+      </c>
+      <c r="K32" t="s">
+        <v>256</v>
+      </c>
+      <c r="L32" t="s">
+        <v>257</v>
+      </c>
+      <c r="M32" t="n">
+        <v>3</v>
+      </c>
+      <c r="N32" t="s">
+        <v>258</v>
+      </c>
+      <c r="O32" t="s">
+        <v>92</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="n">
+        <v>4</v>
+      </c>
+      <c r="R32" t="s"/>
+      <c r="S32" t="n">
+        <v>4</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>4</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>6366</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>259</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>260</v>
+      </c>
+      <c r="J33" t="s">
+        <v>261</v>
+      </c>
+      <c r="K33" t="s">
+        <v>262</v>
+      </c>
+      <c r="L33" t="s">
+        <v>263</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+      <c r="N33" t="s">
+        <v>258</v>
+      </c>
+      <c r="O33" t="s">
+        <v>209</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>264</v>
+      </c>
+      <c r="X33" t="s">
+        <v>265</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>6366</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>267</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>268</v>
+      </c>
+      <c r="J34" t="s">
+        <v>269</v>
+      </c>
+      <c r="K34" t="s">
+        <v>270</v>
+      </c>
+      <c r="L34" t="s">
+        <v>271</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>272</v>
+      </c>
+      <c r="O34" t="s">
+        <v>53</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="n">
+        <v>4</v>
+      </c>
+      <c r="R34" t="s"/>
+      <c r="S34" t="n">
+        <v>4</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>4</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>6366</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>273</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>274</v>
+      </c>
+      <c r="J35" t="s">
+        <v>275</v>
+      </c>
+      <c r="K35" t="s">
+        <v>276</v>
+      </c>
+      <c r="L35" t="s">
+        <v>277</v>
+      </c>
+      <c r="M35" t="n">
+        <v>2</v>
+      </c>
+      <c r="N35" t="s">
+        <v>278</v>
+      </c>
+      <c r="O35" t="s">
+        <v>70</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="n">
+        <v>2</v>
+      </c>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>4</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>279</v>
+      </c>
+      <c r="X35" t="s">
+        <v>280</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>6366</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>282</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>283</v>
+      </c>
+      <c r="J36" t="s">
+        <v>284</v>
+      </c>
+      <c r="K36" t="s">
+        <v>285</v>
+      </c>
+      <c r="L36" t="s">
+        <v>286</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1</v>
+      </c>
+      <c r="N36" t="s">
+        <v>287</v>
+      </c>
+      <c r="O36" t="s">
+        <v>70</v>
+      </c>
+      <c r="P36" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="n">
+        <v>1</v>
+      </c>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>1</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>6366</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>288</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>289</v>
+      </c>
+      <c r="J37" t="s">
+        <v>284</v>
+      </c>
+      <c r="K37" t="s">
+        <v>290</v>
+      </c>
+      <c r="L37" t="s">
+        <v>291</v>
+      </c>
+      <c r="M37" t="n">
+        <v>3</v>
+      </c>
+      <c r="N37" t="s">
+        <v>287</v>
+      </c>
+      <c r="O37" t="s">
+        <v>70</v>
+      </c>
+      <c r="P37" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>2</v>
+      </c>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>1</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>6366</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>293</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>294</v>
+      </c>
+      <c r="J38" t="s">
+        <v>295</v>
+      </c>
+      <c r="K38" t="s">
+        <v>296</v>
+      </c>
+      <c r="L38" t="s">
+        <v>297</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>298</v>
+      </c>
+      <c r="O38" t="s">
+        <v>53</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="n">
+        <v>4</v>
+      </c>
+      <c r="S38" t="n">
+        <v>4</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>6366</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>299</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>300</v>
+      </c>
+      <c r="J39" t="s">
+        <v>301</v>
+      </c>
+      <c r="K39" t="s">
+        <v>302</v>
+      </c>
+      <c r="L39" t="s">
+        <v>303</v>
+      </c>
+      <c r="M39" t="n">
+        <v>2</v>
+      </c>
+      <c r="N39" t="s">
+        <v>304</v>
+      </c>
+      <c r="O39" t="s">
+        <v>70</v>
+      </c>
+      <c r="P39" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>1</v>
+      </c>
+      <c r="R39" t="n">
+        <v>1</v>
+      </c>
+      <c r="S39" t="n">
+        <v>4</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>6366</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>305</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>306</v>
+      </c>
+      <c r="J40" t="s">
+        <v>307</v>
+      </c>
+      <c r="K40" t="s">
+        <v>308</v>
+      </c>
+      <c r="L40" t="s">
+        <v>309</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s"/>
+      <c r="O40" t="s"/>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>4</v>
+      </c>
+      <c r="R40" t="n">
+        <v>4</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>4</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>6366</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>310</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>311</v>
+      </c>
+      <c r="J41" t="s">
+        <v>312</v>
+      </c>
+      <c r="K41" t="s">
+        <v>313</v>
+      </c>
+      <c r="L41" t="s">
+        <v>314</v>
+      </c>
+      <c r="M41" t="n">
+        <v>3</v>
+      </c>
+      <c r="N41" t="s">
+        <v>315</v>
+      </c>
+      <c r="O41" t="s">
+        <v>92</v>
+      </c>
+      <c r="P41" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>3</v>
+      </c>
+      <c r="R41" t="n">
+        <v>3</v>
+      </c>
+      <c r="S41" t="n">
+        <v>3</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>3</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>6366</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>316</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>317</v>
+      </c>
+      <c r="J42" t="s">
+        <v>318</v>
+      </c>
+      <c r="K42" t="s">
+        <v>319</v>
+      </c>
+      <c r="L42" t="s">
+        <v>320</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s"/>
+      <c r="O42" t="s"/>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R42" t="n">
+        <v>4</v>
+      </c>
+      <c r="S42" t="n">
+        <v>4</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>4</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>6366</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>322</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>323</v>
+      </c>
+      <c r="J43" t="s">
+        <v>324</v>
+      </c>
+      <c r="K43" t="s">
+        <v>325</v>
+      </c>
+      <c r="L43" t="s">
+        <v>326</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1</v>
+      </c>
+      <c r="N43" t="s">
+        <v>327</v>
+      </c>
+      <c r="O43" t="s">
+        <v>70</v>
+      </c>
+      <c r="P43" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>2</v>
+      </c>
+      <c r="R43" t="n">
+        <v>3</v>
+      </c>
+      <c r="S43" t="n">
+        <v>2</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>2</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>6366</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>329</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>330</v>
+      </c>
+      <c r="J44" t="s">
+        <v>331</v>
+      </c>
+      <c r="K44" t="s">
+        <v>332</v>
+      </c>
+      <c r="L44" t="s">
+        <v>333</v>
+      </c>
+      <c r="M44" t="n">
+        <v>3</v>
+      </c>
+      <c r="N44" t="s">
+        <v>334</v>
+      </c>
+      <c r="O44" t="s">
+        <v>53</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="s"/>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>6366</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>336</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>337</v>
+      </c>
+      <c r="J45" t="s">
+        <v>338</v>
+      </c>
+      <c r="K45" t="s">
+        <v>339</v>
+      </c>
+      <c r="L45" t="s">
+        <v>340</v>
+      </c>
+      <c r="M45" t="n">
+        <v>3</v>
+      </c>
+      <c r="N45" t="s">
+        <v>341</v>
+      </c>
+      <c r="O45" t="s">
+        <v>209</v>
+      </c>
+      <c r="P45" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>3</v>
+      </c>
+      <c r="R45" t="n">
+        <v>4</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>3</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>6366</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>342</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>343</v>
+      </c>
+      <c r="J46" t="s">
+        <v>344</v>
+      </c>
+      <c r="K46" t="s">
+        <v>345</v>
+      </c>
+      <c r="L46" t="s">
+        <v>346</v>
+      </c>
+      <c r="M46" t="n">
+        <v>2</v>
+      </c>
+      <c r="N46" t="s">
+        <v>347</v>
+      </c>
+      <c r="O46" t="s">
+        <v>92</v>
+      </c>
+      <c r="P46" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>3</v>
+      </c>
+      <c r="R46" t="n">
+        <v>2</v>
+      </c>
+      <c r="S46" t="n">
+        <v>3</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>2</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>6366</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>348</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>349</v>
+      </c>
+      <c r="J47" t="s">
+        <v>350</v>
+      </c>
+      <c r="K47" t="s">
+        <v>351</v>
+      </c>
+      <c r="L47" t="s">
+        <v>352</v>
+      </c>
+      <c r="M47" t="n">
+        <v>3</v>
+      </c>
+      <c r="N47" t="s">
+        <v>353</v>
+      </c>
+      <c r="O47" t="s">
+        <v>70</v>
+      </c>
+      <c r="P47" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>3</v>
+      </c>
+      <c r="R47" t="n">
+        <v>3</v>
+      </c>
+      <c r="S47" t="n">
+        <v>2</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>6366</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>355</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>356</v>
+      </c>
+      <c r="J48" t="s">
+        <v>357</v>
+      </c>
+      <c r="K48" t="s">
+        <v>358</v>
+      </c>
+      <c r="L48" t="s">
+        <v>359</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>353</v>
+      </c>
+      <c r="O48" t="s">
+        <v>53</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>6366</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>360</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>361</v>
+      </c>
+      <c r="J49" t="s">
+        <v>362</v>
+      </c>
+      <c r="K49" t="s">
+        <v>363</v>
+      </c>
+      <c r="L49" t="s">
+        <v>364</v>
+      </c>
+      <c r="M49" t="n">
+        <v>4</v>
+      </c>
+      <c r="N49" t="s">
+        <v>365</v>
+      </c>
+      <c r="O49" t="s">
+        <v>53</v>
+      </c>
+      <c r="P49" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>4</v>
+      </c>
+      <c r="R49" t="n">
+        <v>4</v>
+      </c>
+      <c r="S49" t="n">
+        <v>4</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>4</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>6366</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>366</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>367</v>
+      </c>
+      <c r="J50" t="s">
+        <v>368</v>
+      </c>
+      <c r="K50" t="s">
+        <v>369</v>
+      </c>
+      <c r="L50" t="s">
+        <v>370</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s">
+        <v>371</v>
+      </c>
+      <c r="O50" t="s">
+        <v>92</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="n">
+        <v>4</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>3</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>6366</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>372</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>373</v>
+      </c>
+      <c r="J51" t="s">
+        <v>374</v>
+      </c>
+      <c r="K51" t="s">
+        <v>375</v>
+      </c>
+      <c r="L51" t="s">
+        <v>376</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
+        <v>377</v>
+      </c>
+      <c r="O51" t="s">
+        <v>92</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>4</v>
+      </c>
+      <c r="R51" t="n">
+        <v>3</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>6366</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>379</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>380</v>
+      </c>
+      <c r="J52" t="s">
+        <v>381</v>
+      </c>
+      <c r="K52" t="s">
+        <v>382</v>
+      </c>
+      <c r="L52" t="s">
+        <v>383</v>
+      </c>
+      <c r="M52" t="n">
+        <v>3</v>
+      </c>
+      <c r="N52" t="s">
+        <v>384</v>
+      </c>
+      <c r="O52" t="s">
+        <v>92</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>4</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="n">
+        <v>3</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>2</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>6366</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>385</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>386</v>
+      </c>
+      <c r="J53" t="s">
+        <v>387</v>
+      </c>
+      <c r="K53" t="s">
+        <v>388</v>
+      </c>
+      <c r="L53" t="s">
+        <v>389</v>
+      </c>
+      <c r="M53" t="n">
+        <v>4</v>
+      </c>
+      <c r="N53" t="s"/>
+      <c r="O53" t="s"/>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>4</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>6366</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>391</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>392</v>
+      </c>
+      <c r="J54" t="s">
+        <v>393</v>
+      </c>
+      <c r="K54" t="s">
+        <v>394</v>
+      </c>
+      <c r="L54" t="s">
+        <v>395</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>396</v>
+      </c>
+      <c r="O54" t="s">
+        <v>111</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="s"/>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="s"/>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>6366</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>397</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>398</v>
+      </c>
+      <c r="J55" t="s">
+        <v>399</v>
+      </c>
+      <c r="K55" t="s">
+        <v>400</v>
+      </c>
+      <c r="L55" t="s">
+        <v>401</v>
+      </c>
+      <c r="M55" t="n">
+        <v>2</v>
+      </c>
+      <c r="N55" t="s">
+        <v>402</v>
+      </c>
+      <c r="O55" t="s">
+        <v>92</v>
+      </c>
+      <c r="P55" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>3</v>
+      </c>
+      <c r="R55" t="n">
+        <v>3</v>
+      </c>
+      <c r="S55" t="n">
+        <v>3</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>2</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>6366</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>404</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>405</v>
+      </c>
+      <c r="J56" t="s">
+        <v>406</v>
+      </c>
+      <c r="K56" t="s">
+        <v>407</v>
+      </c>
+      <c r="L56" t="s">
+        <v>408</v>
+      </c>
+      <c r="M56" t="n">
+        <v>2</v>
+      </c>
+      <c r="N56" t="s">
+        <v>409</v>
+      </c>
+      <c r="O56" t="s">
+        <v>92</v>
+      </c>
+      <c r="P56" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>2</v>
+      </c>
+      <c r="R56" t="n">
+        <v>3</v>
+      </c>
+      <c r="S56" t="n">
+        <v>3</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>3</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>408</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Denver/Denver_shard_198.xlsx
+++ b/data/hotels_by_city/Denver/Denver_shard_198.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="648">
   <si>
     <t>STR#</t>
   </si>
@@ -150,18 +150,77 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/04/2018</t>
+    <t>09/05/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119938-r596852180-Motel_6_Denver_Airport-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>33388</t>
+  </si>
+  <si>
+    <t>119938</t>
+  </si>
+  <si>
+    <t>596852180</t>
+  </si>
+  <si>
+    <t>07/16/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good prices and friendly staff. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I stayed here twice in the last month when I was traveling by car from Las Vegas to Chicago. Although the establishment is not in the nicest part of town, I felt very safe while staying here as a solo female. I had all my wedding stuff in my car both times and was concerned about my car getting broken into, but the establishment has security that patrols and is also very well lit. I appreciate how friendly the staff was and that my dog was able to stay. Rooms are standard but clean. </t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119938-r575629739-Motel_6_Denver_Airport-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>575629739</t>
+  </si>
+  <si>
+    <t>04/25/2018</t>
+  </si>
+  <si>
+    <t>Stayed here 4 days, it Cost 300. Stay away. $4.99 per day for mediocre internet.</t>
+  </si>
+  <si>
+    <t>It had never occurred to me that in the US (I'm American) that a motel/hotel would charge for wifi...and 2 version of wifi...$3 for bad wifi, and $5 for mediocre wifi where you have to keep logging out and in to keep getting a signal. Previously I've only ever had to pay for wifi in 3rd world countries or socialist countries-and not many places there charged for wifi. If I had known this beforehand, I would have just stayed somewhere else. 
+I've stayed at other Motel 6 before, and they didn't charge for wifi, and their wifi was strong.
+The room is clean, basic, tv has good cable reception and choices. The toilet has strong flush power, the shower is tiny and the water pressure is weak. It takes a few minutes for the heat to kick on, which is really strange for a hotel...it's normally almost instant. 
+There is a Dennys right next door, a parking lot over that is open 24 hours a day. That is convenient. 
+The maid service is prompt and polite. The front desk is a tossup, sometimes you get nice ones, occasionally you get one that guards their garbage internet codes like they make it with their own two hands. The first day I had to call their off site tech support to square issues away, and you have to make sure on each sign on page for internet you RE_CLICK the $4.99 wifi...It had never occurred to me that in the US (I'm American) that a motel/hotel would charge for wifi...and 2 version of wifi...$3 for bad wifi, and $5 for mediocre wifi where you have to keep logging out and in to keep getting a signal. Previously I've only ever had to pay for wifi in 3rd world countries or socialist countries-and not many places there charged for wifi. If I had known this beforehand, I would have just stayed somewhere else. I've stayed at other Motel 6 before, and they didn't charge for wifi, and their wifi was strong.The room is clean, basic, tv has good cable reception and choices. The toilet has strong flush power, the shower is tiny and the water pressure is weak. It takes a few minutes for the heat to kick on, which is really strange for a hotel...it's normally almost instant. There is a Dennys right next door, a parking lot over that is open 24 hours a day. That is convenient. The maid service is prompt and polite. The front desk is a tossup, sometimes you get nice ones, occasionally you get one that guards their garbage internet codes like they make it with their own two hands. The first day I had to call their off site tech support to square issues away, and you have to make sure on each sign on page for internet you RE_CLICK the $4.99 wifi that you paid for or it auto defaults to the worse wifi. Then you have to go through a whole ordeal getting that off your communication device in order to enter a new code. I had a pressure washer outside for about 3 hours one early morning, no sleeping in that day. It is convenient to get to the airport, but there's other choices. I won't ever be staying at this location again, there's a Traveler's Lodge next door, right beside Dennys, if I have to come back this way and need to be close to the airport I might try them.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team at Motel 6 Denver - Airport, responded to this reviewResponded April 26, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 26, 2018</t>
+  </si>
+  <si>
+    <t>It had never occurred to me that in the US (I'm American) that a motel/hotel would charge for wifi...and 2 version of wifi...$3 for bad wifi, and $5 for mediocre wifi where you have to keep logging out and in to keep getting a signal. Previously I've only ever had to pay for wifi in 3rd world countries or socialist countries-and not many places there charged for wifi. If I had known this beforehand, I would have just stayed somewhere else. 
+I've stayed at other Motel 6 before, and they didn't charge for wifi, and their wifi was strong.
+The room is clean, basic, tv has good cable reception and choices. The toilet has strong flush power, the shower is tiny and the water pressure is weak. It takes a few minutes for the heat to kick on, which is really strange for a hotel...it's normally almost instant. 
+There is a Dennys right next door, a parking lot over that is open 24 hours a day. That is convenient. 
+The maid service is prompt and polite. The front desk is a tossup, sometimes you get nice ones, occasionally you get one that guards their garbage internet codes like they make it with their own two hands. The first day I had to call their off site tech support to square issues away, and you have to make sure on each sign on page for internet you RE_CLICK the $4.99 wifi...It had never occurred to me that in the US (I'm American) that a motel/hotel would charge for wifi...and 2 version of wifi...$3 for bad wifi, and $5 for mediocre wifi where you have to keep logging out and in to keep getting a signal. Previously I've only ever had to pay for wifi in 3rd world countries or socialist countries-and not many places there charged for wifi. If I had known this beforehand, I would have just stayed somewhere else. I've stayed at other Motel 6 before, and they didn't charge for wifi, and their wifi was strong.The room is clean, basic, tv has good cable reception and choices. The toilet has strong flush power, the shower is tiny and the water pressure is weak. It takes a few minutes for the heat to kick on, which is really strange for a hotel...it's normally almost instant. There is a Dennys right next door, a parking lot over that is open 24 hours a day. That is convenient. The maid service is prompt and polite. The front desk is a tossup, sometimes you get nice ones, occasionally you get one that guards their garbage internet codes like they make it with their own two hands. The first day I had to call their off site tech support to square issues away, and you have to make sure on each sign on page for internet you RE_CLICK the $4.99 wifi that you paid for or it auto defaults to the worse wifi. Then you have to go through a whole ordeal getting that off your communication device in order to enter a new code. I had a pressure washer outside for about 3 hours one early morning, no sleeping in that day. It is convenient to get to the airport, but there's other choices. I won't ever be staying at this location again, there's a Traveler's Lodge next door, right beside Dennys, if I have to come back this way and need to be close to the airport I might try them.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119938-r574219582-Motel_6_Denver_Airport-Denver_Colorado.html</t>
   </si>
   <si>
-    <t>33388</t>
-  </si>
-  <si>
-    <t>119938</t>
-  </si>
-  <si>
     <t>574219582</t>
   </si>
   <si>
@@ -174,12 +233,6 @@
     <t>The place is located in an industrial area with a sweet industrial smell. The area is noisy and not relaxing. You have to pay for wifi and there are only 5 rooms with tubs.  If you want cheap but don't want to relax, come here. If you want to feel at ease while traveling pay an extra few $$ and go somewhere else.  The egress and ingress to the motel is confusing and awkward with one way directions. Don't waste your $$.MoreShow less</t>
   </si>
   <si>
-    <t>April 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
     <t>6Team, Guest Relations Manager at Motel 6 Denver - Airport, responded to this reviewResponded April 19, 2018</t>
   </si>
   <si>
@@ -231,6 +284,39 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119938-r539149217-Motel_6_Denver_Airport-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>539149217</t>
+  </si>
+  <si>
+    <t>11/07/2017</t>
+  </si>
+  <si>
+    <t>Nice place</t>
+  </si>
+  <si>
+    <t>Comfortable room,  nice upgrades,  quiet and peaceful.  No issues with the room and pretty clean.  Close to a couple restaurants that were within walking distance,  close to the highway and was able to get to places easily</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119938-r522282187-Motel_6_Denver_Airport-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>522282187</t>
+  </si>
+  <si>
+    <t>09/07/2017</t>
+  </si>
+  <si>
+    <t>It is what it is!</t>
+  </si>
+  <si>
+    <t>This motel is super-handy to I-70  and centrally located adjacent to downtown, uptown, midtown Denver.  This is a no-frills budget motel, very suitable for a 'passing-through' overnight rest. The beds are comfy and the price can be anywhere from $60- $90,depending on events in Denver, and it sells out fast. I always book ahead online. I stay here 3-4 times a year with no hassles whatsoever.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119938-r511014081-Motel_6_Denver_Airport-Denver_Colorado.html</t>
   </si>
   <si>
@@ -294,12 +380,54 @@
     <t>Needed a place to crash after a late night flight in...The check in was quick even at 1 am...The rooms were clean...Basic requirements available....The worst part was there were cockroaches on the floor which was disgusting....MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>Needed a place to crash after a late night flight in...The check in was quick even at 1 am...The rooms were clean...Basic requirements available....The worst part was there were cockroaches on the floor which was disgusting....More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119938-r494713556-Motel_6_Denver_Airport-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>494713556</t>
+  </si>
+  <si>
+    <t>06/20/2017</t>
+  </si>
+  <si>
+    <t>Keep the light on for someone else</t>
+  </si>
+  <si>
+    <t>We were stuck in Denver with a cancelled flight and all hotels in the area sold out (I called every one) so we had to resort to a motel - and there we were - an uber ride into hadesCalled to reserve 2 rooms - paid for by occupancy - after arriving I thought I was going to be paying by hour.  Met by 2 Eastern European girls behind the desk- they take a photo copy of your license in case you lose your room key.  The upcharge for being sold out was like 100$ for a room.  Cops did rounds.  Signs up for no pot smoking.  Rooms were musty but we were trapped.  Afraid to try the space capsule shower. And felt you needed a hazmat suit to sleep.Even the table in the room was wobbly.  There was a manager who was really rude - I've never had to have each guest show ID so when I had a questioned look she treated me like very poorly - at least the other lady apologized for the rudeness later when we saw her.Unless you are stuck like we were (and a bunch of others) let them "keep a light on" for someone else at this place... you'd be better off sleeping in a chair at the airport.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team at Motel 6 Denver - Airport, responded to this reviewResponded June 22, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 22, 2017</t>
+  </si>
+  <si>
+    <t>We were stuck in Denver with a cancelled flight and all hotels in the area sold out (I called every one) so we had to resort to a motel - and there we were - an uber ride into hadesCalled to reserve 2 rooms - paid for by occupancy - after arriving I thought I was going to be paying by hour.  Met by 2 Eastern European girls behind the desk- they take a photo copy of your license in case you lose your room key.  The upcharge for being sold out was like 100$ for a room.  Cops did rounds.  Signs up for no pot smoking.  Rooms were musty but we were trapped.  Afraid to try the space capsule shower. And felt you needed a hazmat suit to sleep.Even the table in the room was wobbly.  There was a manager who was really rude - I've never had to have each guest show ID so when I had a questioned look she treated me like very poorly - at least the other lady apologized for the rudeness later when we saw her.Unless you are stuck like we were (and a bunch of others) let them "keep a light on" for someone else at this place... you'd be better off sleeping in a chair at the airport.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119938-r480799642-Motel_6_Denver_Airport-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>480799642</t>
+  </si>
+  <si>
+    <t>05/01/2017</t>
+  </si>
+  <si>
+    <t>Not even worth the $75 spent</t>
+  </si>
+  <si>
+    <t>We needed somewhere to keep our luggage for a lay over we add in Denver until the evening so we picked what we thought would be a cheap place. Well not exactly as I have stayed at much better places for the money. For starters we didn't expect much but the office entrance door was broken and the staff talked more to themselves than us. Our room door did not shut unless you slammed it which meant someone could easily access your room( #217). It served a simple purpose to store luggage though.</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119938-r477712202-Motel_6_Denver_Airport-Denver_Colorado.html</t>
   </si>
   <si>
@@ -354,6 +482,48 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119938-r466279163-Motel_6_Denver_Airport-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>466279163</t>
+  </si>
+  <si>
+    <t>03/11/2017</t>
+  </si>
+  <si>
+    <t>Don't stay here!</t>
+  </si>
+  <si>
+    <t>The first room we entered reeked of smoke, so I called the front desk and requested another room.  Yolanda was very helpful and gave us another room, which was extremely HOT.  I called the front desk and was told there was no air conditioning available this time of year.  They brought us a fan which helped only slightly.  This room also smelled like smoke, but not as bad as the first room.  My pillows smelled so bad that I put perfume under my nose so I could sleep, that and a wet towel around my neck to cool off.  I slept all night with the towel on.  They advertise wifi on their sign, but it isn't free.  Really?  No breakfast, but it's just as well, because we couldn't wait to get out of there in the morning.  The area of the hotel scared me a bit, but I was told it was patrolled by security.  Probably worse place I have ever stayed.MoreShow less</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team  at Motel 6 Denver - Airport, responded to this reviewResponded March 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 13, 2017</t>
+  </si>
+  <si>
+    <t>The first room we entered reeked of smoke, so I called the front desk and requested another room.  Yolanda was very helpful and gave us another room, which was extremely HOT.  I called the front desk and was told there was no air conditioning available this time of year.  They brought us a fan which helped only slightly.  This room also smelled like smoke, but not as bad as the first room.  My pillows smelled so bad that I put perfume under my nose so I could sleep, that and a wet towel around my neck to cool off.  I slept all night with the towel on.  They advertise wifi on their sign, but it isn't free.  Really?  No breakfast, but it's just as well, because we couldn't wait to get out of there in the morning.  The area of the hotel scared me a bit, but I was told it was patrolled by security.  Probably worse place I have ever stayed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119938-r452897178-Motel_6_Denver_Airport-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>452897178</t>
+  </si>
+  <si>
+    <t>01/17/2017</t>
+  </si>
+  <si>
+    <t>1 night</t>
+  </si>
+  <si>
+    <t>This place needs an upgrade. The floor needs to be replaced. The bathroom was not swept or mopped. The front desk clerk, Yolanda was pleasant &amp; helpful. The WI FI here goes in &amp; out for $2.99 every 24 hours...</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119938-r452459599-Motel_6_Denver_Airport-Denver_Colorado.html</t>
   </si>
   <si>
@@ -369,9 +539,6 @@
     <t xml:space="preserve">Cheap for Denver. Clean room, nice staff. No breakfast and charge for wifi, but you get what you pay for I guess. Worst thing would be only showers no bathtub but most could probably live with it. All in all not bad at all. Yolanda and Angela were most pleasant. </t>
   </si>
   <si>
-    <t>January 2017</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119938-r449232844-Motel_6_Denver_Airport-Denver_Colorado.html</t>
   </si>
   <si>
@@ -405,6 +572,42 @@
     <t>Overall great service with a large room at a rate $20 less than next door.  I would stay again. Quiet room and neighborhood.  Near Denver airport and close enough to downtown  for convenience. Updated Motel 6 style.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119938-r442071721-Motel_6_Denver_Airport-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>442071721</t>
+  </si>
+  <si>
+    <t>12/04/2016</t>
+  </si>
+  <si>
+    <t>Roach infested room</t>
+  </si>
+  <si>
+    <t>I so wanted to give this property a higher rating because of the work that they have done over the past 5 or so years bringing the property up from what was once a sleaze motel that catered to stripper hook-ups, lot lizards, and questionable after hour activities with cars coming and going in the night; however, because of the roach infestation (if they are in my room -- room 273, then they are in other rooms, as well. I am not talking about the 1-2 roaches. They came out of the cracks in the walls and from under the laminate flooring. Of all of my years of visiting and living in Denver, I never saw roaches. I assumed that it was too cold for them to live out here. Clearly, I was wrong.  Regarding the laminate flooring, this I thought was a smart move over the carpet that once reigned throughout the rooms a few years ago.  Another reason why I cant give it a higher rating is that there are no irons or ironing boards on PREMISE!  I can understand them not having such items in the rooms, but to not have any on premises is a travesty.  Consequently, this makes it less appealing for the business traveler, at least. The bedding and the mattress were adequate. And while these things are clean and adequate, I cant give the room a higher rating because of the roaches.  The...I so wanted to give this property a higher rating because of the work that they have done over the past 5 or so years bringing the property up from what was once a sleaze motel that catered to stripper hook-ups, lot lizards, and questionable after hour activities with cars coming and going in the night; however, because of the roach infestation (if they are in my room -- room 273, then they are in other rooms, as well. I am not talking about the 1-2 roaches. They came out of the cracks in the walls and from under the laminate flooring. Of all of my years of visiting and living in Denver, I never saw roaches. I assumed that it was too cold for them to live out here. Clearly, I was wrong.  Regarding the laminate flooring, this I thought was a smart move over the carpet that once reigned throughout the rooms a few years ago.  Another reason why I cant give it a higher rating is that there are no irons or ironing boards on PREMISE!  I can understand them not having such items in the rooms, but to not have any on premises is a travesty.  Consequently, this makes it less appealing for the business traveler, at least. The bedding and the mattress were adequate. And while these things are clean and adequate, I cant give the room a higher rating because of the roaches.  The updated security protocol is welcoming.  Were it not for the roach infestation, I would have given it a 3 for its class.  The check-in staff person was very friendly. This rating is certainly not a reflection on her service, but more about the hotel.  I really struggle giving this property this low rating, but I cant see any way around it.  I really wanted this to be a much better rating because I am aware of the work and effort that has gone in to turning it around to a reputable property.  Even though it is a budget hotel, there are still expectations that cant be overlooked or ignored.MoreShow less</t>
+  </si>
+  <si>
+    <t>I so wanted to give this property a higher rating because of the work that they have done over the past 5 or so years bringing the property up from what was once a sleaze motel that catered to stripper hook-ups, lot lizards, and questionable after hour activities with cars coming and going in the night; however, because of the roach infestation (if they are in my room -- room 273, then they are in other rooms, as well. I am not talking about the 1-2 roaches. They came out of the cracks in the walls and from under the laminate flooring. Of all of my years of visiting and living in Denver, I never saw roaches. I assumed that it was too cold for them to live out here. Clearly, I was wrong.  Regarding the laminate flooring, this I thought was a smart move over the carpet that once reigned throughout the rooms a few years ago.  Another reason why I cant give it a higher rating is that there are no irons or ironing boards on PREMISE!  I can understand them not having such items in the rooms, but to not have any on premises is a travesty.  Consequently, this makes it less appealing for the business traveler, at least. The bedding and the mattress were adequate. And while these things are clean and adequate, I cant give the room a higher rating because of the roaches.  The...I so wanted to give this property a higher rating because of the work that they have done over the past 5 or so years bringing the property up from what was once a sleaze motel that catered to stripper hook-ups, lot lizards, and questionable after hour activities with cars coming and going in the night; however, because of the roach infestation (if they are in my room -- room 273, then they are in other rooms, as well. I am not talking about the 1-2 roaches. They came out of the cracks in the walls and from under the laminate flooring. Of all of my years of visiting and living in Denver, I never saw roaches. I assumed that it was too cold for them to live out here. Clearly, I was wrong.  Regarding the laminate flooring, this I thought was a smart move over the carpet that once reigned throughout the rooms a few years ago.  Another reason why I cant give it a higher rating is that there are no irons or ironing boards on PREMISE!  I can understand them not having such items in the rooms, but to not have any on premises is a travesty.  Consequently, this makes it less appealing for the business traveler, at least. The bedding and the mattress were adequate. And while these things are clean and adequate, I cant give the room a higher rating because of the roaches.  The updated security protocol is welcoming.  Were it not for the roach infestation, I would have given it a 3 for its class.  The check-in staff person was very friendly. This rating is certainly not a reflection on her service, but more about the hotel.  I really struggle giving this property this low rating, but I cant see any way around it.  I really wanted this to be a much better rating because I am aware of the work and effort that has gone in to turning it around to a reputable property.  Even though it is a budget hotel, there are still expectations that cant be overlooked or ignored.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119938-r434220932-Motel_6_Denver_Airport-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>434220932</t>
+  </si>
+  <si>
+    <t>11/03/2016</t>
+  </si>
+  <si>
+    <t>My dog hated it</t>
+  </si>
+  <si>
+    <t>No heat. Filthy. Left after no rest. Total rip off.  Added hotel tax was insult to injury. Avoid this chain altogether. Absolute bottom feeders.  Once held promise but I've wasted too many nights and too many $$$ trying different locations and 9 out of 10 absolutely suck.  I give up and will sleep in my car.</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119938-r419216297-Motel_6_Denver_Airport-Denver_Colorado.html</t>
   </si>
   <si>
@@ -462,6 +665,42 @@
     <t>This place is horrible I'm staying here and the hinges are coming off the door you can't even lock it and this place is ghetto so locking the door is kinda a big thing! The lady at the front desk is a total sweet heart I really hated having to call and complain about my room and thankfully she got it switched! This place has no microwaves. The beds look like something they picked up from a dumpster in the alley</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119938-r396037494-Motel_6_Denver_Airport-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>396037494</t>
+  </si>
+  <si>
+    <t>07/23/2016</t>
+  </si>
+  <si>
+    <t>Crime scene tape hanging from the railing of the upper level</t>
+  </si>
+  <si>
+    <t>Two stars, but only for the pleasant service of the front desk attendant.  Crime scene tape hanging from the bannister, no towels at the pool, cigarette burns in the bedspreads, trickling water pressure, ONE small bar of soap so forget washing your hair ladies.  How many signs can one place have saying they are not responsible for damages or theft? We were sternly warned to make sure our parking badges were visible lest we be towed.  Motel 6 wanted more info on us to day one dreaded night than the IRS wants when you owe back taxes.  Not pleased with this motel at all. Smoke smell loomed heavily in the room.  No way to control the temperature in the room whatsoever, so it was hot all day and night with no relief in sight.  And when you're charging that much it just ain't right.  NO one slept well here.  Seemed to be many were permanant residents of this location.  Would never stay here again, even if it was free.MoreShow less</t>
+  </si>
+  <si>
+    <t>Two stars, but only for the pleasant service of the front desk attendant.  Crime scene tape hanging from the bannister, no towels at the pool, cigarette burns in the bedspreads, trickling water pressure, ONE small bar of soap so forget washing your hair ladies.  How many signs can one place have saying they are not responsible for damages or theft? We were sternly warned to make sure our parking badges were visible lest we be towed.  Motel 6 wanted more info on us to day one dreaded night than the IRS wants when you owe back taxes.  Not pleased with this motel at all. Smoke smell loomed heavily in the room.  No way to control the temperature in the room whatsoever, so it was hot all day and night with no relief in sight.  And when you're charging that much it just ain't right.  NO one slept well here.  Seemed to be many were permanant residents of this location.  Would never stay here again, even if it was free.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119938-r394498344-Motel_6_Denver_Airport-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>394498344</t>
+  </si>
+  <si>
+    <t>07/19/2016</t>
+  </si>
+  <si>
+    <t>DON'T STAY HERE</t>
+  </si>
+  <si>
+    <t>NEVER AGAIN will we stay in Motel 6. We planned on staying 1 night and possibly 2.  When we got here had to wait in line for 45 minutes to get waited on. There were 2 ladies trying to get everyone registered in. We had an issue with the internet. The website leads you to believe that wi-fi was included in the cost of the room. But at checkin they said NO - it wasn't. We wanted a non-smoking room - got a smoking room and the smell was awful.  We asked to have spray to mask the smoke, we asked for something to be done and she said that she will come down to spray but she never did.  Killed some spiders in the room running around.  The neighborhood was shady.  The 2nd day went into the office to see about changing rooms that didn't smell. Found a room, was told I could put our belongings in the new room and the maid service would be ready for us at that evening.  Then after putting our belongings in the new room, was told by the desk clerk the manager said that we couldn't do that and to bring up our things and put them in the office. Decided we didn't want to leave our belongings in the office, we loaded all of our things in the car.  Went back to the office to arrange for a room to stay...NEVER AGAIN will we stay in Motel 6. We planned on staying 1 night and possibly 2.  When we got here had to wait in line for 45 minutes to get waited on. There were 2 ladies trying to get everyone registered in. We had an issue with the internet. The website leads you to believe that wi-fi was included in the cost of the room. But at checkin they said NO - it wasn't. We wanted a non-smoking room - got a smoking room and the smell was awful.  We asked to have spray to mask the smoke, we asked for something to be done and she said that she will come down to spray but she never did.  Killed some spiders in the room running around.  The neighborhood was shady.  The 2nd day went into the office to see about changing rooms that didn't smell. Found a room, was told I could put our belongings in the new room and the maid service would be ready for us at that evening.  Then after putting our belongings in the new room, was told by the desk clerk the manager said that we couldn't do that and to bring up our things and put them in the office. Decided we didn't want to leave our belongings in the office, we loaded all of our things in the car.  Went back to the office to arrange for a room to stay another night. At this point I was very upset. In talking the clerk, she would keep sticking her head around the corner to the manager. Very frustrating that the manager would not get up off her butt and come talk to me, knowing how upset I was. After the 3rd trip back to the lobby, after the NON-RESPONSE I got from the manager, I told the clerk I would not stay another night, even if the room was free. All of this conversation between me and the clerk, I made a point for the manager to hear me, and never once would she come out and talk to me. I finally told them to keep the room, that I didn't want it and went and reserved a room at another motel. We have NEVER had anything like this - and we travel everywhere. We have stayed many times over the years at Motel 6 and other choice hotels and have never had such an experience. Probably will not hear anything back from this review.  If you want to make me happy - refund my money! Don't have time to go into it - but not even mentioning the problems with the internet. I feel like I spent more time in the lobby correcting problems than I did in my room. The prices are so high for what you get.  AWFUL!MoreShow less</t>
+  </si>
+  <si>
+    <t>NEVER AGAIN will we stay in Motel 6. We planned on staying 1 night and possibly 2.  When we got here had to wait in line for 45 minutes to get waited on. There were 2 ladies trying to get everyone registered in. We had an issue with the internet. The website leads you to believe that wi-fi was included in the cost of the room. But at checkin they said NO - it wasn't. We wanted a non-smoking room - got a smoking room and the smell was awful.  We asked to have spray to mask the smoke, we asked for something to be done and she said that she will come down to spray but she never did.  Killed some spiders in the room running around.  The neighborhood was shady.  The 2nd day went into the office to see about changing rooms that didn't smell. Found a room, was told I could put our belongings in the new room and the maid service would be ready for us at that evening.  Then after putting our belongings in the new room, was told by the desk clerk the manager said that we couldn't do that and to bring up our things and put them in the office. Decided we didn't want to leave our belongings in the office, we loaded all of our things in the car.  Went back to the office to arrange for a room to stay...NEVER AGAIN will we stay in Motel 6. We planned on staying 1 night and possibly 2.  When we got here had to wait in line for 45 minutes to get waited on. There were 2 ladies trying to get everyone registered in. We had an issue with the internet. The website leads you to believe that wi-fi was included in the cost of the room. But at checkin they said NO - it wasn't. We wanted a non-smoking room - got a smoking room and the smell was awful.  We asked to have spray to mask the smoke, we asked for something to be done and she said that she will come down to spray but she never did.  Killed some spiders in the room running around.  The neighborhood was shady.  The 2nd day went into the office to see about changing rooms that didn't smell. Found a room, was told I could put our belongings in the new room and the maid service would be ready for us at that evening.  Then after putting our belongings in the new room, was told by the desk clerk the manager said that we couldn't do that and to bring up our things and put them in the office. Decided we didn't want to leave our belongings in the office, we loaded all of our things in the car.  Went back to the office to arrange for a room to stay another night. At this point I was very upset. In talking the clerk, she would keep sticking her head around the corner to the manager. Very frustrating that the manager would not get up off her butt and come talk to me, knowing how upset I was. After the 3rd trip back to the lobby, after the NON-RESPONSE I got from the manager, I told the clerk I would not stay another night, even if the room was free. All of this conversation between me and the clerk, I made a point for the manager to hear me, and never once would she come out and talk to me. I finally told them to keep the room, that I didn't want it and went and reserved a room at another motel. We have NEVER had anything like this - and we travel everywhere. We have stayed many times over the years at Motel 6 and other choice hotels and have never had such an experience. Probably will not hear anything back from this review.  If you want to make me happy - refund my money! Don't have time to go into it - but not even mentioning the problems with the internet. I feel like I spent more time in the lobby correcting problems than I did in my room. The prices are so high for what you get.  AWFUL!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119938-r392747307-Motel_6_Denver_Airport-Denver_Colorado.html</t>
   </si>
   <si>
@@ -516,6 +755,42 @@
     <t>June 2016</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119938-r386158387-Motel_6_Denver_Airport-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>386158387</t>
+  </si>
+  <si>
+    <t>06/26/2016</t>
+  </si>
+  <si>
+    <t>DO NOT STAY HERE!!!!!!</t>
+  </si>
+  <si>
+    <t>I had a reservation to stay 2 weeks while my husband and I found an apartment. We get there and they had over booked and had no rooms available! And there were absolutely NO availability in Denver, Aurora, Thornton etc at any other motel/hotel at that point. The only motel we could get into asap was Motel 6 in Colorado Springs! We had our cat and turtles with us and had to sit in our car all day from morning till 3pm waiting on a room! I called Motel 6 customer service and all they would do is comp us 1 night and the voucher would take 15 days to get here. Obviously they caused us all kinds of problems behind this action. And the girl at desk was incredibly rude on top of it! Also the place looked veryyyyyy sketchy. At the check in desk is a sign stating that Denver PD requires everyone to show an ID which is a HUGE red flag. Please listen to all the horrible reviews, they are true! The worst experience of our lives!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>I had a reservation to stay 2 weeks while my husband and I found an apartment. We get there and they had over booked and had no rooms available! And there were absolutely NO availability in Denver, Aurora, Thornton etc at any other motel/hotel at that point. The only motel we could get into asap was Motel 6 in Colorado Springs! We had our cat and turtles with us and had to sit in our car all day from morning till 3pm waiting on a room! I called Motel 6 customer service and all they would do is comp us 1 night and the voucher would take 15 days to get here. Obviously they caused us all kinds of problems behind this action. And the girl at desk was incredibly rude on top of it! Also the place looked veryyyyyy sketchy. At the check in desk is a sign stating that Denver PD requires everyone to show an ID which is a HUGE red flag. Please listen to all the horrible reviews, they are true! The worst experience of our lives!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119938-r382030318-Motel_6_Denver_Airport-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>382030318</t>
+  </si>
+  <si>
+    <t>06/12/2016</t>
+  </si>
+  <si>
+    <t>Last resort</t>
+  </si>
+  <si>
+    <t>The area was questionable didn't want to leave my mom or son in the vehicle to check in.  When we got to the room it smelled like cigarettes. That night booked another room someplace else. I stayed that night because site I used charged the first night.  Next morning got up early went in bathroom shower was dirty and towels questionable. The floor had blood stains by the bed, thankful I made my son wear shoes to walk from bed to bathroom.  Check out I was not asked once why even though I had paid up front for 2 nights.  Seriously think about this place before you say ok if you have if spring for the better hotel not worth saving the few extra dollars. No one should have to place there child strategically in the room to feel semi safe.MoreShow less</t>
+  </si>
+  <si>
+    <t>The area was questionable didn't want to leave my mom or son in the vehicle to check in.  When we got to the room it smelled like cigarettes. That night booked another room someplace else. I stayed that night because site I used charged the first night.  Next morning got up early went in bathroom shower was dirty and towels questionable. The floor had blood stains by the bed, thankful I made my son wear shoes to walk from bed to bathroom.  Check out I was not asked once why even though I had paid up front for 2 nights.  Seriously think about this place before you say ok if you have if spring for the better hotel not worth saving the few extra dollars. No one should have to place there child strategically in the room to feel semi safe.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119938-r360495533-Motel_6_Denver_Airport-Denver_Colorado.html</t>
   </si>
   <si>
@@ -585,6 +860,51 @@
     <t>February 2016</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119938-r337251361-Motel_6_Denver_Airport-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>337251361</t>
+  </si>
+  <si>
+    <t>01/04/2016</t>
+  </si>
+  <si>
+    <t>Smokey Non-Smoking Room</t>
+  </si>
+  <si>
+    <t>The room was handy as it was cheap and near DIA but our two non-smoking rooms smelled like they were smoking rooms and both had ash trays in them. I feared our suitcases full of clothing would smell like we were smokers when we arrived at our destination. The shower was surprisingly nice (recently remodeled), clean and well-lit but the rest of the room could have used a deep clean.There were no extras but it was convenient. There was a fee for wi-fi and there was no breakfast (coffee was provided). The location is slightly sketchy, I wouldn't recommend walking anywhere from the hotel at night.</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119938-r330829926-Motel_6_Denver_Airport-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>330829926</t>
+  </si>
+  <si>
+    <t>12/05/2015</t>
+  </si>
+  <si>
+    <t>Convenient to airport but rough crowd the night we were there</t>
+  </si>
+  <si>
+    <t>Stayed 1 night to get close to airport for morning flight. I don't expect alot with motel 6 but the reason I gave it a poor rating was the experience with a rough crowd we were there.  In the room next to us, the people brought in a big case of beer and were really loud the whole night.  The front desk person was friendly enough.  The room did smell like smoke.  Still okay for a 1 night stay for budget purposes but won't recommend multiple night stays.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team at Motel 6 Denver - Airport, responded to this reviewResponded December 9, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 9, 2015</t>
+  </si>
+  <si>
+    <t>Stayed 1 night to get close to airport for morning flight. I don't expect alot with motel 6 but the reason I gave it a poor rating was the experience with a rough crowd we were there.  In the room next to us, the people brought in a big case of beer and were really loud the whole night.  The front desk person was friendly enough.  The room did smell like smoke.  Still okay for a 1 night stay for budget purposes but won't recommend multiple night stays.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119938-r320199772-Motel_6_Denver_Airport-Denver_Colorado.html</t>
   </si>
   <si>
@@ -648,6 +968,48 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119938-r294232211-Motel_6_Denver_Airport-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>294232211</t>
+  </si>
+  <si>
+    <t>07/30/2015</t>
+  </si>
+  <si>
+    <t>Could be a lot worse</t>
+  </si>
+  <si>
+    <t>I stay in Motel 6s most of the time so when I read horrible reviews from others like me, I was concerned.  The room was clean and typical "new style" decor BUT I shortly discovered there were no hand towels, no bath mat, the TV remote barely worked and the bathroom door would not close properly.  The ambient temp was about 95 and the AC was struggling to keep the room even moderately comfortable.  The motel is in an old part of town and the clientel predominantly black.  IF that brothers you, stay away.  Would I stay here again?  Absolutely.</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119938-r292459381-Motel_6_Denver_Airport-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>292459381</t>
+  </si>
+  <si>
+    <t>07/25/2015</t>
+  </si>
+  <si>
+    <t>Would have slept better in the car - especially for $90+</t>
+  </si>
+  <si>
+    <t>Should've got the hint upon arrival when patrons were outside or had their doors open.  Non smoking room was clearly an ALWAYS smoking room and wreaked not only of smoke but sewage.  A/C was not cooling and heard a baby crying, people yelling and what we both thought was a gunshot at somepoint during the restless night.  Would've had a better night sleep in the car.  Never Again!MoreShow less</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 Denver - Airport, responded to this reviewResponded July 27, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 27, 2015</t>
+  </si>
+  <si>
+    <t>Should've got the hint upon arrival when patrons were outside or had their doors open.  Non smoking room was clearly an ALWAYS smoking room and wreaked not only of smoke but sewage.  A/C was not cooling and heard a baby crying, people yelling and what we both thought was a gunshot at somepoint during the restless night.  Would've had a better night sleep in the car.  Never Again!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119938-r291315524-Motel_6_Denver_Airport-Denver_Colorado.html</t>
   </si>
   <si>
@@ -666,12 +1028,6 @@
     <t>June 2015</t>
   </si>
   <si>
-    <t>6Team, Brand Experience Team member at Motel 6 Denver - Airport, responded to this reviewResponded July 27, 2015</t>
-  </si>
-  <si>
-    <t>Responded July 27, 2015</t>
-  </si>
-  <si>
     <t>Moved my daughter and grandson cross country and needed a place in Denver that would take pets and was close to I-70. When we called the motel they assured us it was newly renovated, family friendly and had great security. The last one should have given us a clue because they needed it! This is probably the scariest motel I have ever stayed in. Do not take your kids here. I imagine all kinds of questionable things go down here from what I observed. Our AC wasn't working and it was 100*. When security brought us a fan they were shocked we had a baby in the room. We were gone at daybreak.....More</t>
   </si>
   <si>
@@ -690,9 +1046,6 @@
     <t>We stay in Motel 6 usually. This motel is very clean, the room is nice but not much of a view.  It was very easy to get to the interstate. It is very convenient to the airport.  The staff was very friendly and I like that they have karaoke at 6 AM</t>
   </si>
   <si>
-    <t>July 2015</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119938-r285091884-Motel_6_Denver_Airport-Denver_Colorado.html</t>
   </si>
   <si>
@@ -717,6 +1070,45 @@
     <t>This was the worst hotel I have ever been to!!!  It was scary lots of traffic someone tried to get in our room in the middle of the night there where cars lined up along the hotel with a person walking back and forth assuming drug deals..  Very loud people coming up to us to borrow things we had no hand towels no frig no hair dryer the shower leaked and the smoke alarm beeped only at night..  I would never stay here again would not recommend anyone staying here..More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119938-r281684503-Motel_6_Denver_Airport-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>281684503</t>
+  </si>
+  <si>
+    <t>06/20/2015</t>
+  </si>
+  <si>
+    <t>What you'd expect</t>
+  </si>
+  <si>
+    <t>I had a terrible delay on my flight (thanks United) so I was stranded without a car at 2:30 AM and this was the cheapest hotel. It is decently close to the airport and relatively clean. It is pretty spacious for a motel and the TV was nice. However, the room reeked of cigarette smoke even though it was supposed to be non-smoking.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119938-r278729124-Motel_6_Denver_Airport-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>278729124</t>
+  </si>
+  <si>
+    <t>06/08/2015</t>
+  </si>
+  <si>
+    <t>dirty and scary</t>
+  </si>
+  <si>
+    <t>I didn't know the area when I reserved but its in a light industrial area, the people who stay here are mostly local transients. Very loud, my floor was so dirty, my feet were black from walking from the bathroom to the bed.To their credit, when I asked about the noise,  the staff told me I should have called them when the noise was happening.There was paramedics there every day of my stay, taking someone to the hospitalMoreShow less</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 Denver - Airport, responded to this reviewResponded June 9, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 9, 2015</t>
+  </si>
+  <si>
+    <t>I didn't know the area when I reserved but its in a light industrial area, the people who stay here are mostly local transients. Very loud, my floor was so dirty, my feet were black from walking from the bathroom to the bed.To their credit, when I asked about the noise,  the staff told me I should have called them when the noise was happening.There was paramedics there every day of my stay, taking someone to the hospitalMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119938-r278171604-Motel_6_Denver_Airport-Denver_Colorado.html</t>
   </si>
   <si>
@@ -777,6 +1169,48 @@
     <t>I've stayed in a couple of motel 6 when ive  got into town late and they have been very good... unfortunately this one was the poorest one i havd stayed in so far. The air con did not work, the floor had this awful oil film on it which made it horrible to walk on and the was the brightest light outside our room which made it difficult to sleep. The best thing about this particular motel 6 was the shower. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119938-r274301727-Motel_6_Denver_Airport-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>274301727</t>
+  </si>
+  <si>
+    <t>05/24/2015</t>
+  </si>
+  <si>
+    <t>Worst Motel 6 ever</t>
+  </si>
+  <si>
+    <t>We travelled as family and visited 7 US states. Usually we took Motel 6 for basecamps. However the Denver Airport Motel 6 is a pit compared to every other Motel 6 we've been to. In our first room we discovered bloodstains all over the floor. What the hell happened there? Murder? Suicide? And aren't they supposed to have a cleaning crew attend to the rooms? So I went to the clerk - his name was Julien and he was a mighty fine person (to mention my only nice experience at the place). He gave me another room. Turned out this one was a smoking room. And the place reeked of dope. I thought well, you're in Colorado. No use complaining about the odor of dope then. However, the floor was dirty as hell. No bloodstains this time. But judging by my eyesight they didn't even bother to sweep the floor. So I went back to Julien to complain a second time (which I really hated to, because he was really being nice). I even wanted to cancel our bookings by then but that was impossible without renouncing a refund. So Julien gave me a third room. This was again a smoking room. Anyway, I kept it. Additional downside: a manyfold number of people seem to actually live in this Motel 6. That makes the place even more scary for people on transit (like me and my family).MoreShow less</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 Denver - Airport, responded to this reviewResponded May 26, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 26, 2015</t>
+  </si>
+  <si>
+    <t>We travelled as family and visited 7 US states. Usually we took Motel 6 for basecamps. However the Denver Airport Motel 6 is a pit compared to every other Motel 6 we've been to. In our first room we discovered bloodstains all over the floor. What the hell happened there? Murder? Suicide? And aren't they supposed to have a cleaning crew attend to the rooms? So I went to the clerk - his name was Julien and he was a mighty fine person (to mention my only nice experience at the place). He gave me another room. Turned out this one was a smoking room. And the place reeked of dope. I thought well, you're in Colorado. No use complaining about the odor of dope then. However, the floor was dirty as hell. No bloodstains this time. But judging by my eyesight they didn't even bother to sweep the floor. So I went back to Julien to complain a second time (which I really hated to, because he was really being nice). I even wanted to cancel our bookings by then but that was impossible without renouncing a refund. So Julien gave me a third room. This was again a smoking room. Anyway, I kept it. Additional downside: a manyfold number of people seem to actually live in this Motel 6. That makes the place even more scary for people on transit (like me and my family).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119938-r273729884-Motel_6_Denver_Airport-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>273729884</t>
+  </si>
+  <si>
+    <t>05/21/2015</t>
+  </si>
+  <si>
+    <t>Very Disappointed</t>
+  </si>
+  <si>
+    <t>We appreciated the staff giving us connecting rooms as requested and holding the room for a later arrival....however upon getting to our rooms we realized that the guest before us had smoked in the room. It seemed like the housekeeping staff had sprayed a lot of heavy air fresher to get rid of the smoke smell, but it only made it worse. The fact that both non-smoking rooms had ashtrays in them with a non-smoking sticker on them should have been a dead give a way that they are allowing guests to smoke in the room or very close to the room. There was also cigarette ash on the bedside table and under the bed of one of the rooms. We tried turning on the a/c to air it out but it did not work. We ended up leaving within an hour of checking in because one of our children has asthma and started to wheeze. Terrible! The pictures on the website must be old because our room looked worn out. The laminate floor was warped in one of the rooms and overall just not a good job with cleaning the room. The silver lining was the bathrooms were very nice and clean. Go figure! The staff were ok about giving us a refund but unfortunately I cannot reccomend this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>We appreciated the staff giving us connecting rooms as requested and holding the room for a later arrival....however upon getting to our rooms we realized that the guest before us had smoked in the room. It seemed like the housekeeping staff had sprayed a lot of heavy air fresher to get rid of the smoke smell, but it only made it worse. The fact that both non-smoking rooms had ashtrays in them with a non-smoking sticker on them should have been a dead give a way that they are allowing guests to smoke in the room or very close to the room. There was also cigarette ash on the bedside table and under the bed of one of the rooms. We tried turning on the a/c to air it out but it did not work. We ended up leaving within an hour of checking in because one of our children has asthma and started to wheeze. Terrible! The pictures on the website must be old because our room looked worn out. The laminate floor was warped in one of the rooms and overall just not a good job with cleaning the room. The silver lining was the bathrooms were very nice and clean. Go figure! The staff were ok about giving us a refund but unfortunately I cannot reccomend this hotel.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119938-r269127723-Motel_6_Denver_Airport-Denver_Colorado.html</t>
   </si>
   <si>
@@ -835,6 +1269,48 @@
   </si>
   <si>
     <t>October 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119938-r232510198-Motel_6_Denver_Airport-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>232510198</t>
+  </si>
+  <si>
+    <t>10/04/2014</t>
+  </si>
+  <si>
+    <t>Terrible</t>
+  </si>
+  <si>
+    <t>Motel 6 is one of the "worst" motels I have stayed at, this one especially. I was sent an email, by my employer, regarding a reservation for this place. I drove over 800 miles to get to my room, went to check in and they informed me that it had been cancelled, because I had shown up a day later than the reservation. I had finally gotten the room, because a co-worker was already there.I got into the room and find out they have no microwave, no refrigerator, and no coffee pot of any kind. They offer no type of breakfast to boot. The card for opening the door had to be reprogrammed each and every day, as well.MoreShow less</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 Denver - Airport, responded to this reviewResponded October 7, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 7, 2014</t>
+  </si>
+  <si>
+    <t>Motel 6 is one of the "worst" motels I have stayed at, this one especially. I was sent an email, by my employer, regarding a reservation for this place. I drove over 800 miles to get to my room, went to check in and they informed me that it had been cancelled, because I had shown up a day later than the reservation. I had finally gotten the room, because a co-worker was already there.I got into the room and find out they have no microwave, no refrigerator, and no coffee pot of any kind. They offer no type of breakfast to boot. The card for opening the door had to be reprogrammed each and every day, as well.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119938-r230591500-Motel_6_Denver_Airport-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>230591500</t>
+  </si>
+  <si>
+    <t>09/23/2014</t>
+  </si>
+  <si>
+    <t>Cartons of Cigarettes.</t>
+  </si>
+  <si>
+    <t>The Non-smoking room smelled like someone smoked 2 cartons of cigarettes and all the nicotine of a billion Turkish tobacco farmers hands had seeped deep into the walls and drapes of this otherwise physically comfortable room.Yes it was in a bad area. and Friday night is party night by the way, but i grew up In Los Angeles in a bad neighborhood and have seen much worse, it was quiet, and the staff was great.However, I still cannot get the Phillip &amp; Morris smell out of my clothes, spirit and heart.</t>
+  </si>
+  <si>
+    <t>September 2014</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119938-r223066633-Motel_6_Denver_Airport-Denver_Colorado.html</t>
@@ -901,6 +1377,39 @@
     <t>Keep in mind, I don't expect 5 star rooms from a Motel 6.  My biggest disappointment was that check in is supposed to be at 3, but due to staffing issues, did not get my room until 7:30.  We weren't the only ones waiting.Also, for a non-smoking room, it had an ashtray in it and it smelled like a smoking room.Otherwise, it worked for the overnight stay we did, and the kids enjoyed the pool.  It also had a refrigerator and microwave, but don't expect a tub, it was just a shower.Close enough to the airport and other restaurants, if you don't mind driving a few minutes to go get something to eat.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119938-r215487902-Motel_6_Denver_Airport-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>215487902</t>
+  </si>
+  <si>
+    <t>07/15/2014</t>
+  </si>
+  <si>
+    <t>Crappy and creepy Motel</t>
+  </si>
+  <si>
+    <t>dirty place, strange people are staying there. If you want to feel unsafe stay there !Housekeeping is not existing, I had to complaint every night to claim for new towels.Airco was working sometimes, or too cold or too warm...Last day we had no water , they had troubles with the water heating system, no discount were offered. We stayed 4 hours in the warm without water (airco was out too) and there was nearly a war in the hotel, we even heard an security alert message through the outside loudspeakers... asking us to stay in the room !!! This is not Denver this is Beyruth !</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119938-r213215944-Motel_6_Denver_Airport-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>213215944</t>
+  </si>
+  <si>
+    <t>07/01/2014</t>
+  </si>
+  <si>
+    <t>Very bad , don't stay here , no metter how poor you are!</t>
+  </si>
+  <si>
+    <t>We booked a non smoking room since we have a little baby and the room was stinging of smoke and bad bad smell . Beds were very dirty, I belive unchanged, floor was dirtier then the Walmart parking lot ! This is beyond  anything you'll ever expect . Don't stay at this motel no metter how much money you  think you wanna save,  better in a tent somewhere .</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119938-r211009452-Motel_6_Denver_Airport-Denver_Colorado.html</t>
   </si>
   <si>
@@ -916,9 +1425,6 @@
     <t>This motel is a great place to stay; good location, great rate, and great staff. Room was clean and included a fridge and microwave. On-site security cameras and a caring staff made me feel very secure even though I was staying there alone. Only downside was the AC was not working very well.</t>
   </si>
   <si>
-    <t>June 2014</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119938-r206468159-Motel_6_Denver_Airport-Denver_Colorado.html</t>
   </si>
   <si>
@@ -952,6 +1458,47 @@
     <t xml:space="preserve">Very clean pulled up and security was there when you checked in. Fantastic for the price. Clean comfy room, car was able to be parked in full view of the balcony (walkway bit) outside the room. Reception was very friendly. Planning our next American adventure and we will defiantly be staying in motel 6's again! </t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119938-r194843010-Motel_6_Denver_Airport-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>194843010</t>
+  </si>
+  <si>
+    <t>02/21/2014</t>
+  </si>
+  <si>
+    <t>Not bad</t>
+  </si>
+  <si>
+    <t>I made a fast run from Utah to Oklahoma and was traveling alone.  I needed a place for a shower and a few hours sleep before driving on.  I saw this place and while we usually don't stay at a Motel 6 I figured what the heck it may be a while before I see another place to stay and it was getting late.  I checked in got to my room and grabbed a few hours sleep.  Overall I'd stay here again if need be.</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119938-r192584336-Motel_6_Denver_Airport-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>192584336</t>
+  </si>
+  <si>
+    <t>01/30/2014</t>
+  </si>
+  <si>
+    <t>The worst! - Dangerous and Reeks of Smoke</t>
+  </si>
+  <si>
+    <t>Just stayed here because it was cheap and convenient to Denver airport. Check in was convenient enough, but done through bullet proof glass since it was after 10pm.  From all the warnings in the hotel room, this appears to be a high crime area.  On the bottom of the TV it says "TV EQUIPPED WITH TRACKING DEVICE. ALL VIOLATORS WILL BE PROSECUTED."  Then on the door to the room is says prominently "FOR YOUR PROTECTION - WHEN IN ROOM ENGAGE DEADBOLT AND SECURITY LATCH."  Forget about trying to get any fresh air in the room.  The windows were sealed shut.  You can only assume that  the hotel has been robbed, hotel guests mugged, and TV's taken from the rooms.  
+The hotel claimed to have provided us non-smoking rooms.  But as soon as we entered our rooms, we were hit by the smell of smoke in the two rooms we rented.  I went down to complain and the receptionist did not appear surprised.  She said the only thing she could do was give me a different room.  I went to that new room and again it reeked of smoke.  At this point it was 20 degrees outside, my friends had already gone to sleep in their room, so I was stuck. When I finally put my head on the pillow, it smelled like I was sleeping on a big cheap foam ashtray.  Was up all night. The most ridiculous part of...Just stayed here because it was cheap and convenient to Denver airport. Check in was convenient enough, but done through bullet proof glass since it was after 10pm.  From all the warnings in the hotel room, this appears to be a high crime area.  On the bottom of the TV it says "TV EQUIPPED WITH TRACKING DEVICE. ALL VIOLATORS WILL BE PROSECUTED."  Then on the door to the room is says prominently "FOR YOUR PROTECTION - WHEN IN ROOM ENGAGE DEADBOLT AND SECURITY LATCH."  Forget about trying to get any fresh air in the room.  The windows were sealed shut.  You can only assume that  the hotel has been robbed, hotel guests mugged, and TV's taken from the rooms.  The hotel claimed to have provided us non-smoking rooms.  But as soon as we entered our rooms, we were hit by the smell of smoke in the two rooms we rented.  I went down to complain and the receptionist did not appear surprised.  She said the only thing she could do was give me a different room.  I went to that new room and again it reeked of smoke.  At this point it was 20 degrees outside, my friends had already gone to sleep in their room, so I was stuck. When I finally put my head on the pillow, it smelled like I was sleeping on a big cheap foam ashtray.  Was up all night. The most ridiculous part of the non-smoking room experience is that they provided an ashtray right next to the bed!!!  Of course, to maintain the fiction that it's a "non-smoking room" they put a big no smoking sign on the bottom of the ashtray!  Incredible.  There's also nothing in the room that says that if you smoke you will pay a fee to have the room cleaned.  Clearly, they know that everyone smokes in these rooms, and the "non-smoking" designation is just a cover. On the positive side, the TV is pretty nice.  Probably could sell it for $100 if you could disable the tracking device. . .MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>Just stayed here because it was cheap and convenient to Denver airport. Check in was convenient enough, but done through bullet proof glass since it was after 10pm.  From all the warnings in the hotel room, this appears to be a high crime area.  On the bottom of the TV it says "TV EQUIPPED WITH TRACKING DEVICE. ALL VIOLATORS WILL BE PROSECUTED."  Then on the door to the room is says prominently "FOR YOUR PROTECTION - WHEN IN ROOM ENGAGE DEADBOLT AND SECURITY LATCH."  Forget about trying to get any fresh air in the room.  The windows were sealed shut.  You can only assume that  the hotel has been robbed, hotel guests mugged, and TV's taken from the rooms.  
+The hotel claimed to have provided us non-smoking rooms.  But as soon as we entered our rooms, we were hit by the smell of smoke in the two rooms we rented.  I went down to complain and the receptionist did not appear surprised.  She said the only thing she could do was give me a different room.  I went to that new room and again it reeked of smoke.  At this point it was 20 degrees outside, my friends had already gone to sleep in their room, so I was stuck. When I finally put my head on the pillow, it smelled like I was sleeping on a big cheap foam ashtray.  Was up all night. The most ridiculous part of...Just stayed here because it was cheap and convenient to Denver airport. Check in was convenient enough, but done through bullet proof glass since it was after 10pm.  From all the warnings in the hotel room, this appears to be a high crime area.  On the bottom of the TV it says "TV EQUIPPED WITH TRACKING DEVICE. ALL VIOLATORS WILL BE PROSECUTED."  Then on the door to the room is says prominently "FOR YOUR PROTECTION - WHEN IN ROOM ENGAGE DEADBOLT AND SECURITY LATCH."  Forget about trying to get any fresh air in the room.  The windows were sealed shut.  You can only assume that  the hotel has been robbed, hotel guests mugged, and TV's taken from the rooms.  The hotel claimed to have provided us non-smoking rooms.  But as soon as we entered our rooms, we were hit by the smell of smoke in the two rooms we rented.  I went down to complain and the receptionist did not appear surprised.  She said the only thing she could do was give me a different room.  I went to that new room and again it reeked of smoke.  At this point it was 20 degrees outside, my friends had already gone to sleep in their room, so I was stuck. When I finally put my head on the pillow, it smelled like I was sleeping on a big cheap foam ashtray.  Was up all night. The most ridiculous part of the non-smoking room experience is that they provided an ashtray right next to the bed!!!  Of course, to maintain the fiction that it's a "non-smoking room" they put a big no smoking sign on the bottom of the ashtray!  Incredible.  There's also nothing in the room that says that if you smoke you will pay a fee to have the room cleaned.  Clearly, they know that everyone smokes in these rooms, and the "non-smoking" designation is just a cover. On the positive side, the TV is pretty nice.  Probably could sell it for $100 if you could disable the tracking device. . .More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119938-r180079018-Motel_6_Denver_Airport-Denver_Colorado.html</t>
   </si>
   <si>
@@ -1009,6 +1556,45 @@
     <t>This is not an Airport hotel. Certainly the worst M6 motel I stayed in. Especially at the weekends the are "thousands" of Afro-americans listening music, walking around, shouting at each other. You will barely sleep through the night. We arrived at 9 PM, friday and received room card quickly. Unfortunetaly our room was occupied by 4 people. When I entered the room I have woken them up and they were terribly screaming....Room was not clean properly- black hair in bed....Drug dealing activity and terible noise through whole night.In fact this is not an airport hotel, you want sleep at all....If you are looking for a decent airport hotel go for Sleep inn DIA.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119938-r166152981-Motel_6_Denver_Airport-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>166152981</t>
+  </si>
+  <si>
+    <t>07/03/2013</t>
+  </si>
+  <si>
+    <t>Not my idea of value</t>
+  </si>
+  <si>
+    <t>Value is more than a good price. With this, I truly got what I paid for. Wi-fi was an add-on fee. And the price not only attracted me, I was looking for value, it attracted anyone looking for a low price, and with that, came some seedy neighbors. Unfortunately, my neighbors were not considerate, up until all hours sounding like they were jumping around. They talked outside my door at 1am drinking their alcohol. I would not stay here again. I have stayed at other Motel 6s before, and while they are not great, this one was the worst.I tried to rate this motel putting my neighbors aside, the the beds creaked, I wasn't 100% certain the sheets had been changed, the safety lock on the door was broken, the top of the door didn't close all the way, the flooring, which was supposedly just put in had gaps, the TV had permanent marks.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>Value is more than a good price. With this, I truly got what I paid for. Wi-fi was an add-on fee. And the price not only attracted me, I was looking for value, it attracted anyone looking for a low price, and with that, came some seedy neighbors. Unfortunately, my neighbors were not considerate, up until all hours sounding like they were jumping around. They talked outside my door at 1am drinking their alcohol. I would not stay here again. I have stayed at other Motel 6s before, and while they are not great, this one was the worst.I tried to rate this motel putting my neighbors aside, the the beds creaked, I wasn't 100% certain the sheets had been changed, the safety lock on the door was broken, the top of the door didn't close all the way, the flooring, which was supposedly just put in had gaps, the TV had permanent marks.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119938-r163666338-Motel_6_Denver_Airport-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>163666338</t>
+  </si>
+  <si>
+    <t>06/11/2013</t>
+  </si>
+  <si>
+    <t>Drug activity going on in some rooms. Scary experience...</t>
+  </si>
+  <si>
+    <t>Went there the night before taking our plane back to Europe.Barely sleep all night...Few rooms down drugs was being sold, people kept on coming and going.Did not even dare making noise or going out anymore.I would definitely not recommend this hotel under any circumstance</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119938-r157818222-Motel_6_Denver_Airport-Denver_Colorado.html</t>
   </si>
   <si>
@@ -1024,9 +1610,6 @@
     <t>I had an overnight stay here after arriving in Denver. I have stayed at this property in the past so I knew what I was getting, and I was interested as it supposedly had been upgraded to the latest Motel 6 decor.I get there and while the carpeting has been replaced with the faux-hardwood flooring, and the bed now in an IKEA-style platform, it largely looked the same as my previous visit. It still had the old tube-type TV and most of the furniture from before. The bedding with its flat pillows and the thin, scratchy towels were mostly the same; the exception is that this property finally did away with bedspreads (YAY!). However the blanket did have a suspicious stain on it, making me wonder how diligent they were about cleaning them. Otherwise the room appeared to be clean.Being an original-style Motel 6 property with exterior corridors, my room was still quiet even though the motel is near the interstate and in an industrial neighborhood. MoreShow less</t>
   </si>
   <si>
-    <t>April 2013</t>
-  </si>
-  <si>
     <t>I had an overnight stay here after arriving in Denver. I have stayed at this property in the past so I knew what I was getting, and I was interested as it supposedly had been upgraded to the latest Motel 6 decor.I get there and while the carpeting has been replaced with the faux-hardwood flooring, and the bed now in an IKEA-style platform, it largely looked the same as my previous visit. It still had the old tube-type TV and most of the furniture from before. The bedding with its flat pillows and the thin, scratchy towels were mostly the same; the exception is that this property finally did away with bedspreads (YAY!). However the blanket did have a suspicious stain on it, making me wonder how diligent they were about cleaning them. Otherwise the room appeared to be clean.Being an original-style Motel 6 property with exterior corridors, my room was still quiet even though the motel is near the interstate and in an industrial neighborhood. More</t>
   </si>
   <si>
@@ -1066,6 +1649,42 @@
     <t>August 2012</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119938-r137662366-Motel_6_Denver_Airport-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>137662366</t>
+  </si>
+  <si>
+    <t>08/19/2012</t>
+  </si>
+  <si>
+    <t>cheap and clise by denver airport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Just ok for a one night sleep before or after a flight, but nothing more than this. The area is quite nastyAc very noisy and not working properly: the room was incredibly hot even if the temperature outside was pleasant.The remodeled room looks old even if it's not and the sheet could have been cleaner. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119938-r136744570-Motel_6_Denver_Airport-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>136744570</t>
+  </si>
+  <si>
+    <t>08/09/2012</t>
+  </si>
+  <si>
+    <t>Inexpensive Way to Travel with a Pet</t>
+  </si>
+  <si>
+    <t>Good price. The rooms were very small but adequate. No tub--only a shower. The laminate flooring is nice; you can easily tell whether it's been cleaned or not; and the floors we saw had been. Even without carpet to trap it, the rooms still smelled very strongly of cigarette smoke. If you are sensitive to that particular oder; don't pay for your room before checking it, or you might end up paying for a killer headache and a very sore throat. We weren't charged a pet deposit for our little dog, which was really nice. Very sketchy part of town; we were awakened by sirens multiple times in the night. It's just off the interstate, so it's convenient for a quick stop when traveling through, but I would never stay for an extended visit!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>Good price. The rooms were very small but adequate. No tub--only a shower. The laminate flooring is nice; you can easily tell whether it's been cleaned or not; and the floors we saw had been. Even without carpet to trap it, the rooms still smelled very strongly of cigarette smoke. If you are sensitive to that particular oder; don't pay for your room before checking it, or you might end up paying for a killer headache and a very sore throat. We weren't charged a pet deposit for our little dog, which was really nice. Very sketchy part of town; we were awakened by sirens multiple times in the night. It's just off the interstate, so it's convenient for a quick stop when traveling through, but I would never stay for an extended visit!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119938-r136103564-Motel_6_Denver_Airport-Denver_Colorado.html</t>
   </si>
   <si>
@@ -1081,9 +1700,6 @@
     <t>If you're looking for a place to sleep and that's it, this place will do just fine. We just needed a cheap place to stay with our dog while resting from driving all day and start getting acclimated to higher altitudes before traveling into the mounains. It did the trick, but nothing else. We did have to ask for enough towels to accomadate 2 people. The floors are a cool idea, but I could not walk barefoot without my feet turning blackbottom within minutes (ew!). I have to say that we were excited about actually being able to have a smoking room...a rarity in these days of political correctness. We didn't have to pay extra for our pooch. The front desk staff was very friendly and quick to help with any request.MoreShow less</t>
   </si>
   <si>
-    <t>July 2012</t>
-  </si>
-  <si>
     <t>If you're looking for a place to sleep and that's it, this place will do just fine. We just needed a cheap place to stay with our dog while resting from driving all day and start getting acclimated to higher altitudes before traveling into the mounains. It did the trick, but nothing else. We did have to ask for enough towels to accomadate 2 people. The floors are a cool idea, but I could not walk barefoot without my feet turning blackbottom within minutes (ew!). I have to say that we were excited about actually being able to have a smoking room...a rarity in these days of political correctness. We didn't have to pay extra for our pooch. The front desk staff was very friendly and quick to help with any request.More</t>
   </si>
   <si>
@@ -1120,6 +1736,45 @@
     <t>November 2011</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119938-r120280680-Motel_6_Denver_Airport-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>120280680</t>
+  </si>
+  <si>
+    <t>11/07/2011</t>
+  </si>
+  <si>
+    <t>Excellent value for money but not the Ritz.</t>
+  </si>
+  <si>
+    <t>For $44.95 this motel is very good value. The rooms have been modernised and mine was very clean. Check in was easy and friendly. There are plenty of cheap restaurants close by. It's not the Ritz but it is probably better value as all I wanted was a good night's sleep and I got it. I wouldn't hesitate to stay again.</t>
+  </si>
+  <si>
+    <t>October 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119938-r118584853-Motel_6_Denver_Airport-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>118584853</t>
+  </si>
+  <si>
+    <t>09/25/2011</t>
+  </si>
+  <si>
+    <t>Average Motel 6 in industrial neighborhood</t>
+  </si>
+  <si>
+    <t>Checkin was very slow, but the lady was nice and apologized, even made sure I liked the room.  She placed me in Room 148 in the back since I asked for a quiet room, and it was definitely quieter.  It is an older Motel 6 with remodeled rooms that have laminate floors and a new bathroom.  The shower current smelled of mold and the AC was off, so the room was hot, but cooled down after an hour or so.  TV was small with about 36 channels, but clear picture.  Neighborhood is not the best (I was asked for money at the nearby gas station), but there is a Wendy’s next door, and a Denny’s within walking distance and easy access to interstate 70.  I was there on a holiday weekend and it was very quiet, but when I left on a workday, it was noisy like many other reviewers have commented, from trucks at the large warehouse complex next door.  My room varied from $40-$46 with an outrageous 14.85% tax.  But it was the best deal in Denver for a holiday weekend.  I would probably stay here again, but I wouldn’t bring a family.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2011</t>
+  </si>
+  <si>
+    <t>Checkin was very slow, but the lady was nice and apologized, even made sure I liked the room.  She placed me in Room 148 in the back since I asked for a quiet room, and it was definitely quieter.  It is an older Motel 6 with remodeled rooms that have laminate floors and a new bathroom.  The shower current smelled of mold and the AC was off, so the room was hot, but cooled down after an hour or so.  TV was small with about 36 channels, but clear picture.  Neighborhood is not the best (I was asked for money at the nearby gas station), but there is a Wendy’s next door, and a Denny’s within walking distance and easy access to interstate 70.  I was there on a holiday weekend and it was very quiet, but when I left on a workday, it was noisy like many other reviewers have commented, from trucks at the large warehouse complex next door.  My room varied from $40-$46 with an outrageous 14.85% tax.  But it was the best deal in Denver for a holiday weekend.  I would probably stay here again, but I wouldn’t bring a family.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119938-r114724819-Motel_6_Denver_Airport-Denver_Colorado.html</t>
   </si>
   <si>
@@ -1177,6 +1832,39 @@
     <t>April 2010</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119938-r81358837-Motel_6_Denver_Airport-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>81358837</t>
+  </si>
+  <si>
+    <t>09/28/2010</t>
+  </si>
+  <si>
+    <t>Motel 6 was very scary</t>
+  </si>
+  <si>
+    <t>Saw 2 drug deals go down, people walking their pit bull dogs , lots of dog poop everywhere.  No AC, room says NO Smoking, but has ash trays, and burns on dirty carpet &amp; bed spreads,  blankets dirty.  Fight  &amp; woman screaming in next room.  Concrete stairs broken &amp; walkways dirty and stained. Its one thing to be an old Motel but this was just plain nasty an unsafe.  Would not use pool, as several greasy people had taken it over. Walked to a near by restaurant &amp;  carried our guns with us.</t>
+  </si>
+  <si>
+    <t>September 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119938-r81323706-Motel_6_Denver_Airport-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>81323706</t>
+  </si>
+  <si>
+    <t>typical motel 6</t>
+  </si>
+  <si>
+    <t>most things about this motel 6 are the same as any other motel 6- basically clean secure room. it was convenient to the airport to return a rental car and convenient to I-70. there were restaurants and gas stations nearby, but also a few dumpy motels that looked like they catered to prostitutes.there was no heat in my room and the cable tv didn't work in the morning when i got up. also somepeople hung out on the balconies all night long and their talking was a nuisance. the balconies needed to be washed- they were full of stains from dropped liquids.overall the cheap price, location and clean room made it an ok place to stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>most things about this motel 6 are the same as any other motel 6- basically clean secure room. it was convenient to the airport to return a rental car and convenient to I-70. there were restaurants and gas stations nearby, but also a few dumpy motels that looked like they catered to prostitutes.there was no heat in my room and the cable tv didn't work in the morning when i got up. also somepeople hung out on the balconies all night long and their talking was a nuisance. the balconies needed to be washed- they were full of stains from dropped liquids.overall the cheap price, location and clean room made it an ok place to stay.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119938-r80283080-Motel_6_Denver_Airport-Denver_Colorado.html</t>
   </si>
   <si>
@@ -1232,6 +1920,42 @@
   </si>
   <si>
     <t>We were, of course, there because of good price and the fact it is in Motel 6 chain. Room was clean, but I have some complaints. First of all, I am pretty sure they are allowing 'free internet' to be one draw in internet description. However, when we checked in and tried to get online, could not, so went to office to get password, and they said they would let us have a card for $2.99 plus tax. I told them that it's advertised as free, but she gave me some 'song and dance' answer, and I told them to remove that lie from the internet. Doubt they will. They charge extra for small kitchen appliance, and they have no SHAMPOO, no radio, will give hair dryer from office upon request. But no shampoo? Also, window was sealed shut, and we sleep better with some outside air, but couldn't have that, either.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119938-r29593797-Motel_6_Denver_Airport-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>29593797</t>
+  </si>
+  <si>
+    <t>05/08/2009</t>
+  </si>
+  <si>
+    <t>OK Economy Motel</t>
+  </si>
+  <si>
+    <t>Nothing fancy. Was near a stairwell and heard every step. For the price I would put up with it and it is close to the airport.</t>
+  </si>
+  <si>
+    <t>February 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119938-r17846338-Motel_6_Denver_Airport-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>17846338</t>
+  </si>
+  <si>
+    <t>07/13/2008</t>
+  </si>
+  <si>
+    <t>DUH!!!</t>
+  </si>
+  <si>
+    <t>Front desk was not with it. Did not have room ready  so they sent us to spend some time at a local park. We came back three hours later our room still wasn't clean then they spent another 30 min. trying to find us ajoining rooms.</t>
+  </si>
+  <si>
+    <t>July 2008</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119938-r7796606-Motel_6_Denver_Airport-Denver_Colorado.html</t>
@@ -1784,7 +2508,7 @@
         <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N2" t="s">
         <v>52</v>
@@ -1793,28 +2517,18 @@
         <v>53</v>
       </c>
       <c r="P2" t="s"/>
-      <c r="Q2" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
-      <c r="S2" t="n">
-        <v>3</v>
-      </c>
+      <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="n">
-        <v>4</v>
-      </c>
+      <c r="U2" t="s"/>
       <c r="V2" t="n">
         <v>0</v>
       </c>
-      <c r="W2" t="s">
-        <v>54</v>
-      </c>
-      <c r="X2" t="s">
-        <v>55</v>
-      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
@@ -1830,50 +2544,56 @@
         <v>44</v>
       </c>
       <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
         <v>57</v>
       </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="L3" t="s">
         <v>58</v>
       </c>
-      <c r="J3" t="s">
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
         <v>59</v>
       </c>
-      <c r="K3" t="s">
+      <c r="O3" t="s">
         <v>60</v>
       </c>
-      <c r="L3" t="s">
-        <v>61</v>
-      </c>
-      <c r="M3" t="n">
-        <v>3</v>
-      </c>
-      <c r="N3" t="s">
-        <v>62</v>
-      </c>
-      <c r="O3" t="s">
-        <v>53</v>
-      </c>
-      <c r="P3" t="n">
+      <c r="P3" t="s"/>
+      <c r="Q3" t="n">
+        <v>3</v>
+      </c>
+      <c r="R3" t="n">
         <v>4</v>
       </c>
-      <c r="Q3" t="s"/>
-      <c r="R3" t="s"/>
       <c r="S3" t="s"/>
       <c r="T3" t="s"/>
       <c r="U3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
-      <c r="W3" t="s"/>
-      <c r="X3" t="s"/>
+      <c r="W3" t="s">
+        <v>61</v>
+      </c>
+      <c r="X3" t="s">
+        <v>62</v>
+      </c>
       <c r="Y3" t="s">
         <v>63</v>
       </c>
@@ -1912,27 +2632,37 @@
         <v>68</v>
       </c>
       <c r="M4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N4" t="s">
+        <v>59</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="n">
+        <v>3</v>
+      </c>
+      <c r="R4" t="s"/>
+      <c r="S4" t="n">
+        <v>3</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>4</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
         <v>69</v>
       </c>
-      <c r="O4" t="s">
+      <c r="X4" t="s">
         <v>70</v>
       </c>
-      <c r="P4" t="s"/>
-      <c r="Q4" t="s"/>
-      <c r="R4" t="s"/>
-      <c r="S4" t="s"/>
-      <c r="T4" t="s"/>
-      <c r="U4" t="s"/>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="s"/>
-      <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5">
@@ -1948,7 +2678,7 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G5" t="s">
         <v>46</v>
@@ -1957,43 +2687,43 @@
         <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O5" t="s">
-        <v>70</v>
-      </c>
-      <c r="P5" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P5" t="n">
+        <v>4</v>
+      </c>
       <c r="Q5" t="s"/>
       <c r="R5" t="s"/>
       <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="s"/>
+      <c r="U5" t="n">
+        <v>4</v>
+      </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
-      <c r="W5" t="s">
-        <v>77</v>
-      </c>
-      <c r="X5" t="s">
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
         <v>78</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="6">
@@ -2009,56 +2739,48 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
         <v>80</v>
       </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>81</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>82</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>83</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
         <v>84</v>
       </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>85</v>
-      </c>
-      <c r="O6" t="s">
-        <v>53</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
-      <c r="R6" t="n">
-        <v>1</v>
-      </c>
+      <c r="R6" t="s"/>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="n">
-        <v>1</v>
-      </c>
+      <c r="U6" t="s"/>
       <c r="V6" t="n">
         <v>0</v>
       </c>
-      <c r="W6" t="s">
-        <v>77</v>
-      </c>
-      <c r="X6" t="s">
-        <v>78</v>
-      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7">
@@ -2074,34 +2796,34 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
         <v>87</v>
       </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>88</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>89</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>90</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
         <v>91</v>
       </c>
-      <c r="M7" t="n">
-        <v>2</v>
-      </c>
-      <c r="N7" t="s">
-        <v>85</v>
-      </c>
       <c r="O7" t="s">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -2112,14 +2834,10 @@
       <c r="V7" t="n">
         <v>0</v>
       </c>
-      <c r="W7" t="s">
-        <v>77</v>
-      </c>
-      <c r="X7" t="s">
-        <v>78</v>
-      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8">
@@ -2135,28 +2853,28 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
+        <v>92</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>93</v>
+      </c>
+      <c r="J8" t="s">
         <v>94</v>
       </c>
-      <c r="G8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="K8" t="s">
         <v>95</v>
       </c>
-      <c r="J8" t="s">
+      <c r="L8" t="s">
         <v>96</v>
       </c>
-      <c r="K8" t="s">
-        <v>97</v>
-      </c>
-      <c r="L8" t="s">
-        <v>98</v>
-      </c>
       <c r="M8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N8" t="s"/>
       <c r="O8" t="s"/>
@@ -2172,7 +2890,7 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9">
@@ -2188,34 +2906,34 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
+        <v>97</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>98</v>
+      </c>
+      <c r="J9" t="s">
         <v>99</v>
       </c>
-      <c r="G9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="K9" t="s">
         <v>100</v>
       </c>
-      <c r="J9" t="s">
+      <c r="L9" t="s">
         <v>101</v>
       </c>
-      <c r="K9" t="s">
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
         <v>102</v>
       </c>
-      <c r="L9" t="s">
-        <v>103</v>
-      </c>
-      <c r="M9" t="n">
-        <v>3</v>
-      </c>
-      <c r="N9" t="s">
-        <v>104</v>
-      </c>
       <c r="O9" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -2226,10 +2944,14 @@
       <c r="V9" t="n">
         <v>0</v>
       </c>
-      <c r="W9" t="s"/>
-      <c r="X9" t="s"/>
+      <c r="W9" t="s">
+        <v>103</v>
+      </c>
+      <c r="X9" t="s">
+        <v>104</v>
+      </c>
       <c r="Y9" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10">
@@ -2245,7 +2967,7 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G10" t="s">
         <v>46</v>
@@ -2254,34 +2976,32 @@
         <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="J10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O10" t="s">
-        <v>111</v>
+        <v>53</v>
       </c>
       <c r="P10" t="s"/>
-      <c r="Q10" t="n">
-        <v>1</v>
-      </c>
-      <c r="R10" t="s"/>
-      <c r="S10" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="n">
+        <v>1</v>
+      </c>
+      <c r="S10" t="s"/>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
         <v>1</v>
@@ -2289,10 +3009,14 @@
       <c r="V10" t="n">
         <v>0</v>
       </c>
-      <c r="W10" t="s"/>
-      <c r="X10" t="s"/>
+      <c r="W10" t="s">
+        <v>103</v>
+      </c>
+      <c r="X10" t="s">
+        <v>104</v>
+      </c>
       <c r="Y10" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11">
@@ -2308,7 +3032,7 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G11" t="s">
         <v>46</v>
@@ -2317,25 +3041,25 @@
         <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K11" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L11" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N11" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="O11" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -2346,10 +3070,14 @@
       <c r="V11" t="n">
         <v>0</v>
       </c>
-      <c r="W11" t="s"/>
-      <c r="X11" t="s"/>
+      <c r="W11" t="s">
+        <v>103</v>
+      </c>
+      <c r="X11" t="s">
+        <v>104</v>
+      </c>
       <c r="Y11" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12">
@@ -2365,7 +3093,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G12" t="s">
         <v>46</v>
@@ -2374,43 +3102,43 @@
         <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J12" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K12" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L12" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O12" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="P12" t="s"/>
-      <c r="Q12" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q12" t="s"/>
       <c r="R12" t="s"/>
       <c r="S12" t="s"/>
       <c r="T12" t="s"/>
-      <c r="U12" t="n">
-        <v>1</v>
-      </c>
+      <c r="U12" t="s"/>
       <c r="V12" t="n">
         <v>0</v>
       </c>
-      <c r="W12" t="s"/>
-      <c r="X12" t="s"/>
+      <c r="W12" t="s">
+        <v>125</v>
+      </c>
+      <c r="X12" t="s">
+        <v>126</v>
+      </c>
       <c r="Y12" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13">
@@ -2426,7 +3154,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -2435,37 +3163,37 @@
         <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="J13" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="K13" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="L13" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N13" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="O13" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="P13" t="s"/>
-      <c r="Q13" t="s"/>
-      <c r="R13" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q13" t="n">
+        <v>3</v>
+      </c>
+      <c r="R13" t="s"/>
       <c r="S13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -2473,7 +3201,7 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14">
@@ -2489,7 +3217,7 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="G14" t="s">
         <v>46</v>
@@ -2498,26 +3226,22 @@
         <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="J14" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="K14" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="L14" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
-      <c r="N14" t="s">
-        <v>134</v>
-      </c>
-      <c r="O14" t="s">
-        <v>92</v>
-      </c>
+      <c r="N14" t="s"/>
+      <c r="O14" t="s"/>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
       <c r="R14" t="s"/>
@@ -2530,7 +3254,7 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15">
@@ -2546,7 +3270,7 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="G15" t="s">
         <v>46</v>
@@ -2555,43 +3279,39 @@
         <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="J15" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="K15" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="L15" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="M15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N15" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="O15" t="s">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="P15" t="s"/>
-      <c r="Q15" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q15" t="s"/>
       <c r="R15" t="s"/>
       <c r="S15" t="s"/>
       <c r="T15" t="s"/>
-      <c r="U15" t="n">
-        <v>3</v>
-      </c>
+      <c r="U15" t="s"/>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="16">
@@ -2607,7 +3327,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
@@ -2616,39 +3336,45 @@
         <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="J16" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K16" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L16" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="O16" t="s">
-        <v>70</v>
+        <v>151</v>
       </c>
       <c r="P16" t="s"/>
-      <c r="Q16" t="s"/>
+      <c r="Q16" t="n">
+        <v>1</v>
+      </c>
       <c r="R16" t="s"/>
-      <c r="S16" t="s"/>
+      <c r="S16" t="n">
+        <v>1</v>
+      </c>
       <c r="T16" t="s"/>
-      <c r="U16" t="s"/>
+      <c r="U16" t="n">
+        <v>1</v>
+      </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17">
@@ -2664,7 +3390,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
@@ -2673,39 +3399,49 @@
         <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="J17" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="K17" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="L17" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="M17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="O17" t="s">
-        <v>92</v>
-      </c>
-      <c r="P17" t="s"/>
-      <c r="Q17" t="s"/>
+        <v>85</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1</v>
+      </c>
       <c r="R17" t="s"/>
       <c r="S17" t="s"/>
       <c r="T17" t="s"/>
-      <c r="U17" t="s"/>
+      <c r="U17" t="n">
+        <v>2</v>
+      </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
-      <c r="W17" t="s"/>
-      <c r="X17" t="s"/>
+      <c r="W17" t="s">
+        <v>157</v>
+      </c>
+      <c r="X17" t="s">
+        <v>158</v>
+      </c>
       <c r="Y17" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18">
@@ -2721,7 +3457,7 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="G18" t="s">
         <v>46</v>
@@ -2730,39 +3466,43 @@
         <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="J18" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="K18" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="L18" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="M18" t="n">
         <v>3</v>
       </c>
       <c r="N18" t="s">
-        <v>110</v>
+        <v>165</v>
       </c>
       <c r="O18" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
-      <c r="R18" t="s"/>
+      <c r="R18" t="n">
+        <v>2</v>
+      </c>
       <c r="S18" t="s"/>
       <c r="T18" t="s"/>
-      <c r="U18" t="s"/>
+      <c r="U18" t="n">
+        <v>4</v>
+      </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19">
@@ -2778,7 +3518,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="G19" t="s">
         <v>46</v>
@@ -2787,19 +3527,19 @@
         <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="J19" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="K19" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="L19" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="M19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N19" t="s">
         <v>165</v>
@@ -2819,7 +3559,7 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
     </row>
     <row r="20">
@@ -2835,7 +3575,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="G20" t="s">
         <v>46</v>
@@ -2844,43 +3584,43 @@
         <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="J20" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="K20" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="L20" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="M20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="O20" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="P20" t="s"/>
-      <c r="Q20" t="s"/>
+      <c r="Q20" t="n">
+        <v>1</v>
+      </c>
       <c r="R20" t="s"/>
       <c r="S20" t="s"/>
       <c r="T20" t="s"/>
-      <c r="U20" t="s"/>
+      <c r="U20" t="n">
+        <v>1</v>
+      </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
-      <c r="W20" t="s">
-        <v>172</v>
-      </c>
-      <c r="X20" t="s">
-        <v>173</v>
-      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="21">
@@ -2896,7 +3636,7 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G21" t="s">
         <v>46</v>
@@ -2905,43 +3645,45 @@
         <v>47</v>
       </c>
       <c r="I21" t="s">
+        <v>178</v>
+      </c>
+      <c r="J21" t="s">
+        <v>179</v>
+      </c>
+      <c r="K21" t="s">
+        <v>180</v>
+      </c>
+      <c r="L21" t="s">
+        <v>181</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
         <v>176</v>
       </c>
-      <c r="J21" t="s">
-        <v>177</v>
-      </c>
-      <c r="K21" t="s">
-        <v>178</v>
-      </c>
-      <c r="L21" t="s">
-        <v>179</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="s">
-        <v>171</v>
-      </c>
       <c r="O21" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
-      <c r="R21" t="s"/>
-      <c r="S21" t="s"/>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
       <c r="T21" t="s"/>
-      <c r="U21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
-      <c r="W21" t="s">
-        <v>180</v>
-      </c>
-      <c r="X21" t="s">
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
         <v>181</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="22">
@@ -2957,44 +3699,46 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
+        <v>182</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
         <v>183</v>
       </c>
-      <c r="G22" t="s">
-        <v>46</v>
-      </c>
-      <c r="H22" t="s">
-        <v>47</v>
-      </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>184</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>185</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
         <v>186</v>
-      </c>
-      <c r="L22" t="s">
-        <v>187</v>
       </c>
       <c r="M22" t="n">
         <v>2</v>
       </c>
       <c r="N22" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="O22" t="s">
-        <v>111</v>
-      </c>
-      <c r="P22" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q22" t="s"/>
+        <v>151</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="n">
+        <v>1</v>
+      </c>
       <c r="R22" t="s"/>
-      <c r="S22" t="s"/>
+      <c r="S22" t="n">
+        <v>1</v>
+      </c>
       <c r="T22" t="s"/>
       <c r="U22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -3018,54 +3762,48 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
+        <v>188</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
         <v>189</v>
       </c>
-      <c r="G23" t="s">
-        <v>46</v>
-      </c>
-      <c r="H23" t="s">
-        <v>47</v>
-      </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>190</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>191</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L23" t="s">
         <v>192</v>
       </c>
-      <c r="L23" t="s">
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" t="s">
         <v>193</v>
       </c>
-      <c r="M23" t="n">
-        <v>4</v>
-      </c>
-      <c r="N23" t="s">
-        <v>194</v>
-      </c>
       <c r="O23" t="s">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
-      <c r="R23" t="n">
-        <v>3</v>
-      </c>
-      <c r="S23" t="n">
-        <v>3</v>
-      </c>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
       <c r="T23" t="s"/>
-      <c r="U23" t="n">
-        <v>3</v>
-      </c>
+      <c r="U23" t="s"/>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="24">
@@ -3081,56 +3819,48 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
+        <v>194</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
         <v>195</v>
       </c>
-      <c r="G24" t="s">
-        <v>46</v>
-      </c>
-      <c r="H24" t="s">
-        <v>47</v>
-      </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>196</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>197</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24" t="s">
         <v>198</v>
       </c>
-      <c r="L24" t="s">
+      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" t="s">
         <v>199</v>
       </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="s">
-        <v>194</v>
-      </c>
       <c r="O24" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="P24" t="s"/>
-      <c r="Q24" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q24" t="s"/>
       <c r="R24" t="s"/>
       <c r="S24" t="s"/>
       <c r="T24" t="s"/>
-      <c r="U24" t="n">
-        <v>1</v>
-      </c>
+      <c r="U24" t="s"/>
       <c r="V24" t="n">
         <v>0</v>
       </c>
-      <c r="W24" t="s">
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
         <v>200</v>
-      </c>
-      <c r="X24" t="s">
-        <v>201</v>
-      </c>
-      <c r="Y24" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="25">
@@ -3146,41 +3876,45 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
+        <v>201</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>202</v>
+      </c>
+      <c r="J25" t="s">
         <v>203</v>
       </c>
-      <c r="G25" t="s">
-        <v>46</v>
-      </c>
-      <c r="H25" t="s">
-        <v>47</v>
-      </c>
-      <c r="I25" t="s">
+      <c r="K25" t="s">
         <v>204</v>
       </c>
-      <c r="J25" t="s">
+      <c r="L25" t="s">
         <v>205</v>
       </c>
-      <c r="K25" t="s">
+      <c r="M25" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" t="s">
         <v>206</v>
       </c>
-      <c r="L25" t="s">
-        <v>207</v>
-      </c>
-      <c r="M25" t="n">
-        <v>5</v>
-      </c>
-      <c r="N25" t="s">
-        <v>208</v>
-      </c>
       <c r="O25" t="s">
-        <v>209</v>
+        <v>60</v>
       </c>
       <c r="P25" t="s"/>
-      <c r="Q25" t="s"/>
+      <c r="Q25" t="n">
+        <v>1</v>
+      </c>
       <c r="R25" t="s"/>
       <c r="S25" t="s"/>
       <c r="T25" t="s"/>
-      <c r="U25" t="s"/>
+      <c r="U25" t="n">
+        <v>3</v>
+      </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
@@ -3203,58 +3937,48 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
+        <v>208</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>209</v>
+      </c>
+      <c r="J26" t="s">
         <v>210</v>
       </c>
-      <c r="G26" t="s">
-        <v>46</v>
-      </c>
-      <c r="H26" t="s">
-        <v>47</v>
-      </c>
-      <c r="I26" t="s">
+      <c r="K26" t="s">
         <v>211</v>
       </c>
-      <c r="J26" t="s">
+      <c r="L26" t="s">
         <v>212</v>
       </c>
-      <c r="K26" t="s">
-        <v>213</v>
-      </c>
-      <c r="L26" t="s">
-        <v>214</v>
-      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
       <c r="N26" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="O26" t="s">
-        <v>70</v>
-      </c>
-      <c r="P26" t="n">
-        <v>1</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
       <c r="R26" t="s"/>
-      <c r="S26" t="n">
-        <v>2</v>
-      </c>
+      <c r="S26" t="s"/>
       <c r="T26" t="s"/>
-      <c r="U26" t="n">
-        <v>3</v>
-      </c>
+      <c r="U26" t="s"/>
       <c r="V26" t="n">
         <v>0</v>
       </c>
-      <c r="W26" t="s">
-        <v>216</v>
-      </c>
-      <c r="X26" t="s">
-        <v>217</v>
-      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="27">
@@ -3270,7 +3994,7 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="G27" t="s">
         <v>46</v>
@@ -3279,35 +4003,37 @@
         <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="J27" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="K27" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="L27" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="M27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N27" t="s">
-        <v>224</v>
+        <v>150</v>
       </c>
       <c r="O27" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
-      <c r="R27" t="s"/>
+      <c r="R27" t="n">
+        <v>1</v>
+      </c>
       <c r="S27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T27" t="s"/>
       <c r="U27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -3315,7 +4041,7 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="28">
@@ -3331,7 +4057,7 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="G28" t="s">
         <v>46</v>
@@ -3340,43 +4066,45 @@
         <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="J28" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="K28" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="L28" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
       <c r="N28" t="s">
-        <v>215</v>
+        <v>150</v>
       </c>
       <c r="O28" t="s">
-        <v>209</v>
+        <v>60</v>
       </c>
       <c r="P28" t="s"/>
-      <c r="Q28" t="s"/>
+      <c r="Q28" t="n">
+        <v>1</v>
+      </c>
       <c r="R28" t="s"/>
-      <c r="S28" t="s"/>
+      <c r="S28" t="n">
+        <v>1</v>
+      </c>
       <c r="T28" t="s"/>
-      <c r="U28" t="s"/>
+      <c r="U28" t="n">
+        <v>1</v>
+      </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
-      <c r="W28" t="s">
-        <v>230</v>
-      </c>
-      <c r="X28" t="s">
-        <v>231</v>
-      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
     </row>
     <row r="29">
@@ -3392,7 +4120,7 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="G29" t="s">
         <v>46</v>
@@ -3401,43 +4129,39 @@
         <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="J29" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="K29" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="L29" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="M29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N29" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="O29" t="s">
-        <v>92</v>
-      </c>
-      <c r="P29" t="n">
-        <v>4</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
       <c r="R29" t="s"/>
       <c r="S29" t="s"/>
       <c r="T29" t="s"/>
-      <c r="U29" t="n">
-        <v>3</v>
-      </c>
+      <c r="U29" t="s"/>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
     </row>
     <row r="30">
@@ -3453,7 +4177,7 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="G30" t="s">
         <v>46</v>
@@ -3462,45 +4186,39 @@
         <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="J30" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="K30" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="L30" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="M30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N30" t="s">
-        <v>238</v>
+        <v>150</v>
       </c>
       <c r="O30" t="s">
-        <v>209</v>
-      </c>
-      <c r="P30" t="n">
-        <v>5</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
       <c r="R30" t="s"/>
-      <c r="S30" t="n">
-        <v>5</v>
-      </c>
+      <c r="S30" t="s"/>
       <c r="T30" t="s"/>
-      <c r="U30" t="n">
-        <v>5</v>
-      </c>
+      <c r="U30" t="s"/>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
     </row>
     <row r="31">
@@ -3516,7 +4234,7 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="G31" t="s">
         <v>46</v>
@@ -3525,25 +4243,25 @@
         <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="J31" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="K31" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="L31" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="M31" t="n">
         <v>2</v>
       </c>
       <c r="N31" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="O31" t="s">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -3554,14 +4272,10 @@
       <c r="V31" t="n">
         <v>0</v>
       </c>
-      <c r="W31" t="s">
-        <v>250</v>
-      </c>
-      <c r="X31" t="s">
-        <v>251</v>
-      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
     </row>
     <row r="32">
@@ -3577,7 +4291,7 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="G32" t="s">
         <v>46</v>
@@ -3586,45 +4300,39 @@
         <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="J32" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="K32" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="L32" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="M32" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N32" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="O32" t="s">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="P32" t="s"/>
-      <c r="Q32" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q32" t="s"/>
       <c r="R32" t="s"/>
-      <c r="S32" t="n">
-        <v>4</v>
-      </c>
+      <c r="S32" t="s"/>
       <c r="T32" t="s"/>
-      <c r="U32" t="n">
-        <v>4</v>
-      </c>
+      <c r="U32" t="s"/>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
     </row>
     <row r="33">
@@ -3640,7 +4348,7 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="G33" t="s">
         <v>46</v>
@@ -3649,43 +4357,43 @@
         <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="J33" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="K33" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="L33" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
       <c r="N33" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="O33" t="s">
-        <v>209</v>
+        <v>85</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
       <c r="R33" t="s"/>
-      <c r="S33" t="s"/>
+      <c r="S33" t="n">
+        <v>1</v>
+      </c>
       <c r="T33" t="s"/>
-      <c r="U33" t="s"/>
+      <c r="U33" t="n">
+        <v>1</v>
+      </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
-      <c r="W33" t="s">
-        <v>264</v>
-      </c>
-      <c r="X33" t="s">
-        <v>265</v>
-      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
     </row>
     <row r="34">
@@ -3701,7 +4409,7 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="G34" t="s">
         <v>46</v>
@@ -3710,45 +4418,43 @@
         <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="J34" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="K34" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="L34" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="M34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N34" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="O34" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="P34" t="s"/>
-      <c r="Q34" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q34" t="s"/>
       <c r="R34" t="s"/>
-      <c r="S34" t="n">
-        <v>4</v>
-      </c>
+      <c r="S34" t="s"/>
       <c r="T34" t="s"/>
-      <c r="U34" t="n">
-        <v>4</v>
-      </c>
+      <c r="U34" t="s"/>
       <c r="V34" t="n">
         <v>0</v>
       </c>
-      <c r="W34" t="s"/>
-      <c r="X34" t="s"/>
+      <c r="W34" t="s">
+        <v>261</v>
+      </c>
+      <c r="X34" t="s">
+        <v>262</v>
+      </c>
       <c r="Y34" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
     </row>
     <row r="35">
@@ -3764,7 +4470,7 @@
         <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="G35" t="s">
         <v>46</v>
@@ -3773,47 +4479,43 @@
         <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="J35" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="K35" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="L35" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="M35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N35" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="O35" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="P35" t="s"/>
-      <c r="Q35" t="n">
-        <v>2</v>
-      </c>
+      <c r="Q35" t="s"/>
       <c r="R35" t="s"/>
       <c r="S35" t="s"/>
       <c r="T35" t="s"/>
-      <c r="U35" t="n">
-        <v>4</v>
-      </c>
+      <c r="U35" t="s"/>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="X35" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="Y35" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
     </row>
     <row r="36">
@@ -3829,7 +4531,7 @@
         <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="G36" t="s">
         <v>46</v>
@@ -3838,37 +4540,35 @@
         <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="J36" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="K36" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="L36" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="M36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N36" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="O36" t="s">
-        <v>70</v>
+        <v>151</v>
       </c>
       <c r="P36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q36" t="s"/>
-      <c r="R36" t="n">
-        <v>1</v>
-      </c>
+      <c r="R36" t="s"/>
       <c r="S36" t="s"/>
       <c r="T36" t="s"/>
       <c r="U36" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -3876,7 +4576,7 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
     </row>
     <row r="37">
@@ -3892,7 +4592,7 @@
         <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="G37" t="s">
         <v>46</v>
@@ -3901,37 +4601,37 @@
         <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="J37" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="K37" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="L37" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="M37" t="n">
         <v>3</v>
       </c>
       <c r="N37" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="O37" t="s">
-        <v>70</v>
-      </c>
-      <c r="P37" t="n">
-        <v>3</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="P37" t="s"/>
       <c r="Q37" t="n">
         <v>2</v>
       </c>
-      <c r="R37" t="s"/>
+      <c r="R37" t="n">
+        <v>3</v>
+      </c>
       <c r="S37" t="s"/>
       <c r="T37" t="s"/>
       <c r="U37" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3939,7 +4639,7 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
     </row>
     <row r="38">
@@ -3955,7 +4655,7 @@
         <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="G38" t="s">
         <v>46</v>
@@ -3964,49 +4664,49 @@
         <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="J38" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="K38" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="L38" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="M38" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N38" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="O38" t="s">
-        <v>53</v>
-      </c>
-      <c r="P38" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>5</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
       <c r="R38" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S38" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T38" t="s"/>
       <c r="U38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
-      <c r="W38" t="s"/>
-      <c r="X38" t="s"/>
+      <c r="W38" t="s">
+        <v>290</v>
+      </c>
+      <c r="X38" t="s">
+        <v>291</v>
+      </c>
       <c r="Y38" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="39">
@@ -4022,7 +4722,7 @@
         <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="G39" t="s">
         <v>46</v>
@@ -4031,41 +4731,37 @@
         <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="J39" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="K39" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="L39" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="M39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="O39" t="s">
-        <v>70</v>
-      </c>
-      <c r="P39" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>1</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
       <c r="R39" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T39" t="s"/>
       <c r="U39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -4073,7 +4769,7 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
     </row>
     <row r="40">
@@ -4089,7 +4785,7 @@
         <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="G40" t="s">
         <v>46</v>
@@ -4098,45 +4794,47 @@
         <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="J40" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="K40" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="L40" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="M40" t="n">
-        <v>4</v>
-      </c>
-      <c r="N40" t="s"/>
-      <c r="O40" t="s"/>
-      <c r="P40" t="n">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N40" t="s">
+        <v>298</v>
+      </c>
+      <c r="O40" t="s">
+        <v>85</v>
+      </c>
+      <c r="P40" t="s"/>
       <c r="Q40" t="n">
-        <v>4</v>
-      </c>
-      <c r="R40" t="n">
-        <v>4</v>
-      </c>
-      <c r="S40" t="n">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
       <c r="T40" t="s"/>
       <c r="U40" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
-      <c r="W40" t="s"/>
-      <c r="X40" t="s"/>
+      <c r="W40" t="s">
+        <v>304</v>
+      </c>
+      <c r="X40" t="s">
+        <v>305</v>
+      </c>
       <c r="Y40" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="41">
@@ -4152,58 +4850,48 @@
         <v>44</v>
       </c>
       <c r="F41" t="s">
+        <v>307</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>308</v>
+      </c>
+      <c r="J41" t="s">
+        <v>309</v>
+      </c>
+      <c r="K41" t="s">
         <v>310</v>
       </c>
-      <c r="G41" t="s">
-        <v>46</v>
-      </c>
-      <c r="H41" t="s">
-        <v>47</v>
-      </c>
-      <c r="I41" t="s">
+      <c r="L41" t="s">
         <v>311</v>
       </c>
-      <c r="J41" t="s">
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
         <v>312</v>
       </c>
-      <c r="K41" t="s">
+      <c r="O41" t="s">
         <v>313</v>
       </c>
-      <c r="L41" t="s">
-        <v>314</v>
-      </c>
-      <c r="M41" t="n">
-        <v>3</v>
-      </c>
-      <c r="N41" t="s">
-        <v>315</v>
-      </c>
-      <c r="O41" t="s">
-        <v>92</v>
-      </c>
-      <c r="P41" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>3</v>
-      </c>
-      <c r="R41" t="n">
-        <v>3</v>
-      </c>
-      <c r="S41" t="n">
-        <v>3</v>
-      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
       <c r="T41" t="s"/>
-      <c r="U41" t="n">
-        <v>3</v>
-      </c>
+      <c r="U41" t="s"/>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="42">
@@ -4219,46 +4907,44 @@
         <v>44</v>
       </c>
       <c r="F42" t="s">
+        <v>314</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>315</v>
+      </c>
+      <c r="J42" t="s">
         <v>316</v>
       </c>
-      <c r="G42" t="s">
-        <v>46</v>
-      </c>
-      <c r="H42" t="s">
-        <v>47</v>
-      </c>
-      <c r="I42" t="s">
+      <c r="K42" t="s">
         <v>317</v>
       </c>
-      <c r="J42" t="s">
+      <c r="L42" t="s">
         <v>318</v>
       </c>
-      <c r="K42" t="s">
+      <c r="M42" t="n">
+        <v>3</v>
+      </c>
+      <c r="N42" t="s">
         <v>319</v>
       </c>
-      <c r="L42" t="s">
-        <v>320</v>
-      </c>
-      <c r="M42" t="n">
-        <v>5</v>
-      </c>
-      <c r="N42" t="s"/>
-      <c r="O42" t="s"/>
-      <c r="P42" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>5</v>
-      </c>
+      <c r="O42" t="s">
+        <v>60</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
       <c r="R42" t="n">
-        <v>4</v>
-      </c>
-      <c r="S42" t="n">
-        <v>4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="S42" t="s"/>
       <c r="T42" t="s"/>
       <c r="U42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -4266,7 +4952,7 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="43">
@@ -4282,47 +4968,41 @@
         <v>44</v>
       </c>
       <c r="F43" t="s">
+        <v>320</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>321</v>
+      </c>
+      <c r="J43" t="s">
         <v>322</v>
       </c>
-      <c r="G43" t="s">
-        <v>46</v>
-      </c>
-      <c r="H43" t="s">
-        <v>47</v>
-      </c>
-      <c r="I43" t="s">
+      <c r="K43" t="s">
         <v>323</v>
       </c>
-      <c r="J43" t="s">
+      <c r="L43" t="s">
         <v>324</v>
       </c>
-      <c r="K43" t="s">
-        <v>325</v>
-      </c>
-      <c r="L43" t="s">
-        <v>326</v>
-      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
       <c r="N43" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="O43" t="s">
-        <v>70</v>
-      </c>
-      <c r="P43" t="n">
-        <v>2</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P43" t="s"/>
       <c r="Q43" t="n">
-        <v>2</v>
-      </c>
-      <c r="R43" t="n">
-        <v>3</v>
-      </c>
-      <c r="S43" t="n">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
       <c r="T43" t="s"/>
       <c r="U43" t="n">
         <v>2</v>
@@ -4330,10 +5010,14 @@
       <c r="V43" t="n">
         <v>0</v>
       </c>
-      <c r="W43" t="s"/>
-      <c r="X43" t="s"/>
+      <c r="W43" t="s">
+        <v>325</v>
+      </c>
+      <c r="X43" t="s">
+        <v>326</v>
+      </c>
       <c r="Y43" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="44">
@@ -4349,48 +5033,58 @@
         <v>44</v>
       </c>
       <c r="F44" t="s">
+        <v>328</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
         <v>329</v>
       </c>
-      <c r="G44" t="s">
-        <v>46</v>
-      </c>
-      <c r="H44" t="s">
-        <v>47</v>
-      </c>
-      <c r="I44" t="s">
+      <c r="J44" t="s">
         <v>330</v>
       </c>
-      <c r="J44" t="s">
+      <c r="K44" t="s">
         <v>331</v>
       </c>
-      <c r="K44" t="s">
+      <c r="L44" t="s">
         <v>332</v>
       </c>
-      <c r="L44" t="s">
+      <c r="M44" t="n">
+        <v>1</v>
+      </c>
+      <c r="N44" t="s">
         <v>333</v>
       </c>
-      <c r="M44" t="n">
-        <v>3</v>
-      </c>
-      <c r="N44" t="s">
-        <v>334</v>
-      </c>
       <c r="O44" t="s">
-        <v>53</v>
-      </c>
-      <c r="P44" t="s"/>
+        <v>85</v>
+      </c>
+      <c r="P44" t="n">
+        <v>1</v>
+      </c>
       <c r="Q44" t="s"/>
       <c r="R44" t="s"/>
-      <c r="S44" t="s"/>
+      <c r="S44" t="n">
+        <v>2</v>
+      </c>
       <c r="T44" t="s"/>
-      <c r="U44" t="s"/>
+      <c r="U44" t="n">
+        <v>3</v>
+      </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
-      <c r="W44" t="s"/>
-      <c r="X44" t="s"/>
+      <c r="W44" t="s">
+        <v>325</v>
+      </c>
+      <c r="X44" t="s">
+        <v>326</v>
+      </c>
       <c r="Y44" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="45">
@@ -4406,50 +5100,44 @@
         <v>44</v>
       </c>
       <c r="F45" t="s">
+        <v>335</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
         <v>336</v>
       </c>
-      <c r="G45" t="s">
-        <v>46</v>
-      </c>
-      <c r="H45" t="s">
-        <v>47</v>
-      </c>
-      <c r="I45" t="s">
+      <c r="J45" t="s">
         <v>337</v>
       </c>
-      <c r="J45" t="s">
+      <c r="K45" t="s">
         <v>338</v>
       </c>
-      <c r="K45" t="s">
+      <c r="L45" t="s">
         <v>339</v>
       </c>
-      <c r="L45" t="s">
-        <v>340</v>
-      </c>
       <c r="M45" t="n">
         <v>3</v>
       </c>
       <c r="N45" t="s">
-        <v>341</v>
+        <v>319</v>
       </c>
       <c r="O45" t="s">
-        <v>209</v>
-      </c>
-      <c r="P45" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>3</v>
-      </c>
-      <c r="R45" t="n">
-        <v>4</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
       <c r="S45" t="n">
         <v>5</v>
       </c>
       <c r="T45" t="s"/>
       <c r="U45" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -4457,7 +5145,7 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="46">
@@ -4473,58 +5161,52 @@
         <v>44</v>
       </c>
       <c r="F46" t="s">
+        <v>340</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>341</v>
+      </c>
+      <c r="J46" t="s">
         <v>342</v>
       </c>
-      <c r="G46" t="s">
-        <v>46</v>
-      </c>
-      <c r="H46" t="s">
-        <v>47</v>
-      </c>
-      <c r="I46" t="s">
+      <c r="K46" t="s">
         <v>343</v>
       </c>
-      <c r="J46" t="s">
+      <c r="L46" t="s">
         <v>344</v>
       </c>
-      <c r="K46" t="s">
+      <c r="M46" t="n">
+        <v>1</v>
+      </c>
+      <c r="N46" t="s">
+        <v>333</v>
+      </c>
+      <c r="O46" t="s">
+        <v>313</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="s"/>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
         <v>345</v>
       </c>
-      <c r="L46" t="s">
+      <c r="X46" t="s">
         <v>346</v>
       </c>
-      <c r="M46" t="n">
-        <v>2</v>
-      </c>
-      <c r="N46" t="s">
+      <c r="Y46" t="s">
         <v>347</v>
-      </c>
-      <c r="O46" t="s">
-        <v>92</v>
-      </c>
-      <c r="P46" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>3</v>
-      </c>
-      <c r="R46" t="n">
-        <v>2</v>
-      </c>
-      <c r="S46" t="n">
-        <v>3</v>
-      </c>
-      <c r="T46" t="s"/>
-      <c r="U46" t="n">
-        <v>2</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0</v>
-      </c>
-      <c r="W46" t="s"/>
-      <c r="X46" t="s"/>
-      <c r="Y46" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="47">
@@ -4561,29 +5243,25 @@
         <v>352</v>
       </c>
       <c r="M47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N47" t="s">
-        <v>353</v>
+        <v>333</v>
       </c>
       <c r="O47" t="s">
-        <v>70</v>
-      </c>
-      <c r="P47" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>3</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
       <c r="R47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T47" t="s"/>
       <c r="U47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V47" t="n">
         <v>0</v>
@@ -4591,7 +5269,7 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="48">
@@ -4607,58 +5285,58 @@
         <v>44</v>
       </c>
       <c r="F48" t="s">
+        <v>353</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>354</v>
+      </c>
+      <c r="J48" t="s">
         <v>355</v>
       </c>
-      <c r="G48" t="s">
-        <v>46</v>
-      </c>
-      <c r="H48" t="s">
-        <v>47</v>
-      </c>
-      <c r="I48" t="s">
+      <c r="K48" t="s">
         <v>356</v>
       </c>
-      <c r="J48" t="s">
+      <c r="L48" t="s">
         <v>357</v>
       </c>
-      <c r="K48" t="s">
-        <v>358</v>
-      </c>
-      <c r="L48" t="s">
-        <v>359</v>
-      </c>
       <c r="M48" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N48" t="s">
-        <v>353</v>
+        <v>333</v>
       </c>
       <c r="O48" t="s">
         <v>53</v>
       </c>
       <c r="P48" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>5</v>
-      </c>
-      <c r="R48" t="n">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
       <c r="S48" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T48" t="s"/>
       <c r="U48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V48" t="n">
         <v>0</v>
       </c>
-      <c r="W48" t="s"/>
-      <c r="X48" t="s"/>
+      <c r="W48" t="s">
+        <v>358</v>
+      </c>
+      <c r="X48" t="s">
+        <v>359</v>
+      </c>
       <c r="Y48" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="49">
@@ -4674,7 +5352,7 @@
         <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="G49" t="s">
         <v>46</v>
@@ -4683,41 +5361,35 @@
         <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="J49" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="K49" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L49" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N49" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="O49" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="P49" t="n">
         <v>4</v>
       </c>
-      <c r="Q49" t="n">
-        <v>4</v>
-      </c>
-      <c r="R49" t="n">
-        <v>4</v>
-      </c>
-      <c r="S49" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
       <c r="T49" t="s"/>
       <c r="U49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V49" t="n">
         <v>0</v>
@@ -4725,7 +5397,7 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="50">
@@ -4741,7 +5413,7 @@
         <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="G50" t="s">
         <v>46</v>
@@ -4750,25 +5422,25 @@
         <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="J50" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="K50" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="L50" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="M50" t="n">
         <v>4</v>
       </c>
       <c r="N50" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="O50" t="s">
-        <v>92</v>
+        <v>313</v>
       </c>
       <c r="P50" t="n">
         <v>5</v>
@@ -4776,11 +5448,11 @@
       <c r="Q50" t="s"/>
       <c r="R50" t="s"/>
       <c r="S50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T50" t="s"/>
       <c r="U50" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V50" t="n">
         <v>0</v>
@@ -4788,7 +5460,7 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="51">
@@ -4804,7 +5476,7 @@
         <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="G51" t="s">
         <v>46</v>
@@ -4813,49 +5485,43 @@
         <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="J51" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="K51" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="L51" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="M51" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N51" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="O51" t="s">
-        <v>92</v>
-      </c>
-      <c r="P51" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q51" t="n">
-        <v>4</v>
-      </c>
-      <c r="R51" t="n">
-        <v>3</v>
-      </c>
-      <c r="S51" t="n">
-        <v>5</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
       <c r="T51" t="s"/>
-      <c r="U51" t="n">
-        <v>5</v>
-      </c>
+      <c r="U51" t="s"/>
       <c r="V51" t="n">
         <v>0</v>
       </c>
-      <c r="W51" t="s"/>
-      <c r="X51" t="s"/>
+      <c r="W51" t="s">
+        <v>378</v>
+      </c>
+      <c r="X51" t="s">
+        <v>379</v>
+      </c>
       <c r="Y51" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="52">
@@ -4871,7 +5537,7 @@
         <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="G52" t="s">
         <v>46</v>
@@ -4880,49 +5546,43 @@
         <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="J52" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="K52" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="L52" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="M52" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N52" t="s">
-        <v>384</v>
+        <v>366</v>
       </c>
       <c r="O52" t="s">
-        <v>92</v>
-      </c>
-      <c r="P52" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q52" t="n">
-        <v>4</v>
-      </c>
-      <c r="R52" t="n">
-        <v>5</v>
-      </c>
-      <c r="S52" t="n">
-        <v>3</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
       <c r="T52" t="s"/>
-      <c r="U52" t="n">
-        <v>2</v>
-      </c>
+      <c r="U52" t="s"/>
       <c r="V52" t="n">
         <v>0</v>
       </c>
-      <c r="W52" t="s"/>
-      <c r="X52" t="s"/>
+      <c r="W52" t="s">
+        <v>386</v>
+      </c>
+      <c r="X52" t="s">
+        <v>387</v>
+      </c>
       <c r="Y52" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
     </row>
     <row r="53">
@@ -4938,7 +5598,7 @@
         <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="G53" t="s">
         <v>46</v>
@@ -4947,37 +5607,35 @@
         <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="J53" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="K53" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="L53" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="M53" t="n">
-        <v>4</v>
-      </c>
-      <c r="N53" t="s"/>
-      <c r="O53" t="s"/>
-      <c r="P53" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q53" t="n">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N53" t="s">
+        <v>366</v>
+      </c>
+      <c r="O53" t="s">
+        <v>85</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="s"/>
       <c r="R53" t="n">
-        <v>5</v>
-      </c>
-      <c r="S53" t="n">
-        <v>4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="S53" t="s"/>
       <c r="T53" t="s"/>
       <c r="U53" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V53" t="n">
         <v>0</v>
@@ -4985,7 +5643,7 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
     </row>
     <row r="54">
@@ -5001,7 +5659,7 @@
         <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="G54" t="s">
         <v>46</v>
@@ -5010,39 +5668,45 @@
         <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="J54" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="K54" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="L54" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="M54" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N54" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="O54" t="s">
-        <v>111</v>
+        <v>60</v>
       </c>
       <c r="P54" t="s"/>
-      <c r="Q54" t="s"/>
+      <c r="Q54" t="n">
+        <v>4</v>
+      </c>
       <c r="R54" t="s"/>
-      <c r="S54" t="s"/>
+      <c r="S54" t="n">
+        <v>4</v>
+      </c>
       <c r="T54" t="s"/>
-      <c r="U54" t="s"/>
+      <c r="U54" t="n">
+        <v>4</v>
+      </c>
       <c r="V54" t="n">
         <v>0</v>
       </c>
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
     </row>
     <row r="55">
@@ -5058,7 +5722,7 @@
         <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="G55" t="s">
         <v>46</v>
@@ -5067,49 +5731,43 @@
         <v>47</v>
       </c>
       <c r="I55" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="J55" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="K55" t="s">
+        <v>404</v>
+      </c>
+      <c r="L55" t="s">
+        <v>405</v>
+      </c>
+      <c r="M55" t="n">
+        <v>1</v>
+      </c>
+      <c r="N55" t="s">
         <v>400</v>
       </c>
-      <c r="L55" t="s">
-        <v>401</v>
-      </c>
-      <c r="M55" t="n">
-        <v>2</v>
-      </c>
-      <c r="N55" t="s">
-        <v>402</v>
-      </c>
       <c r="O55" t="s">
-        <v>92</v>
-      </c>
-      <c r="P55" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q55" t="n">
-        <v>3</v>
-      </c>
-      <c r="R55" t="n">
-        <v>3</v>
-      </c>
-      <c r="S55" t="n">
-        <v>3</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
       <c r="T55" t="s"/>
-      <c r="U55" t="n">
-        <v>2</v>
-      </c>
+      <c r="U55" t="s"/>
       <c r="V55" t="n">
         <v>0</v>
       </c>
-      <c r="W55" t="s"/>
-      <c r="X55" t="s"/>
+      <c r="W55" t="s">
+        <v>406</v>
+      </c>
+      <c r="X55" t="s">
+        <v>407</v>
+      </c>
       <c r="Y55" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
     </row>
     <row r="56">
@@ -5125,7 +5783,7 @@
         <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="G56" t="s">
         <v>46</v>
@@ -5134,41 +5792,37 @@
         <v>47</v>
       </c>
       <c r="I56" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="J56" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="K56" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="L56" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="M56" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N56" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="O56" t="s">
-        <v>92</v>
-      </c>
-      <c r="P56" t="n">
-        <v>3</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P56" t="s"/>
       <c r="Q56" t="n">
-        <v>2</v>
-      </c>
-      <c r="R56" t="n">
-        <v>3</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R56" t="s"/>
       <c r="S56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T56" t="s"/>
       <c r="U56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V56" t="n">
         <v>0</v>
@@ -5176,7 +5830,2483 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>408</v>
+        <v>413</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>6366</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>415</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>416</v>
+      </c>
+      <c r="J57" t="s">
+        <v>417</v>
+      </c>
+      <c r="K57" t="s">
+        <v>418</v>
+      </c>
+      <c r="L57" t="s">
+        <v>419</v>
+      </c>
+      <c r="M57" t="n">
+        <v>1</v>
+      </c>
+      <c r="N57" t="s">
+        <v>414</v>
+      </c>
+      <c r="O57" t="s">
+        <v>151</v>
+      </c>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="s"/>
+      <c r="S57" t="s"/>
+      <c r="T57" t="s"/>
+      <c r="U57" t="s"/>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>420</v>
+      </c>
+      <c r="X57" t="s">
+        <v>421</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>6366</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>423</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>424</v>
+      </c>
+      <c r="J58" t="s">
+        <v>425</v>
+      </c>
+      <c r="K58" t="s">
+        <v>426</v>
+      </c>
+      <c r="L58" t="s">
+        <v>427</v>
+      </c>
+      <c r="M58" t="n">
+        <v>3</v>
+      </c>
+      <c r="N58" t="s">
+        <v>428</v>
+      </c>
+      <c r="O58" t="s">
+        <v>53</v>
+      </c>
+      <c r="P58" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="n">
+        <v>2</v>
+      </c>
+      <c r="S58" t="s"/>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>6366</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>429</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>430</v>
+      </c>
+      <c r="J59" t="s">
+        <v>431</v>
+      </c>
+      <c r="K59" t="s">
+        <v>432</v>
+      </c>
+      <c r="L59" t="s">
+        <v>433</v>
+      </c>
+      <c r="M59" t="n">
+        <v>2</v>
+      </c>
+      <c r="N59" t="s">
+        <v>434</v>
+      </c>
+      <c r="O59" t="s">
+        <v>85</v>
+      </c>
+      <c r="P59" t="s"/>
+      <c r="Q59" t="n">
+        <v>2</v>
+      </c>
+      <c r="R59" t="s"/>
+      <c r="S59" t="s"/>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>4</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>435</v>
+      </c>
+      <c r="X59" t="s">
+        <v>436</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>6366</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>438</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>439</v>
+      </c>
+      <c r="J60" t="s">
+        <v>440</v>
+      </c>
+      <c r="K60" t="s">
+        <v>441</v>
+      </c>
+      <c r="L60" t="s">
+        <v>442</v>
+      </c>
+      <c r="M60" t="n">
+        <v>1</v>
+      </c>
+      <c r="N60" t="s">
+        <v>443</v>
+      </c>
+      <c r="O60" t="s">
+        <v>85</v>
+      </c>
+      <c r="P60" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q60" t="s"/>
+      <c r="R60" t="n">
+        <v>1</v>
+      </c>
+      <c r="S60" t="s"/>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>1</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>6366</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>444</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>445</v>
+      </c>
+      <c r="J61" t="s">
+        <v>440</v>
+      </c>
+      <c r="K61" t="s">
+        <v>446</v>
+      </c>
+      <c r="L61" t="s">
+        <v>447</v>
+      </c>
+      <c r="M61" t="n">
+        <v>3</v>
+      </c>
+      <c r="N61" t="s">
+        <v>443</v>
+      </c>
+      <c r="O61" t="s">
+        <v>85</v>
+      </c>
+      <c r="P61" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>2</v>
+      </c>
+      <c r="R61" t="s"/>
+      <c r="S61" t="s"/>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>1</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>6366</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>449</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>450</v>
+      </c>
+      <c r="J62" t="s">
+        <v>451</v>
+      </c>
+      <c r="K62" t="s">
+        <v>452</v>
+      </c>
+      <c r="L62" t="s">
+        <v>453</v>
+      </c>
+      <c r="M62" t="n">
+        <v>1</v>
+      </c>
+      <c r="N62" t="s">
+        <v>454</v>
+      </c>
+      <c r="O62" t="s">
+        <v>60</v>
+      </c>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="s"/>
+      <c r="S62" t="n">
+        <v>1</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>1</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>6366</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>455</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>456</v>
+      </c>
+      <c r="J63" t="s">
+        <v>457</v>
+      </c>
+      <c r="K63" t="s">
+        <v>458</v>
+      </c>
+      <c r="L63" t="s">
+        <v>459</v>
+      </c>
+      <c r="M63" t="n">
+        <v>1</v>
+      </c>
+      <c r="N63" t="s"/>
+      <c r="O63" t="s"/>
+      <c r="P63" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>1</v>
+      </c>
+      <c r="R63" t="n">
+        <v>3</v>
+      </c>
+      <c r="S63" t="n">
+        <v>1</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>1</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>6366</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>460</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>461</v>
+      </c>
+      <c r="J64" t="s">
+        <v>462</v>
+      </c>
+      <c r="K64" t="s">
+        <v>463</v>
+      </c>
+      <c r="L64" t="s">
+        <v>464</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>454</v>
+      </c>
+      <c r="O64" t="s">
+        <v>53</v>
+      </c>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>4</v>
+      </c>
+      <c r="S64" t="n">
+        <v>4</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>6366</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>465</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>466</v>
+      </c>
+      <c r="J65" t="s">
+        <v>467</v>
+      </c>
+      <c r="K65" t="s">
+        <v>468</v>
+      </c>
+      <c r="L65" t="s">
+        <v>469</v>
+      </c>
+      <c r="M65" t="n">
+        <v>2</v>
+      </c>
+      <c r="N65" t="s">
+        <v>470</v>
+      </c>
+      <c r="O65" t="s">
+        <v>85</v>
+      </c>
+      <c r="P65" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>1</v>
+      </c>
+      <c r="R65" t="n">
+        <v>1</v>
+      </c>
+      <c r="S65" t="n">
+        <v>4</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>6366</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>471</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>472</v>
+      </c>
+      <c r="J66" t="s">
+        <v>473</v>
+      </c>
+      <c r="K66" t="s">
+        <v>474</v>
+      </c>
+      <c r="L66" t="s">
+        <v>475</v>
+      </c>
+      <c r="M66" t="n">
+        <v>4</v>
+      </c>
+      <c r="N66" t="s"/>
+      <c r="O66" t="s"/>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>4</v>
+      </c>
+      <c r="R66" t="n">
+        <v>4</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>4</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>6366</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>476</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>477</v>
+      </c>
+      <c r="J67" t="s">
+        <v>478</v>
+      </c>
+      <c r="K67" t="s">
+        <v>479</v>
+      </c>
+      <c r="L67" t="s">
+        <v>480</v>
+      </c>
+      <c r="M67" t="n">
+        <v>3</v>
+      </c>
+      <c r="N67" t="s">
+        <v>481</v>
+      </c>
+      <c r="O67" t="s">
+        <v>53</v>
+      </c>
+      <c r="P67" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>3</v>
+      </c>
+      <c r="R67" t="n">
+        <v>4</v>
+      </c>
+      <c r="S67" t="n">
+        <v>4</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>3</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>6366</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>482</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>483</v>
+      </c>
+      <c r="J68" t="s">
+        <v>484</v>
+      </c>
+      <c r="K68" t="s">
+        <v>485</v>
+      </c>
+      <c r="L68" t="s">
+        <v>486</v>
+      </c>
+      <c r="M68" t="n">
+        <v>1</v>
+      </c>
+      <c r="N68" t="s">
+        <v>487</v>
+      </c>
+      <c r="O68" t="s">
+        <v>313</v>
+      </c>
+      <c r="P68" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>1</v>
+      </c>
+      <c r="R68" t="n">
+        <v>1</v>
+      </c>
+      <c r="S68" t="n">
+        <v>1</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>1</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>6366</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>489</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>490</v>
+      </c>
+      <c r="J69" t="s">
+        <v>491</v>
+      </c>
+      <c r="K69" t="s">
+        <v>492</v>
+      </c>
+      <c r="L69" t="s">
+        <v>493</v>
+      </c>
+      <c r="M69" t="n">
+        <v>3</v>
+      </c>
+      <c r="N69" t="s">
+        <v>494</v>
+      </c>
+      <c r="O69" t="s">
+        <v>60</v>
+      </c>
+      <c r="P69" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>3</v>
+      </c>
+      <c r="R69" t="n">
+        <v>3</v>
+      </c>
+      <c r="S69" t="n">
+        <v>3</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>3</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>6366</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>495</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>496</v>
+      </c>
+      <c r="J70" t="s">
+        <v>497</v>
+      </c>
+      <c r="K70" t="s">
+        <v>498</v>
+      </c>
+      <c r="L70" t="s">
+        <v>499</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s"/>
+      <c r="O70" t="s"/>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>4</v>
+      </c>
+      <c r="S70" t="n">
+        <v>4</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>4</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>6366</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>501</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>502</v>
+      </c>
+      <c r="J71" t="s">
+        <v>503</v>
+      </c>
+      <c r="K71" t="s">
+        <v>504</v>
+      </c>
+      <c r="L71" t="s">
+        <v>505</v>
+      </c>
+      <c r="M71" t="n">
+        <v>1</v>
+      </c>
+      <c r="N71" t="s">
+        <v>506</v>
+      </c>
+      <c r="O71" t="s">
+        <v>85</v>
+      </c>
+      <c r="P71" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>2</v>
+      </c>
+      <c r="R71" t="n">
+        <v>3</v>
+      </c>
+      <c r="S71" t="n">
+        <v>2</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>2</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>6366</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>508</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>509</v>
+      </c>
+      <c r="J72" t="s">
+        <v>510</v>
+      </c>
+      <c r="K72" t="s">
+        <v>511</v>
+      </c>
+      <c r="L72" t="s">
+        <v>512</v>
+      </c>
+      <c r="M72" t="n">
+        <v>2</v>
+      </c>
+      <c r="N72" t="s">
+        <v>513</v>
+      </c>
+      <c r="O72" t="s">
+        <v>313</v>
+      </c>
+      <c r="P72" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>2</v>
+      </c>
+      <c r="R72" t="n">
+        <v>3</v>
+      </c>
+      <c r="S72" t="n">
+        <v>2</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>4</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>6366</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>515</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>516</v>
+      </c>
+      <c r="J73" t="s">
+        <v>517</v>
+      </c>
+      <c r="K73" t="s">
+        <v>518</v>
+      </c>
+      <c r="L73" t="s">
+        <v>519</v>
+      </c>
+      <c r="M73" t="n">
+        <v>1</v>
+      </c>
+      <c r="N73" t="s">
+        <v>520</v>
+      </c>
+      <c r="O73" t="s">
+        <v>60</v>
+      </c>
+      <c r="P73" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>3</v>
+      </c>
+      <c r="R73" t="n">
+        <v>1</v>
+      </c>
+      <c r="S73" t="n">
+        <v>2</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>1</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>6366</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>521</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>522</v>
+      </c>
+      <c r="J74" t="s">
+        <v>523</v>
+      </c>
+      <c r="K74" t="s">
+        <v>524</v>
+      </c>
+      <c r="L74" t="s">
+        <v>525</v>
+      </c>
+      <c r="M74" t="n">
+        <v>3</v>
+      </c>
+      <c r="N74" t="s">
+        <v>481</v>
+      </c>
+      <c r="O74" t="s">
+        <v>53</v>
+      </c>
+      <c r="P74" t="s"/>
+      <c r="Q74" t="s"/>
+      <c r="R74" t="s"/>
+      <c r="S74" t="s"/>
+      <c r="T74" t="s"/>
+      <c r="U74" t="s"/>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>6366</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>527</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>528</v>
+      </c>
+      <c r="J75" t="s">
+        <v>529</v>
+      </c>
+      <c r="K75" t="s">
+        <v>530</v>
+      </c>
+      <c r="L75" t="s">
+        <v>531</v>
+      </c>
+      <c r="M75" t="n">
+        <v>3</v>
+      </c>
+      <c r="N75" t="s">
+        <v>532</v>
+      </c>
+      <c r="O75" t="s">
+        <v>313</v>
+      </c>
+      <c r="P75" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>3</v>
+      </c>
+      <c r="R75" t="n">
+        <v>4</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>3</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>6366</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>533</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>534</v>
+      </c>
+      <c r="J76" t="s">
+        <v>535</v>
+      </c>
+      <c r="K76" t="s">
+        <v>536</v>
+      </c>
+      <c r="L76" t="s">
+        <v>537</v>
+      </c>
+      <c r="M76" t="n">
+        <v>2</v>
+      </c>
+      <c r="N76" t="s">
+        <v>538</v>
+      </c>
+      <c r="O76" t="s">
+        <v>60</v>
+      </c>
+      <c r="P76" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>3</v>
+      </c>
+      <c r="R76" t="n">
+        <v>2</v>
+      </c>
+      <c r="S76" t="n">
+        <v>3</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>2</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>6366</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>539</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>540</v>
+      </c>
+      <c r="J77" t="s">
+        <v>541</v>
+      </c>
+      <c r="K77" t="s">
+        <v>542</v>
+      </c>
+      <c r="L77" t="s">
+        <v>543</v>
+      </c>
+      <c r="M77" t="n">
+        <v>3</v>
+      </c>
+      <c r="N77" t="s"/>
+      <c r="O77" t="s"/>
+      <c r="P77" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>3</v>
+      </c>
+      <c r="R77" t="n">
+        <v>2</v>
+      </c>
+      <c r="S77" t="n">
+        <v>3</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>3</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>6366</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>544</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>545</v>
+      </c>
+      <c r="J78" t="s">
+        <v>546</v>
+      </c>
+      <c r="K78" t="s">
+        <v>547</v>
+      </c>
+      <c r="L78" t="s">
+        <v>548</v>
+      </c>
+      <c r="M78" t="n">
+        <v>3</v>
+      </c>
+      <c r="N78" t="s">
+        <v>549</v>
+      </c>
+      <c r="O78" t="s">
+        <v>85</v>
+      </c>
+      <c r="P78" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>4</v>
+      </c>
+      <c r="R78" t="n">
+        <v>2</v>
+      </c>
+      <c r="S78" t="n">
+        <v>3</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>3</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>6366</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>551</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>552</v>
+      </c>
+      <c r="J79" t="s">
+        <v>553</v>
+      </c>
+      <c r="K79" t="s">
+        <v>554</v>
+      </c>
+      <c r="L79" t="s">
+        <v>555</v>
+      </c>
+      <c r="M79" t="n">
+        <v>3</v>
+      </c>
+      <c r="N79" t="s">
+        <v>549</v>
+      </c>
+      <c r="O79" t="s">
+        <v>85</v>
+      </c>
+      <c r="P79" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>3</v>
+      </c>
+      <c r="R79" t="n">
+        <v>3</v>
+      </c>
+      <c r="S79" t="n">
+        <v>2</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>6366</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>557</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>558</v>
+      </c>
+      <c r="J80" t="s">
+        <v>559</v>
+      </c>
+      <c r="K80" t="s">
+        <v>560</v>
+      </c>
+      <c r="L80" t="s">
+        <v>561</v>
+      </c>
+      <c r="M80" t="n">
+        <v>5</v>
+      </c>
+      <c r="N80" t="s">
+        <v>549</v>
+      </c>
+      <c r="O80" t="s">
+        <v>53</v>
+      </c>
+      <c r="P80" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>5</v>
+      </c>
+      <c r="R80" t="n">
+        <v>5</v>
+      </c>
+      <c r="S80" t="n">
+        <v>5</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>6366</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>562</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>563</v>
+      </c>
+      <c r="J81" t="s">
+        <v>564</v>
+      </c>
+      <c r="K81" t="s">
+        <v>565</v>
+      </c>
+      <c r="L81" t="s">
+        <v>566</v>
+      </c>
+      <c r="M81" t="n">
+        <v>4</v>
+      </c>
+      <c r="N81" t="s">
+        <v>567</v>
+      </c>
+      <c r="O81" t="s">
+        <v>53</v>
+      </c>
+      <c r="P81" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>4</v>
+      </c>
+      <c r="R81" t="n">
+        <v>4</v>
+      </c>
+      <c r="S81" t="n">
+        <v>4</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>4</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>6366</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>568</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>569</v>
+      </c>
+      <c r="J82" t="s">
+        <v>570</v>
+      </c>
+      <c r="K82" t="s">
+        <v>571</v>
+      </c>
+      <c r="L82" t="s">
+        <v>572</v>
+      </c>
+      <c r="M82" t="n">
+        <v>5</v>
+      </c>
+      <c r="N82" t="s">
+        <v>573</v>
+      </c>
+      <c r="O82" t="s">
+        <v>53</v>
+      </c>
+      <c r="P82" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>4</v>
+      </c>
+      <c r="R82" t="n">
+        <v>3</v>
+      </c>
+      <c r="S82" t="n">
+        <v>4</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>4</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>6366</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>574</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>575</v>
+      </c>
+      <c r="J83" t="s">
+        <v>576</v>
+      </c>
+      <c r="K83" t="s">
+        <v>577</v>
+      </c>
+      <c r="L83" t="s">
+        <v>578</v>
+      </c>
+      <c r="M83" t="n">
+        <v>3</v>
+      </c>
+      <c r="N83" t="s">
+        <v>579</v>
+      </c>
+      <c r="O83" t="s">
+        <v>53</v>
+      </c>
+      <c r="P83" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>3</v>
+      </c>
+      <c r="R83" t="n">
+        <v>4</v>
+      </c>
+      <c r="S83" t="n">
+        <v>3</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>3</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>6366</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>581</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>582</v>
+      </c>
+      <c r="J84" t="s">
+        <v>583</v>
+      </c>
+      <c r="K84" t="s">
+        <v>584</v>
+      </c>
+      <c r="L84" t="s">
+        <v>585</v>
+      </c>
+      <c r="M84" t="n">
+        <v>4</v>
+      </c>
+      <c r="N84" t="s">
+        <v>586</v>
+      </c>
+      <c r="O84" t="s">
+        <v>60</v>
+      </c>
+      <c r="P84" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q84" t="s"/>
+      <c r="R84" t="s"/>
+      <c r="S84" t="n">
+        <v>4</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>3</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>6366</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>587</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>588</v>
+      </c>
+      <c r="J85" t="s">
+        <v>589</v>
+      </c>
+      <c r="K85" t="s">
+        <v>590</v>
+      </c>
+      <c r="L85" t="s">
+        <v>591</v>
+      </c>
+      <c r="M85" t="n">
+        <v>4</v>
+      </c>
+      <c r="N85" t="s">
+        <v>592</v>
+      </c>
+      <c r="O85" t="s">
+        <v>60</v>
+      </c>
+      <c r="P85" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>4</v>
+      </c>
+      <c r="R85" t="n">
+        <v>3</v>
+      </c>
+      <c r="S85" t="n">
+        <v>5</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>6366</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>594</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>595</v>
+      </c>
+      <c r="J86" t="s">
+        <v>596</v>
+      </c>
+      <c r="K86" t="s">
+        <v>597</v>
+      </c>
+      <c r="L86" t="s">
+        <v>598</v>
+      </c>
+      <c r="M86" t="n">
+        <v>3</v>
+      </c>
+      <c r="N86" t="s">
+        <v>599</v>
+      </c>
+      <c r="O86" t="s">
+        <v>60</v>
+      </c>
+      <c r="P86" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>4</v>
+      </c>
+      <c r="R86" t="n">
+        <v>5</v>
+      </c>
+      <c r="S86" t="n">
+        <v>3</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>2</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>6366</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>600</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>601</v>
+      </c>
+      <c r="J87" t="s">
+        <v>602</v>
+      </c>
+      <c r="K87" t="s">
+        <v>603</v>
+      </c>
+      <c r="L87" t="s">
+        <v>604</v>
+      </c>
+      <c r="M87" t="n">
+        <v>1</v>
+      </c>
+      <c r="N87" t="s">
+        <v>605</v>
+      </c>
+      <c r="O87" t="s">
+        <v>60</v>
+      </c>
+      <c r="P87" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>1</v>
+      </c>
+      <c r="R87" t="n">
+        <v>4</v>
+      </c>
+      <c r="S87" t="n">
+        <v>1</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>2</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>6366</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>606</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>607</v>
+      </c>
+      <c r="J88" t="s">
+        <v>602</v>
+      </c>
+      <c r="K88" t="s">
+        <v>608</v>
+      </c>
+      <c r="L88" t="s">
+        <v>609</v>
+      </c>
+      <c r="M88" t="n">
+        <v>3</v>
+      </c>
+      <c r="N88" t="s">
+        <v>605</v>
+      </c>
+      <c r="O88" t="s">
+        <v>53</v>
+      </c>
+      <c r="P88" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>3</v>
+      </c>
+      <c r="R88" t="n">
+        <v>3</v>
+      </c>
+      <c r="S88" t="n">
+        <v>3</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>3</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>6366</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>611</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>612</v>
+      </c>
+      <c r="J89" t="s">
+        <v>613</v>
+      </c>
+      <c r="K89" t="s">
+        <v>614</v>
+      </c>
+      <c r="L89" t="s">
+        <v>615</v>
+      </c>
+      <c r="M89" t="n">
+        <v>4</v>
+      </c>
+      <c r="N89" t="s"/>
+      <c r="O89" t="s"/>
+      <c r="P89" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>5</v>
+      </c>
+      <c r="R89" t="n">
+        <v>5</v>
+      </c>
+      <c r="S89" t="n">
+        <v>4</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>5</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>6366</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>617</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>618</v>
+      </c>
+      <c r="J90" t="s">
+        <v>619</v>
+      </c>
+      <c r="K90" t="s">
+        <v>620</v>
+      </c>
+      <c r="L90" t="s">
+        <v>621</v>
+      </c>
+      <c r="M90" t="n">
+        <v>5</v>
+      </c>
+      <c r="N90" t="s">
+        <v>622</v>
+      </c>
+      <c r="O90" t="s">
+        <v>151</v>
+      </c>
+      <c r="P90" t="s"/>
+      <c r="Q90" t="s"/>
+      <c r="R90" t="s"/>
+      <c r="S90" t="s"/>
+      <c r="T90" t="s"/>
+      <c r="U90" t="s"/>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>6366</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>623</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>624</v>
+      </c>
+      <c r="J91" t="s">
+        <v>625</v>
+      </c>
+      <c r="K91" t="s">
+        <v>626</v>
+      </c>
+      <c r="L91" t="s">
+        <v>627</v>
+      </c>
+      <c r="M91" t="n">
+        <v>2</v>
+      </c>
+      <c r="N91" t="s">
+        <v>628</v>
+      </c>
+      <c r="O91" t="s">
+        <v>60</v>
+      </c>
+      <c r="P91" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>3</v>
+      </c>
+      <c r="R91" t="n">
+        <v>3</v>
+      </c>
+      <c r="S91" t="n">
+        <v>3</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>2</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>6366</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>630</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>631</v>
+      </c>
+      <c r="J92" t="s">
+        <v>632</v>
+      </c>
+      <c r="K92" t="s">
+        <v>633</v>
+      </c>
+      <c r="L92" t="s">
+        <v>634</v>
+      </c>
+      <c r="M92" t="n">
+        <v>3</v>
+      </c>
+      <c r="N92" t="s">
+        <v>635</v>
+      </c>
+      <c r="O92" t="s">
+        <v>151</v>
+      </c>
+      <c r="P92" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>3</v>
+      </c>
+      <c r="R92" t="n">
+        <v>4</v>
+      </c>
+      <c r="S92" t="n">
+        <v>3</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>2</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>6366</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>636</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>637</v>
+      </c>
+      <c r="J93" t="s">
+        <v>638</v>
+      </c>
+      <c r="K93" t="s">
+        <v>639</v>
+      </c>
+      <c r="L93" t="s">
+        <v>640</v>
+      </c>
+      <c r="M93" t="n">
+        <v>2</v>
+      </c>
+      <c r="N93" t="s">
+        <v>641</v>
+      </c>
+      <c r="O93" t="s">
+        <v>85</v>
+      </c>
+      <c r="P93" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>2</v>
+      </c>
+      <c r="R93" t="n">
+        <v>1</v>
+      </c>
+      <c r="S93" t="n">
+        <v>5</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>1</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>6366</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>642</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>643</v>
+      </c>
+      <c r="J94" t="s">
+        <v>644</v>
+      </c>
+      <c r="K94" t="s">
+        <v>645</v>
+      </c>
+      <c r="L94" t="s">
+        <v>646</v>
+      </c>
+      <c r="M94" t="n">
+        <v>2</v>
+      </c>
+      <c r="N94" t="s">
+        <v>647</v>
+      </c>
+      <c r="O94" t="s">
+        <v>60</v>
+      </c>
+      <c r="P94" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>2</v>
+      </c>
+      <c r="R94" t="n">
+        <v>3</v>
+      </c>
+      <c r="S94" t="n">
+        <v>3</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>3</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s"/>
+      <c r="X94" t="s"/>
+      <c r="Y94" t="s">
+        <v>646</v>
       </c>
     </row>
   </sheetData>
